--- a/tools/CatSim material calculator.xlsx
+++ b/tools/CatSim material calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Documents\Projects\XCIST\XCIST from Paul's old laptop\Materials\New materials for XCIST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Documents\GitHub\documentation\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B9D4D2-C9EA-4658-9B74-9200D56FE2C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A4BB9-4175-4B36-B152-6DF49CC53CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" activeTab="1" xr2:uid="{B8F9F76C-33C1-418E-8852-058650A875FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{B8F9F76C-33C1-418E-8852-058650A875FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="425">
   <si>
     <t>element</t>
   </si>
@@ -1945,7 +1945,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2069,6 +2069,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2088,90 +2097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2183,6 +2108,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2234,10 +2168,103 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2255,9 +2282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2270,16 +2294,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2300,22 +2318,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2643,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CB8E5-6694-4F1B-B671-195116FAC06A}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,52 +2681,60 @@
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="60" t="s">
         <v>390</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+    </row>
+    <row r="4" spans="1:12" s="54" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-    </row>
-    <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2734,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE334929-57FE-4A9D-B51A-4CE49032E816}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,107 +2763,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="93" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
       <c r="O1" s="28" t="s">
         <v>257</v>
       </c>
       <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="68" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="23" t="str">
         <f>IF(O12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="69" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="131">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="56">
         <v>1.0045999999999999</v>
       </c>
       <c r="M5" s="10" t="s">
@@ -2864,69 +2876,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="134" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="133"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
       <c r="O6" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($F$8), "", #N/A), IF(ISBLANK($F$8), "# Material composition source not specified.", CONCATENATE("# Material composition source: ",$F$8)))</f>
         <v># Material composition source: same as density</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="103" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="81" t="s">
         <v>422</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="105" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="83" t="s">
         <v>383</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="107"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="23" t="str">
         <f>IF($O$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -2941,69 +2953,69 @@
       <c r="D9" s="49">
         <v>6</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="102" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="74"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$A$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># nomal saline (9% NaCl in water)</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="68" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="24" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="83" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="111" t="s">
         <v>256</v>
       </c>
       <c r="D12" s="86" t="s">
@@ -3015,69 +3027,69 @@
       <c r="F12" s="86" t="s">
         <v>396</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="103"/>
       <c r="H12" s="86" t="s">
         <v>397</v>
       </c>
       <c r="I12" s="86" t="s">
         <v>392</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="97" t="s">
+      <c r="J12" s="106"/>
+      <c r="K12" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="101" t="s">
+      <c r="L12" s="76"/>
+      <c r="M12" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="N12" s="97"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Symbol and Number of atoms per molecule.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="87"/>
       <c r="E13" s="87"/>
       <c r="F13" s="87"/>
-      <c r="G13" s="76"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="99"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="87"/>
       <c r="E14" s="87"/>
       <c r="F14" s="87"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="67" t="s">
+      <c r="J14" s="107"/>
+      <c r="K14" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="98" t="s">
         <v>392</v>
       </c>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="96" t="s">
         <v>392</v>
       </c>
       <c r="O14" s="24" t="str">
@@ -3086,57 +3098,57 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="84"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
       <c r="F15" s="87"/>
-      <c r="G15" s="76"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="67"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="96"/>
       <c r="O15" s="24" t="str">
         <f>IF($O$12="1", IF(ISBLANK($L$5),FIXED(_xlfn.XLOOKUP($A18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$D$9),FIXED($L$5,$D$9)),IF(ISBLANK($L$5),"Error! Density value not specified!",FIXED($L$5,$D$9)))</f>
         <v>1.004600</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="87"/>
       <c r="E16" s="87"/>
       <c r="F16" s="87"/>
-      <c r="G16" s="76"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="67"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="96"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
       <c r="F17" s="88"/>
-      <c r="G17" s="76"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="88"/>
       <c r="I17" s="88"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="68"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="97"/>
       <c r="O17" s="24" t="s">
         <v>389</v>
       </c>
@@ -3164,7 +3176,7 @@
         <f>IF(ISBLANK($A18), "", B18*E18)</f>
         <v>72342.365750000012</v>
       </c>
-      <c r="G18" s="76"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="6">
         <f>D18</f>
         <v>1</v>
@@ -3173,7 +3185,7 @@
         <f>IF(ISBLANK($B18), "", F18/F$33)</f>
         <v>0.11089927566762281</v>
       </c>
-      <c r="J18" s="79"/>
+      <c r="J18" s="107"/>
       <c r="K18" s="14" cm="1">
         <f t="array" ref="K18:L21">_xlfn._xlws.SORT(H18:INDEX(H18:I29,O12,2),1,1,FALSE)</f>
         <v>1</v>
@@ -3217,7 +3229,7 @@
         <f>IF(ISBLANK($A19), "", B19*E19)</f>
         <v>574138.46900000004</v>
       </c>
-      <c r="G19" s="76"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H29" si="0">D19</f>
         <v>8</v>
@@ -3226,7 +3238,7 @@
         <f>IF(ISBLANK($B19), "", F19/F$33)</f>
         <v>0.88014180466607017</v>
       </c>
-      <c r="J19" s="79"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="14">
         <v>8</v>
       </c>
@@ -3269,7 +3281,7 @@
         <f>IF(ISBLANK($A20), "", B20*E20)</f>
         <v>2298.976928</v>
       </c>
-      <c r="G20" s="76"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3278,7 +3290,7 @@
         <f>IF(ISBLANK($B20), "", F20/F$33)</f>
         <v>3.5242817047599329E-3</v>
       </c>
-      <c r="J20" s="79"/>
+      <c r="J20" s="107"/>
       <c r="K20" s="14">
         <v>11</v>
       </c>
@@ -3321,7 +3333,7 @@
         <f>IF(ISBLANK($A21), "", B21*E21)</f>
         <v>3545.1499999999996</v>
       </c>
-      <c r="G21" s="76"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3330,7 +3342,7 @@
         <f>IF(ISBLANK($B21), "", F21/F$33)</f>
         <v>5.4346379615470746E-3</v>
       </c>
-      <c r="J21" s="79"/>
+      <c r="J21" s="107"/>
       <c r="K21" s="14">
         <v>17</v>
       </c>
@@ -3369,7 +3381,7 @@
         <f t="shared" ref="F22:F29" si="3">IF(ISBLANK($A22), "", B22*E22)</f>
         <v/>
       </c>
-      <c r="G22" s="76"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3378,7 +3390,7 @@
         <f t="shared" ref="I22:I29" si="4">IF(ISBLANK($B22), "", F22/F$33)</f>
         <v/>
       </c>
-      <c r="J22" s="79"/>
+      <c r="J22" s="107"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8" t="str">
@@ -3413,7 +3425,7 @@
         <f t="shared" ref="F23:F24" si="5">IF(ISBLANK($A23), "", B23*E23)</f>
         <v/>
       </c>
-      <c r="G23" s="76"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="6" t="str">
         <f t="shared" ref="H23:H24" si="6">D23</f>
         <v/>
@@ -3422,7 +3434,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J23" s="79"/>
+      <c r="J23" s="107"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8" t="str">
@@ -3457,7 +3469,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G24" s="76"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3466,7 +3478,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J24" s="79"/>
+      <c r="J24" s="107"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8" t="str">
@@ -3501,7 +3513,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="76"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3510,7 +3522,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J25" s="79"/>
+      <c r="J25" s="107"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8" t="str">
@@ -3545,7 +3557,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="76"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3554,7 +3566,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J26" s="79"/>
+      <c r="J26" s="107"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="8" t="str">
@@ -3589,7 +3601,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G27" s="76"/>
+      <c r="G27" s="104"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3598,7 +3610,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J27" s="79"/>
+      <c r="J27" s="107"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="8" t="str">
@@ -3633,7 +3645,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G28" s="76"/>
+      <c r="G28" s="104"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3642,7 +3654,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J28" s="79"/>
+      <c r="J28" s="107"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="8" t="str">
@@ -3677,7 +3689,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G29" s="77"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3686,7 +3698,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J29" s="80"/>
+      <c r="J29" s="108"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="9" t="str">
@@ -3703,18 +3715,18 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="91" t="s">
+      <c r="F30" s="66" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F31" s="92"/>
+      <c r="F31" s="67"/>
       <c r="O31" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F32" s="92"/>
+      <c r="F32" s="67"/>
       <c r="O32" s="24" t="str">
         <f>CONCATENATE("# number of iodine atoms per water molecule = ", B$20)</f>
         <v># number of iodine atoms per water molecule = 100</v>
@@ -3753,6 +3765,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="32">
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="G12:G29"/>
+    <mergeCell ref="J12:J29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="A2:N2"/>
@@ -3769,22 +3797,6 @@
     <mergeCell ref="F12:F17"/>
     <mergeCell ref="I12:I17"/>
     <mergeCell ref="H12:H17"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="G12:G29"/>
-    <mergeCell ref="J12:J29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="C12:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{1ADB471B-66ED-4CF3-B497-F05E82931B84}"/>
@@ -3820,120 +3832,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="119" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
       <c r="Q1" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
       <c r="Q2" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="69" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="23" t="str">
         <f>IF(Q12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="102" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="128" t="s">
         <v>265</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
       <c r="Q5" s="23" t="str">
         <f>IF(AND($Q$12="1",ISBLANK($K$5),ISBLANK($D$6)),CONCATENATE("# Density from ", Data!$S$1, "."), IF(ISBLANK($D$6),"# Density source not specified.",_xlfn.CONCAT("# Density source: ",$D$6)))</f>
         <v># Density source not specified.</v>
@@ -3945,19 +3957,19 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
       <c r="Q6" s="23" t="str">
         <f>IF(ISBLANK($F$8),IF($Q$12=1,"","# Material composition source not specified."),CONCATENATE("# Material composition source: ",$F$8))</f>
         <v># Material composition source not specified.</v>
@@ -3972,16 +3984,16 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
       <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3992,17 +4004,17 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
       <c r="Q8" s="23" t="str">
         <f>IF($Q$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -4018,83 +4030,83 @@
       <c r="E9" s="49">
         <v>6</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="117" t="s">
         <v>402</v>
       </c>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
       <c r="Q9" s="23" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$F$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># not specified</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="114" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
       <c r="Q11" s="24" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="120" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="115" t="s">
         <v>264</v>
       </c>
       <c r="D12" s="86" t="s">
         <v>399</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="116" t="s">
         <v>400</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="111" t="s">
         <v>256</v>
       </c>
       <c r="G12" s="86" t="s">
@@ -4112,66 +4124,66 @@
       <c r="K12" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="116" t="s">
+      <c r="L12" s="106"/>
+      <c r="M12" s="124" t="s">
         <v>409</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="101" t="s">
+      <c r="N12" s="125"/>
+      <c r="O12" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="P12" s="97"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Atomic number and Mass fraction.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="81"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="87"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="84"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="99"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="77"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="116" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="87"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="84"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="67" t="s">
+      <c r="L14" s="107"/>
+      <c r="M14" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="98" t="s">
         <v>392</v>
       </c>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="P14" s="67" t="s">
+      <c r="P14" s="96" t="s">
         <v>392</v>
       </c>
       <c r="Q14" s="24" t="str">
@@ -4180,63 +4192,63 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="81"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="87"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="84"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="67"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="96"/>
       <c r="Q15" s="24" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($K$5),FIXED(_xlfn.XLOOKUP($C18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$E$9),FIXED($K$5,$E$9)),IF(ISBLANK($K$5),"Error! Density value not specified!",FIXED($K$5,$E$9)))</f>
         <v>Error! Density value not specified!</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="81"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="84"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="87"/>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
       <c r="J16" s="87"/>
       <c r="K16" s="87"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="67"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="96"/>
       <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="88"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="85"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="88"/>
       <c r="H17" s="88"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
       <c r="K17" s="88"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="68"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="97"/>
       <c r="Q17" s="24" t="s">
         <v>389</v>
       </c>
@@ -4280,7 +4292,7 @@
         <f>IF(ISBLANK($B18), "",H18/ I18)</f>
         <v/>
       </c>
-      <c r="L18" s="79"/>
+      <c r="L18" s="107"/>
       <c r="M18" s="14" t="str" cm="1">
         <f t="array" ref="M18:N29">_xlfn._xlws.SORT(G18:INDEX(G18:H29,Q12,2),1,1,FALSE)</f>
         <v/>
@@ -4340,7 +4352,7 @@
         <f t="shared" ref="K19:K29" si="5">IF(ISBLANK($B19), "",H19/ I19)</f>
         <v/>
       </c>
-      <c r="L19" s="79"/>
+      <c r="L19" s="107"/>
       <c r="M19" s="14" t="str">
         <v/>
       </c>
@@ -4399,7 +4411,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="79"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="14" t="str">
         <v/>
       </c>
@@ -4458,7 +4470,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L21" s="79"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="14" t="str">
         <v/>
       </c>
@@ -4517,7 +4529,7 @@
         <f t="shared" ref="K22:K23" si="9">IF(ISBLANK($B22), "",H22/ I22)</f>
         <v/>
       </c>
-      <c r="L22" s="79"/>
+      <c r="L22" s="107"/>
       <c r="M22" s="14" t="str">
         <v/>
       </c>
@@ -4576,7 +4588,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="79"/>
+      <c r="L23" s="107"/>
       <c r="M23" s="14" t="str">
         <v/>
       </c>
@@ -4635,7 +4647,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L24" s="79"/>
+      <c r="L24" s="107"/>
       <c r="M24" s="14" t="str">
         <v/>
       </c>
@@ -4694,7 +4706,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L25" s="79"/>
+      <c r="L25" s="107"/>
       <c r="M25" s="14" t="str">
         <v/>
       </c>
@@ -4753,7 +4765,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L26" s="79"/>
+      <c r="L26" s="107"/>
       <c r="M26" s="14" t="str">
         <v/>
       </c>
@@ -4812,7 +4824,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L27" s="79"/>
+      <c r="L27" s="107"/>
       <c r="M27" s="14" t="str">
         <v/>
       </c>
@@ -4871,7 +4883,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L28" s="79"/>
+      <c r="L28" s="107"/>
       <c r="M28" s="14" t="str">
         <v/>
       </c>
@@ -4930,7 +4942,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L29" s="80"/>
+      <c r="L29" s="108"/>
       <c r="M29" s="15" t="str">
         <v/>
       </c>
@@ -4951,35 +4963,35 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="J30" s="91" t="s">
+      <c r="J30" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="K30" s="91" t="s">
+      <c r="K30" s="66" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
-      <c r="E31" s="92"/>
+      <c r="B31" s="67"/>
+      <c r="E31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="92"/>
-      <c r="E32" s="92"/>
+      <c r="B32" s="67"/>
+      <c r="E32" s="67"/>
       <c r="J32" s="41">
         <f>SUM(J18:J29)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="92"/>
+      <c r="K32" s="67"/>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4991,7 +5003,7 @@
         <f>SUM(E18:E29)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="92"/>
+      <c r="K33" s="67"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -5021,15 +5033,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="L12:L29"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="K12:K17"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:P1"/>
@@ -5046,16 +5059,15 @@
     <mergeCell ref="M14:M17"/>
     <mergeCell ref="N14:N17"/>
     <mergeCell ref="O14:O17"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="L12:L29"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="F9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5079,102 +5091,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="I1" s="125" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="I1" s="131" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="P1" s="124" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="P1" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="Q1" s="124"/>
-      <c r="S1" s="125" t="s">
+      <c r="Q1" s="130"/>
+      <c r="S1" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
     </row>
     <row r="5" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">

--- a/tools/CatSim material calculator.xlsx
+++ b/tools/CatSim material calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Documents\GitHub\documentation\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A4BB9-4175-4B36-B152-6DF49CC53CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723904F8-9928-4C4A-9347-F451035D3908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{B8F9F76C-33C1-418E-8852-058650A875FE}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="426">
   <si>
     <t>element</t>
   </si>
@@ -838,9 +838,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t># Copyright 2020, General Electric Company. All rights reserved. See https://github.com/xcist/code/blob/master/LICENSE</t>
   </si>
   <si>
     <t>Atomic
@@ -1465,16 +1462,22 @@
     </r>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Sodium_chloride</t>
-  </si>
-  <si>
-    <t>nomal saline (9% NaCl in water)</t>
-  </si>
-  <si>
     <t>For NaCl concentration in water, copy these to O23 and O24.</t>
   </si>
   <si>
     <t>For iodine concentration in water, copy these to O22 and O23.</t>
+  </si>
+  <si>
+    <t># Copyright 2022, General Electric Company. All rights reserved. See https://github.com/xcist/code/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</t>
+  </si>
+  <si>
+    <t>"Enter a formula" tab in this workbook</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1488,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,6 +1630,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2097,6 +2107,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2108,15 +2196,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2177,94 +2256,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2282,6 +2277,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2294,10 +2292,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2318,8 +2322,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2650,7 +2660,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,13 +2672,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -2687,42 +2697,42 @@
     </row>
     <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:12" s="54" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
+      <c r="A4" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
     </row>
     <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -2747,7 +2757,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,182 +2773,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
+      <c r="A1" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="70"/>
       <c r="O1" s="28" t="s">
         <v>257</v>
       </c>
       <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
+      <c r="A2" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
       <c r="O2" s="11" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="89"/>
+      <c r="A3" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="89"/>
+      <c r="A4" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
       <c r="O4" s="23" t="str">
         <f>IF(O12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
+      <c r="A5" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="56">
-        <v>1.0045999999999999</v>
+        <v>1</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="23" t="str">
         <f>IF(AND($O$12="1",ISBLANK($L$5),ISBLANK($D$6)),CONCATENATE("# Density from ", Data!$S$1, "."), IF(ISBLANK($D$6),"# Density source not specified.",_xlfn.CONCAT("# Density source: ",$D$6)))</f>
-        <v># Density source: https://en.wikipedia.org/wiki/Sodium_chloride</v>
+        <v># Density source: https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="90" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="A6" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="134" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="136"/>
       <c r="O6" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($F$8), "", #N/A), IF(ISBLANK($F$8), "# Material composition source not specified.", CONCATENATE("# Material composition source: ",$F$8)))</f>
         <v># Material composition source: same as density</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="104" t="s">
+        <v>423</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="81" t="s">
-        <v>422</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="24"/>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="83" t="s">
-        <v>383</v>
-      </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="23" t="str">
         <f>IF($O$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -2946,151 +2956,151 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="49">
         <v>6</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>402</v>
-      </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
+      <c r="E9" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="78"/>
       <c r="O9" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$A$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
-        <v># nomal saline (9% NaCl in water)</v>
+        <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
-        <v>382</v>
-      </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="A10" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="A11" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
       <c r="O11" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="111" t="s">
+      <c r="A12" s="94" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="E12" s="86" t="s">
+      <c r="D12" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="109" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="109" t="s">
         <v>396</v>
       </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>392</v>
-      </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="79" t="s">
+      <c r="I12" s="109" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="82"/>
+      <c r="K12" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="N12" s="75"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="N12" s="98"/>
       <c r="O12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Symbol and Number of atoms per molecule.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="77"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="100"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14" s="98" t="s">
-        <v>392</v>
-      </c>
-      <c r="M14" s="100" t="s">
-        <v>260</v>
-      </c>
-      <c r="N14" s="96" t="s">
-        <v>392</v>
+      <c r="A14" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="M14" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>391</v>
       </c>
       <c r="O14" s="24" t="str">
         <f>CONCATENATE("# Density:")</f>
@@ -3098,59 +3108,59 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="96"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="24" t="str">
         <f>IF($O$12="1", IF(ISBLANK($L$5),FIXED(_xlfn.XLOOKUP($A18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$D$9),FIXED($L$5,$D$9)),IF(ISBLANK($L$5),"Error! Density value not specified!",FIXED($L$5,$D$9)))</f>
-        <v>1.004600</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="96"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="97"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="33">
-        <v>71770</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IF(ISBLANK($A18), "", _xlfn.XLOOKUP($A18,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
@@ -3174,24 +3184,24 @@
       </c>
       <c r="F18" s="39">
         <f>IF(ISBLANK($A18), "", B18*E18)</f>
-        <v>72342.365750000012</v>
-      </c>
-      <c r="G18" s="104"/>
+        <v>1.0079750000000001</v>
+      </c>
+      <c r="G18" s="80"/>
       <c r="H18" s="6">
         <f>D18</f>
         <v>1</v>
       </c>
       <c r="I18" s="39">
         <f>IF(ISBLANK($B18), "", F18/F$33)</f>
-        <v>0.11089927566762281</v>
-      </c>
-      <c r="J18" s="107"/>
+        <v>3.0538427338023789E-2</v>
+      </c>
+      <c r="J18" s="83"/>
       <c r="K18" s="14" cm="1">
-        <f t="array" ref="K18:L21">_xlfn._xlws.SORT(H18:INDEX(H18:I29,O12,2),1,1,FALSE)</f>
+        <f t="array" ref="K18:L19">_xlfn._xlws.SORT(H18:INDEX(H18:I29,O12,2),1,1,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L18" s="14">
-        <v>0.11089927566762281</v>
+        <v>3.0538427338023789E-2</v>
       </c>
       <c r="M18" s="8" t="str">
         <f>_xlfn.VALUETOTEXT(K18)</f>
@@ -3199,11 +3209,11 @@
       </c>
       <c r="N18" s="14" t="str">
         <f>IF(M18="", "", FIXED(L18,$D$9))</f>
-        <v>0.110899</v>
+        <v>0.030538</v>
       </c>
       <c r="O18" s="24" t="str">
         <f>IF(M18="", "", CONCATENATE(M18, "    ",N18, "    # ", _xlfn.XLOOKUP(VALUE(M18),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>1    0.110899    # hydrogen</v>
+        <v>1    0.030538    # hydrogen</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3211,7 +3221,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="33">
-        <v>35885</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF(ISBLANK($A19), "", _xlfn.XLOOKUP($A19,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
@@ -3227,23 +3237,23 @@
       </c>
       <c r="F19" s="39">
         <f>IF(ISBLANK($A19), "", B19*E19)</f>
-        <v>574138.46900000004</v>
-      </c>
-      <c r="G19" s="104"/>
+        <v>31.998799999999999</v>
+      </c>
+      <c r="G19" s="80"/>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H29" si="0">D19</f>
         <v>8</v>
       </c>
       <c r="I19" s="39">
         <f>IF(ISBLANK($B19), "", F19/F$33)</f>
-        <v>0.88014180466607017</v>
-      </c>
-      <c r="J19" s="107"/>
+        <v>0.9694615726619763</v>
+      </c>
+      <c r="J19" s="83"/>
       <c r="K19" s="14">
         <v>8</v>
       </c>
       <c r="L19" s="14">
-        <v>0.88014180466607017</v>
+        <v>0.9694615726619763</v>
       </c>
       <c r="M19" s="8" t="str">
         <f t="shared" ref="M19:M29" si="1">_xlfn.VALUETOTEXT(K19)</f>
@@ -3251,115 +3261,99 @@
       </c>
       <c r="N19" s="14" t="str">
         <f t="shared" ref="N19:N29" si="2">IF(M19="", "", FIXED(L19,$D$9))</f>
-        <v>0.880142</v>
+        <v>0.969462</v>
       </c>
       <c r="O19" s="24" t="str">
         <f>IF(M19="", "", CONCATENATE(M19, "    ",N19, "    # ", _xlfn.XLOOKUP(VALUE(M19),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>8    0.880142    # oxygen</v>
+        <v>8    0.969462    # oxygen</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="33">
-        <v>100</v>
-      </c>
+      <c r="A20" s="50"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="6" t="str">
         <f>IF(ISBLANK($A20), "", _xlfn.XLOOKUP($A20,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
-        <v>sodium</v>
-      </c>
-      <c r="D20" s="6">
+        <v/>
+      </c>
+      <c r="D20" s="6" t="str">
         <f>IF(ISBLANK($A20), "", _xlfn.XLOOKUP($A20,Data!$B$6:$B$123,Data!$C$6:$C$123,#N/A))</f>
-        <v>11</v>
-      </c>
-      <c r="E20" s="6">
+        <v/>
+      </c>
+      <c r="E20" s="6" t="str">
         <f>IF(ISBLANK($A20), "", _xlfn.XLOOKUP($A20,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v>22.989769280000001</v>
-      </c>
-      <c r="F20" s="39">
+        <v/>
+      </c>
+      <c r="F20" s="39" t="str">
         <f>IF(ISBLANK($A20), "", B20*E20)</f>
-        <v>2298.976928</v>
-      </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="6">
+        <v/>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I20" s="39">
+        <v/>
+      </c>
+      <c r="I20" s="39" t="str">
         <f>IF(ISBLANK($B20), "", F20/F$33)</f>
-        <v>3.5242817047599329E-3</v>
-      </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="14">
-        <v>11</v>
-      </c>
-      <c r="L20" s="14">
-        <v>3.5242817047599329E-3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J20" s="83"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v/>
       </c>
       <c r="N20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0.003524</v>
+        <v/>
       </c>
       <c r="O20" s="24" t="str">
         <f>IF(M20="", "", CONCATENATE(M20, "    ",N20, "    # ", _xlfn.XLOOKUP(VALUE(M20),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>11    0.003524    # sodium</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="33">
-        <v>100</v>
-      </c>
+      <c r="A21" s="50"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="6" t="str">
         <f>IF(ISBLANK($A21), "", _xlfn.XLOOKUP($A21,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
-        <v>chlorine</v>
-      </c>
-      <c r="D21" s="6">
+        <v/>
+      </c>
+      <c r="D21" s="6" t="str">
         <f>IF(ISBLANK($A21), "", _xlfn.XLOOKUP($A21,Data!$B$6:$B$123,Data!$C$6:$C$123,#N/A))</f>
-        <v>17</v>
-      </c>
-      <c r="E21" s="6">
+        <v/>
+      </c>
+      <c r="E21" s="6" t="str">
         <f>IF(ISBLANK($A21), "", _xlfn.XLOOKUP($A21,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v>35.451499999999996</v>
-      </c>
-      <c r="F21" s="39">
+        <v/>
+      </c>
+      <c r="F21" s="39" t="str">
         <f>IF(ISBLANK($A21), "", B21*E21)</f>
-        <v>3545.1499999999996</v>
-      </c>
-      <c r="G21" s="104"/>
-      <c r="H21" s="6">
+        <v/>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I21" s="39">
+        <v/>
+      </c>
+      <c r="I21" s="39" t="str">
         <f>IF(ISBLANK($B21), "", F21/F$33)</f>
-        <v>5.4346379615470746E-3</v>
-      </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="14">
-        <v>17</v>
-      </c>
-      <c r="L21" s="14">
-        <v>5.4346379615470746E-3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J21" s="83"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v/>
       </c>
       <c r="N21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>0.005435</v>
+        <v/>
       </c>
       <c r="O21" s="24" t="str">
         <f>IF(M21="", "", CONCATENATE(M21, "    ",N21, "    # ", _xlfn.XLOOKUP(VALUE(M21),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>17    0.005435    # chlorine</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3381,7 +3375,7 @@
         <f t="shared" ref="F22:F29" si="3">IF(ISBLANK($A22), "", B22*E22)</f>
         <v/>
       </c>
-      <c r="G22" s="104"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3390,7 +3384,7 @@
         <f t="shared" ref="I22:I29" si="4">IF(ISBLANK($B22), "", F22/F$33)</f>
         <v/>
       </c>
-      <c r="J22" s="107"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8" t="str">
@@ -3425,7 +3419,7 @@
         <f t="shared" ref="F23:F24" si="5">IF(ISBLANK($A23), "", B23*E23)</f>
         <v/>
       </c>
-      <c r="G23" s="104"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="6" t="str">
         <f t="shared" ref="H23:H24" si="6">D23</f>
         <v/>
@@ -3434,7 +3428,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J23" s="107"/>
+      <c r="J23" s="83"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8" t="str">
@@ -3469,7 +3463,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G24" s="104"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3478,7 +3472,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J24" s="107"/>
+      <c r="J24" s="83"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8" t="str">
@@ -3513,7 +3507,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="104"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3522,7 +3516,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J25" s="107"/>
+      <c r="J25" s="83"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8" t="str">
@@ -3557,7 +3551,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="104"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3566,7 +3560,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J26" s="107"/>
+      <c r="J26" s="83"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="8" t="str">
@@ -3601,7 +3595,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G27" s="104"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3610,7 +3604,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J27" s="107"/>
+      <c r="J27" s="83"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="8" t="str">
@@ -3645,7 +3639,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G28" s="104"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3654,7 +3648,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J28" s="107"/>
+      <c r="J28" s="83"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="8" t="str">
@@ -3689,7 +3683,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G29" s="105"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3698,7 +3692,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J29" s="108"/>
+      <c r="J29" s="84"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="9" t="str">
@@ -3715,31 +3709,31 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="66" t="s">
-        <v>412</v>
+      <c r="F30" s="92" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F31" s="67"/>
+      <c r="F31" s="93"/>
       <c r="O31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F32" s="67"/>
+      <c r="F32" s="93"/>
       <c r="O32" s="24" t="str">
         <f>CONCATENATE("# number of iodine atoms per water molecule = ", B$20)</f>
-        <v># number of iodine atoms per water molecule = 100</v>
+        <v xml:space="preserve"># number of iodine atoms per water molecule = </v>
       </c>
     </row>
     <row r="33" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F33" s="41">
         <f>SUM(F18:F29)</f>
-        <v>652324.96167800005</v>
-      </c>
-      <c r="O33" s="24" t="str">
+        <v>33.006774999999998</v>
+      </c>
+      <c r="O33" s="24" t="e">
         <f>CONCATENATE("# iodine mass concentration = ", O$15, " g/mL * ", N$20, " = ", 1000*VALUE(O$15)*VALUE(N$20), " mg/mL.")</f>
-        <v># iodine mass concentration = 1.004600 g/mL * 0.003524 = 3.5402104 mg/mL.</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="6:15" x14ac:dyDescent="0.25">
@@ -3747,24 +3741,40 @@
     </row>
     <row r="35" spans="6:15" x14ac:dyDescent="0.25">
       <c r="O35" s="32" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="6:15" x14ac:dyDescent="0.25">
       <c r="O36" s="24" t="str">
         <f>CONCATENATE("# Formula: H(", B$18, ")O(", B$19, ")Na(", B$20, ")Cl(", B$21, ")")</f>
-        <v># Formula: H(71770)O(35885)Na(100)Cl(100)</v>
+        <v># Formula: H(1)O(2)Na()Cl()</v>
       </c>
     </row>
     <row r="37" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O37" s="24" t="str">
+      <c r="O37" s="24" t="e">
         <f>CONCATENATE("# NaCl mass concentration = (", N$20, " + ", N$21, ") * ", O$15, " g/mL = ", 1000*(VALUE(N$20)+VALUE(N$21))*VALUE(O$15), " g/L.")</f>
-        <v># NaCl mass concentration = (0.003524 + 0.005435) * 1.004600 g/mL = 9.0002114 g/L.</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="32">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="H12:H17"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:N6"/>
@@ -3781,28 +3791,9 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="H12:H17"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{1ADB471B-66ED-4CF3-B497-F05E82931B84}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3811,7 +3802,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,189 +3823,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="119" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
+      <c r="A1" s="114" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
       <c r="Q1" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
+      <c r="A2" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
       <c r="Q2" s="11" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
+      <c r="A3" s="124" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
+      <c r="A4" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="23" t="str">
         <f>IF(Q12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="128" t="s">
-        <v>265</v>
-      </c>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
+      <c r="A5" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="55">
+        <v>1</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
       <c r="Q5" s="23" t="str">
         <f>IF(AND($Q$12="1",ISBLANK($K$5),ISBLANK($D$6)),CONCATENATE("# Density from ", Data!$S$1, "."), IF(ISBLANK($D$6),"# Density source not specified.",_xlfn.CONCAT("# Density source: ",$D$6)))</f>
-        <v># Density source not specified.</v>
+        <v># Density source: https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
+      <c r="D6" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
       <c r="Q6" s="23" t="str">
         <f>IF(ISBLANK($F$8),IF($Q$12=1,"","# Material composition source not specified."),CONCATENATE("# Material composition source: ",$F$8))</f>
-        <v># Material composition source not specified.</v>
+        <v># Material composition source: "Enter a formula" tab in this workbook</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
+      <c r="G7" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
       <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
+      <c r="F8" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
       <c r="Q8" s="23" t="str">
         <f>IF($Q$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -4022,7 +4021,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4030,161 +4029,161 @@
       <c r="E9" s="49">
         <v>6</v>
       </c>
-      <c r="F9" s="117" t="s">
-        <v>402</v>
-      </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
+      <c r="F9" s="126" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
       <c r="Q9" s="23" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$F$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
-        <v># not specified</v>
+        <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
-        <v>382</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
+      <c r="A10" s="124" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
+      <c r="A11" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
       <c r="Q11" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="115" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="86" t="s">
+      <c r="A12" s="94" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="F12" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="I12" s="109" t="s">
+        <v>258</v>
+      </c>
+      <c r="J12" s="109" t="s">
         <v>400</v>
       </c>
-      <c r="F12" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="H12" s="86" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="J12" s="86" t="s">
-        <v>401</v>
-      </c>
-      <c r="K12" s="86" t="s">
-        <v>394</v>
-      </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="124" t="s">
-        <v>409</v>
-      </c>
-      <c r="N12" s="125"/>
-      <c r="O12" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="P12" s="75"/>
+      <c r="K12" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="L12" s="82"/>
+      <c r="M12" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="N12" s="121"/>
+      <c r="O12" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="98"/>
       <c r="Q12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Atomic number and Mass fraction.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="77"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="100"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>392</v>
-      </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="N14" s="98" t="s">
-        <v>392</v>
-      </c>
-      <c r="O14" s="100" t="s">
-        <v>260</v>
-      </c>
-      <c r="P14" s="96" t="s">
-        <v>392</v>
+      <c r="A14" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="119" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="N14" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="O14" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>391</v>
       </c>
       <c r="Q14" s="24" t="str">
         <f>CONCATENATE("# Density:")</f>
@@ -4192,184 +4191,192 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="96"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="71"/>
       <c r="Q15" s="24" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($K$5),FIXED(_xlfn.XLOOKUP($C18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$E$9),FIXED($K$5,$E$9)),IF(ISBLANK($K$5),"Error! Density value not specified!",FIXED($K$5,$E$9)))</f>
-        <v>Error! Density value not specified!</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="96"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="71"/>
       <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="97"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="72"/>
       <c r="Q17" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="50">
+        <v>1</v>
+      </c>
+      <c r="B18" s="33">
+        <v>3.0538427338023789E-2</v>
+      </c>
       <c r="C18" s="35" t="str">
         <f>IF($G18="", "", _xlfn.XLOOKUP($G18,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="D18" s="45" t="str">
+        <v>H</v>
+      </c>
+      <c r="D18" s="45">
         <f t="shared" ref="D18:D29" si="0">IF(E18= "","",E18/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E18" s="36" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="36">
         <f t="shared" ref="E18:E29" si="1">IF(C18="", "", K18/$K$34)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F18" s="6" t="str">
         <f>IF($G18="", "", _xlfn.XLOOKUP($G18,Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="G18" s="6" t="str">
+        <v>hydrogen</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" ref="G18:G29" si="2">IF(ISBLANK(A18), "", A18)</f>
-        <v/>
-      </c>
-      <c r="H18" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" ref="H18:H29" si="3">IF($C18="", "", B18/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I18" s="6" t="str">
+        <v>3.0538427338023789E-2</v>
+      </c>
+      <c r="I18" s="6">
         <f>IF($C18="", "", _xlfn.XLOOKUP($C18,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J18" s="39" t="str">
+        <v>1.0079750000000001</v>
+      </c>
+      <c r="J18" s="39">
         <f>IF(ISBLANK($B18), "",H18*I18)</f>
-        <v/>
-      </c>
-      <c r="K18" s="39" t="str">
+        <v>3.0781971296044531E-2</v>
+      </c>
+      <c r="K18" s="39">
         <f>IF(ISBLANK($B18), "",H18/ I18)</f>
-        <v/>
-      </c>
-      <c r="L18" s="107"/>
-      <c r="M18" s="14" t="str" cm="1">
-        <f t="array" ref="M18:N29">_xlfn._xlws.SORT(G18:INDEX(G18:H29,Q12,2),1,1,FALSE)</f>
-        <v/>
-      </c>
-      <c r="N18" s="14" t="str">
-        <v/>
+        <v>3.0296810276072113E-2</v>
+      </c>
+      <c r="L18" s="83"/>
+      <c r="M18" s="14" cm="1">
+        <f t="array" ref="M18:N19">_xlfn._xlws.SORT(G18:INDEX(G18:H29,Q12,2),1,1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="14">
+        <v>3.0538427338023789E-2</v>
       </c>
       <c r="O18" s="8" t="str">
         <f>_xlfn.VALUETOTEXT(M18)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P18" s="14" t="str">
         <f>IF(O18="", "", FIXED(N18,$E$9))</f>
-        <v/>
+        <v>0.030538</v>
       </c>
       <c r="Q18" s="24" t="str">
         <f>IF(O18="", "", CONCATENATE(O18, "    ",P18, "    # ", _xlfn.XLOOKUP(VALUE(O18),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v/>
+        <v>1    0.030538    # hydrogen</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="50">
+        <v>8</v>
+      </c>
+      <c r="B19" s="33">
+        <v>0.9694615726619763</v>
+      </c>
       <c r="C19" s="35" t="str">
         <f>IF($G19="", "", _xlfn.XLOOKUP($G19,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="D19" s="45" t="str">
+        <v>O</v>
+      </c>
+      <c r="D19" s="45">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" s="36" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F19" s="6" t="str">
         <f>IF($G19="", "", _xlfn.XLOOKUP($G19,Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="G19" s="6" t="str">
+        <v>oxygen</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H19" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I19" s="6" t="str">
+        <v>0.9694615726619763</v>
+      </c>
+      <c r="I19" s="6">
         <f>IF($C19="", "", _xlfn.XLOOKUP($C19,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J19" s="39" t="str">
+        <v>15.9994</v>
+      </c>
+      <c r="J19" s="39">
         <f t="shared" ref="J19:J29" si="4">IF(ISBLANK($B19), "",H19*I19)</f>
-        <v/>
-      </c>
-      <c r="K19" s="39" t="str">
+        <v>15.510803485648024</v>
+      </c>
+      <c r="K19" s="39">
         <f t="shared" ref="K19:K29" si="5">IF(ISBLANK($B19), "",H19/ I19)</f>
-        <v/>
-      </c>
-      <c r="L19" s="107"/>
-      <c r="M19" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N19" s="14" t="str">
-        <v/>
+        <v>6.0593620552144227E-2</v>
+      </c>
+      <c r="L19" s="83"/>
+      <c r="M19" s="14">
+        <v>8</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0.9694615726619763</v>
       </c>
       <c r="O19" s="8" t="str">
         <f t="shared" ref="O19:O29" si="6">_xlfn.VALUETOTEXT(M19)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="P19" s="14" t="str">
         <f t="shared" ref="P19:P29" si="7">IF(O19="", "", FIXED(N19,$E$9))</f>
-        <v/>
+        <v>0.969462</v>
       </c>
       <c r="Q19" s="24" t="str">
         <f>IF(O19="", "", CONCATENATE(O19, "    ",P19, "    # ", _xlfn.XLOOKUP(VALUE(O19),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v/>
+        <v>8    0.969462    # oxygen</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4411,13 +4418,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="107"/>
-      <c r="M20" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N20" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L20" s="83"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4470,13 +4473,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N21" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L21" s="83"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4529,13 +4528,9 @@
         <f t="shared" ref="K22:K23" si="9">IF(ISBLANK($B22), "",H22/ I22)</f>
         <v/>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N22" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L22" s="83"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="8" t="str">
         <f t="shared" ref="O22:O23" si="10">_xlfn.VALUETOTEXT(M22)</f>
         <v/>
@@ -4588,13 +4583,9 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N23" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L23" s="83"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="8" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4647,13 +4638,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N24" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L24" s="83"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4706,13 +4693,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L25" s="107"/>
-      <c r="M25" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N25" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L25" s="83"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
       <c r="O25" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4765,13 +4748,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L26" s="107"/>
-      <c r="M26" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N26" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L26" s="83"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
       <c r="O26" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4824,13 +4803,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L27" s="107"/>
-      <c r="M27" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N27" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L27" s="83"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4883,13 +4858,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L28" s="107"/>
-      <c r="M28" s="14" t="str">
-        <v/>
-      </c>
-      <c r="N28" s="14" t="str">
-        <v/>
-      </c>
+      <c r="L28" s="83"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="8" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4942,13 +4913,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L29" s="108"/>
-      <c r="M29" s="15" t="str">
-        <v/>
-      </c>
-      <c r="N29" s="15" t="str">
-        <v/>
-      </c>
+      <c r="L29" s="84"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4963,47 +4930,47 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="J30" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="K30" s="66" t="s">
-        <v>406</v>
+      <c r="B30" s="92" t="s">
+        <v>407</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>397</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="K30" s="92" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="67"/>
-      <c r="E31" s="67"/>
+      <c r="B31" s="93"/>
+      <c r="E31" s="93"/>
       <c r="G31" s="53"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
-      <c r="E32" s="67"/>
+      <c r="B32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="J32" s="41">
         <f>SUM(J18:J29)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="67"/>
+        <v>15.541585456944068</v>
+      </c>
+      <c r="K32" s="93"/>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52">
         <f>SUM(B18:B29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="46">
         <f>SUM(E18:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="67"/>
+        <v>3</v>
+      </c>
+      <c r="K33" s="93"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -5011,7 +4978,7 @@
     <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K34" s="42">
         <f>MIN(K18:K29)</f>
-        <v>0</v>
+        <v>3.0296810276072113E-2</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -5033,16 +5000,15 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="L12:L29"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="F9:P9"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:P1"/>
@@ -5059,15 +5025,16 @@
     <mergeCell ref="M14:M17"/>
     <mergeCell ref="N14:N17"/>
     <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="L12:L29"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="K12:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5091,102 +5058,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="I1" s="131" t="s">
-        <v>376</v>
-      </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="P1" s="130" t="s">
+      <c r="A1" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="I1" s="129" t="s">
         <v>375</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="S1" s="131" t="s">
-        <v>379</v>
-      </c>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="P1" s="128" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q1" s="128"/>
+      <c r="S1" s="129" t="s">
+        <v>378</v>
+      </c>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="133" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
     </row>
     <row r="5" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5238,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5273,7 +5240,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ref="L6" si="0">IF(LEFT($K6,1)="[",VALUE(MID($K6,2,FIND(",",$K6)-2)), $K6)</f>
@@ -5288,7 +5255,7 @@
         <v>1.0074999999999998</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P6">
         <f>G6-N6</f>
@@ -5305,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="V6" s="27">
         <v>8.3750000000000003E-5</v>
@@ -5374,7 +5341,7 @@
         <v>10</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V7" s="27">
         <v>1.663E-4</v>
@@ -5447,7 +5414,7 @@
         <v>12</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V8" s="27">
         <v>0.53400000000000003</v>
@@ -5520,7 +5487,7 @@
         <v>15</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V9" s="27">
         <v>1.8480000000000001</v>
@@ -5593,7 +5560,7 @@
         <v>17</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V10" s="27">
         <v>2.37</v>
@@ -5666,7 +5633,7 @@
         <v>20</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V11" s="27">
         <v>1.7</v>
@@ -5708,7 +5675,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="7"/>
@@ -5739,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V12" s="27">
         <v>1.165E-3</v>
@@ -5781,7 +5748,7 @@
         <v>26</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="7"/>
@@ -5812,7 +5779,7 @@
         <v>26</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V13" s="27">
         <v>1.3320000000000001E-3</v>
@@ -5885,7 +5852,7 @@
         <v>29</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V14" s="27">
         <v>1.58E-3</v>
@@ -5958,7 +5925,7 @@
         <v>31</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V15" s="27">
         <v>8.3850000000000005E-4</v>
@@ -6031,7 +5998,7 @@
         <v>33</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V16" s="27">
         <v>0.97099999999999997</v>
@@ -6104,7 +6071,7 @@
         <v>35</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V17" s="27">
         <v>1.74</v>
@@ -6177,7 +6144,7 @@
         <v>37</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V18" s="27">
         <v>2.6989999999999998</v>
@@ -6250,7 +6217,7 @@
         <v>39</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V19" s="27">
         <v>2.33</v>
@@ -6323,7 +6290,7 @@
         <v>42</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V20" s="27">
         <v>2.2000000000000002</v>
@@ -6335,7 +6302,7 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>43</v>
@@ -6396,7 +6363,7 @@
         <v>43</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V21" s="27">
         <v>2</v>
@@ -6469,7 +6436,7 @@
         <v>46</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V22" s="27">
         <v>2.9949999999999998E-3</v>
@@ -6542,7 +6509,7 @@
         <v>49</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V23" s="27">
         <v>1.6620000000000001E-3</v>
@@ -6615,7 +6582,7 @@
         <v>51</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V24" s="27">
         <v>0.86199999999999999</v>
@@ -6688,7 +6655,7 @@
         <v>53</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V25" s="27">
         <v>1.55</v>
@@ -6761,7 +6728,7 @@
         <v>55</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V26" s="27">
         <v>2.9889999999999999</v>
@@ -6834,7 +6801,7 @@
         <v>57</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V27" s="27">
         <v>4.54</v>
@@ -6907,7 +6874,7 @@
         <v>59</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V28" s="27">
         <v>6.11</v>
@@ -6980,7 +6947,7 @@
         <v>61</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V29" s="27">
         <v>7.18</v>
@@ -7053,7 +7020,7 @@
         <v>63</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V30" s="27">
         <v>7.44</v>
@@ -7126,7 +7093,7 @@
         <v>65</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V31" s="27">
         <v>7.8739999999999997</v>
@@ -7199,7 +7166,7 @@
         <v>67</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V32" s="27">
         <v>8.9</v>
@@ -7272,7 +7239,7 @@
         <v>69</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V33" s="27">
         <v>8.9019999999999992</v>
@@ -7345,7 +7312,7 @@
         <v>71</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V34" s="27">
         <v>8.9600000000000009</v>
@@ -7418,7 +7385,7 @@
         <v>73</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V35" s="27">
         <v>7.133</v>
@@ -7491,7 +7458,7 @@
         <v>75</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V36" s="27">
         <v>5.9039999999999999</v>
@@ -7564,7 +7531,7 @@
         <v>77</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V37" s="27">
         <v>5.3230000000000004</v>
@@ -7637,7 +7604,7 @@
         <v>79</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V38" s="27">
         <v>5.73</v>
@@ -7710,7 +7677,7 @@
         <v>81</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V39" s="27">
         <v>4.5</v>
@@ -7783,7 +7750,7 @@
         <v>83</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V40" s="27">
         <v>7.0720000000000002E-3</v>
@@ -7856,7 +7823,7 @@
         <v>86</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V41" s="27">
         <v>3.4780000000000002E-3</v>
@@ -7929,7 +7896,7 @@
         <v>88</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V42" s="27">
         <v>1.532</v>
@@ -8002,7 +7969,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V43" s="27">
         <v>2.54</v>
@@ -8075,7 +8042,7 @@
         <v>92</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V44" s="27">
         <v>4.4690000000000003</v>
@@ -8148,7 +8115,7 @@
         <v>94</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V45" s="27">
         <v>6.5060000000000002</v>
@@ -8221,7 +8188,7 @@
         <v>96</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V46" s="27">
         <v>8.57</v>
@@ -8294,7 +8261,7 @@
         <v>98</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V47" s="27">
         <v>10.220000000000001</v>
@@ -8336,7 +8303,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L48" s="3" t="e">
         <f t="shared" si="7"/>
@@ -8367,7 +8334,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V48" s="27">
         <v>11.5</v>
@@ -8440,7 +8407,7 @@
         <v>102</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V49" s="27">
         <v>12.41</v>
@@ -8513,7 +8480,7 @@
         <v>104</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V50" s="27">
         <v>12.41</v>
@@ -8586,7 +8553,7 @@
         <v>106</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V51" s="27">
         <v>12.02</v>
@@ -8659,7 +8626,7 @@
         <v>108</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V52" s="27">
         <v>10.5</v>
@@ -8732,7 +8699,7 @@
         <v>110</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V53" s="27">
         <v>8.65</v>
@@ -8805,7 +8772,7 @@
         <v>112</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V54" s="27">
         <v>7.31</v>
@@ -8878,7 +8845,7 @@
         <v>114</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V55" s="27">
         <v>7.31</v>
@@ -8951,7 +8918,7 @@
         <v>116</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V56" s="27">
         <v>6.6909999999999998</v>
@@ -9024,7 +8991,7 @@
         <v>118</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V57" s="27">
         <v>6.24</v>
@@ -9097,7 +9064,7 @@
         <v>120</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V58" s="27">
         <v>4.93</v>
@@ -9170,7 +9137,7 @@
         <v>122</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V59" s="27">
         <v>5.4850000000000003E-3</v>
@@ -9182,7 +9149,7 @@
     </row>
     <row r="60" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>123</v>
@@ -9243,7 +9210,7 @@
         <v>123</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V60" s="27">
         <v>1.873</v>
@@ -9316,7 +9283,7 @@
         <v>125</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V61" s="27">
         <v>3.5</v>
@@ -9389,7 +9356,7 @@
         <v>127</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V62" s="27">
         <v>6.1539999999999999</v>
@@ -9462,7 +9429,7 @@
         <v>129</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V63" s="27">
         <v>6.657</v>
@@ -9535,7 +9502,7 @@
         <v>131</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V64" s="27">
         <v>6.71</v>
@@ -9608,7 +9575,7 @@
         <v>133</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V65" s="27">
         <v>6.9</v>
@@ -9650,7 +9617,7 @@
         <v>135</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L66" s="3" t="e">
         <f t="shared" si="7"/>
@@ -9681,7 +9648,7 @@
         <v>135</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V66" s="27">
         <v>7.22</v>
@@ -9754,7 +9721,7 @@
         <v>137</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V67" s="27">
         <v>7.46</v>
@@ -9827,7 +9794,7 @@
         <v>139</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V68" s="27">
         <v>5.2430000000000003</v>
@@ -9900,7 +9867,7 @@
         <v>141</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V69" s="27">
         <v>7.9</v>
@@ -9973,7 +9940,7 @@
         <v>143</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V70" s="27">
         <v>8.2289999999999992</v>
@@ -10046,7 +10013,7 @@
         <v>145</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V71" s="27">
         <v>8.5500000000000007</v>
@@ -10119,7 +10086,7 @@
         <v>147</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V72" s="27">
         <v>8.7949999999999999</v>
@@ -10192,7 +10159,7 @@
         <v>149</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V73" s="27">
         <v>9.0660000000000007</v>
@@ -10265,7 +10232,7 @@
         <v>151</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V74" s="27">
         <v>9.3209999999999997</v>
@@ -10338,7 +10305,7 @@
         <v>153</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V75" s="27">
         <v>6.73</v>
@@ -10411,7 +10378,7 @@
         <v>155</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V76" s="27">
         <v>9.84</v>
@@ -10484,7 +10451,7 @@
         <v>157</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V77" s="27">
         <v>13.31</v>
@@ -10557,7 +10524,7 @@
         <v>159</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V78" s="27">
         <v>16.649999999999999</v>
@@ -10630,7 +10597,7 @@
         <v>160</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V79" s="27">
         <v>19.3</v>
@@ -10703,7 +10670,7 @@
         <v>162</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V80" s="27">
         <v>21.02</v>
@@ -10776,7 +10743,7 @@
         <v>164</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V81" s="27">
         <v>22.57</v>
@@ -10849,7 +10816,7 @@
         <v>166</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="V82" s="27">
         <v>22.42</v>
@@ -10922,7 +10889,7 @@
         <v>168</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V83" s="27">
         <v>21.45</v>
@@ -10995,7 +10962,7 @@
         <v>170</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V84" s="27">
         <v>19.32</v>
@@ -11068,7 +11035,7 @@
         <v>172</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V85" s="27">
         <v>13.55</v>
@@ -11141,7 +11108,7 @@
         <v>174</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V86" s="27">
         <v>11.72</v>
@@ -11214,7 +11181,7 @@
         <v>177</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="V87" s="27">
         <v>11.35</v>
@@ -11287,7 +11254,7 @@
         <v>179</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V88" s="27">
         <v>9.7469999999999999</v>
@@ -11329,7 +11296,7 @@
         <v>181</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L89" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11360,7 +11327,7 @@
         <v>181</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V89" s="27">
         <v>9.32</v>
@@ -11402,7 +11369,7 @@
         <v>183</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L90" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11433,7 +11400,7 @@
         <v>183</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V90" s="27">
         <v>10</v>
@@ -11475,7 +11442,7 @@
         <v>185</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L91" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11506,7 +11473,7 @@
         <v>185</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V91" s="27">
         <v>9.0659999999999994E-3</v>
@@ -11548,7 +11515,7 @@
         <v>187</v>
       </c>
       <c r="K92" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L92" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11579,7 +11546,7 @@
         <v>187</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V92" s="27">
         <v>10</v>
@@ -11621,7 +11588,7 @@
         <v>189</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L93" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11652,7 +11619,7 @@
         <v>189</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V93" s="27">
         <v>5</v>
@@ -11694,7 +11661,7 @@
         <v>191</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L94" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11725,7 +11692,7 @@
         <v>191</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V94" s="27">
         <v>10.07</v>
@@ -11796,7 +11763,7 @@
         <v>193</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V95" s="27">
         <v>11.72</v>
@@ -11869,7 +11836,7 @@
         <v>195</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V96" s="27">
         <v>15.37</v>
@@ -11940,7 +11907,7 @@
         <v>197</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V97" s="27">
         <v>18.95</v>
@@ -11982,7 +11949,7 @@
         <v>199</v>
       </c>
       <c r="K98" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L98" s="3" t="e">
         <f t="shared" si="15"/>
@@ -12037,7 +12004,7 @@
         <v>201</v>
       </c>
       <c r="K99" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L99" s="3" t="e">
         <f t="shared" si="15"/>

--- a/tools/CatSim material calculator.xlsx
+++ b/tools/CatSim material calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Documents\GitHub\documentation\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723904F8-9928-4C4A-9347-F451035D3908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0332E76-D6CE-4192-860A-487DEA704DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{B8F9F76C-33C1-418E-8852-058650A875FE}"/>
   </bookViews>
@@ -2110,81 +2110,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2196,6 +2121,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2256,10 +2190,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2277,9 +2295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2292,16 +2307,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2321,15 +2330,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2773,106 +2773,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
       <c r="O1" s="28" t="s">
         <v>257</v>
       </c>
       <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="90"/>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="23" t="str">
         <f>IF(O12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="78"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="56">
         <v>1</v>
       </c>
@@ -2886,69 +2886,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="134" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="136"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
       <c r="O6" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($F$8), "", #N/A), IF(ISBLANK($F$8), "# Material composition source not specified.", CONCATENATE("# Material composition source: ",$F$8)))</f>
         <v># Material composition source: same as density</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="70" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="104" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="70" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="106" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="108"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86"/>
       <c r="O8" s="23" t="str">
         <f>IF($O$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -2963,143 +2963,143 @@
       <c r="D9" s="49">
         <v>6</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="78"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$A$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="24" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="72" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="87" t="s">
         <v>394</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="87" t="s">
         <v>395</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="109" t="s">
+      <c r="G12" s="104"/>
+      <c r="H12" s="87" t="s">
         <v>396</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="87" t="s">
         <v>391</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="98" t="s">
+      <c r="J12" s="107"/>
+      <c r="K12" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="M12" s="102" t="s">
+      <c r="L12" s="77"/>
+      <c r="M12" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="N12" s="98"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Symbol and Number of atoms per molecule.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="100"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="78"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="71" t="s">
+      <c r="C14" s="113"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="L14" s="73" t="s">
+      <c r="L14" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="M14" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="97" t="s">
         <v>391</v>
       </c>
       <c r="O14" s="24" t="str">
@@ -3108,57 +3108,57 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="71"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="97"/>
       <c r="O15" s="24" t="str">
         <f>IF($O$12="1", IF(ISBLANK($L$5),FIXED(_xlfn.XLOOKUP($A18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$D$9),FIXED($L$5,$D$9)),IF(ISBLANK($L$5),"Error! Density value not specified!",FIXED($L$5,$D$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="71"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="97"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="72"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="98"/>
       <c r="O17" s="24" t="s">
         <v>388</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IF(ISBLANK($A18), "", _xlfn.XLOOKUP($A18,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
@@ -3184,24 +3184,24 @@
       </c>
       <c r="F18" s="39">
         <f>IF(ISBLANK($A18), "", B18*E18)</f>
-        <v>1.0079750000000001</v>
-      </c>
-      <c r="G18" s="80"/>
+        <v>2.0159500000000001</v>
+      </c>
+      <c r="G18" s="105"/>
       <c r="H18" s="6">
         <f>D18</f>
         <v>1</v>
       </c>
       <c r="I18" s="39">
         <f>IF(ISBLANK($B18), "", F18/F$33)</f>
-        <v>3.0538427338023789E-2</v>
-      </c>
-      <c r="J18" s="83"/>
+        <v>0.11190179485827366</v>
+      </c>
+      <c r="J18" s="108"/>
       <c r="K18" s="14" cm="1">
         <f t="array" ref="K18:L19">_xlfn._xlws.SORT(H18:INDEX(H18:I29,O12,2),1,1,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L18" s="14">
-        <v>3.0538427338023789E-2</v>
+        <v>0.11190179485827366</v>
       </c>
       <c r="M18" s="8" t="str">
         <f>_xlfn.VALUETOTEXT(K18)</f>
@@ -3209,11 +3209,11 @@
       </c>
       <c r="N18" s="14" t="str">
         <f>IF(M18="", "", FIXED(L18,$D$9))</f>
-        <v>0.030538</v>
+        <v>0.111902</v>
       </c>
       <c r="O18" s="24" t="str">
         <f>IF(M18="", "", CONCATENATE(M18, "    ",N18, "    # ", _xlfn.XLOOKUP(VALUE(M18),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>1    0.030538    # hydrogen</v>
+        <v>1    0.111902    # hydrogen</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF(ISBLANK($A19), "", _xlfn.XLOOKUP($A19,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
@@ -3237,23 +3237,23 @@
       </c>
       <c r="F19" s="39">
         <f>IF(ISBLANK($A19), "", B19*E19)</f>
-        <v>31.998799999999999</v>
-      </c>
-      <c r="G19" s="80"/>
+        <v>15.9994</v>
+      </c>
+      <c r="G19" s="105"/>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H29" si="0">D19</f>
         <v>8</v>
       </c>
       <c r="I19" s="39">
         <f>IF(ISBLANK($B19), "", F19/F$33)</f>
-        <v>0.9694615726619763</v>
-      </c>
-      <c r="J19" s="83"/>
+        <v>0.88809820514172644</v>
+      </c>
+      <c r="J19" s="108"/>
       <c r="K19" s="14">
         <v>8</v>
       </c>
       <c r="L19" s="14">
-        <v>0.9694615726619763</v>
+        <v>0.88809820514172644</v>
       </c>
       <c r="M19" s="8" t="str">
         <f t="shared" ref="M19:M29" si="1">_xlfn.VALUETOTEXT(K19)</f>
@@ -3261,11 +3261,11 @@
       </c>
       <c r="N19" s="14" t="str">
         <f t="shared" ref="N19:N29" si="2">IF(M19="", "", FIXED(L19,$D$9))</f>
-        <v>0.969462</v>
+        <v>0.888098</v>
       </c>
       <c r="O19" s="24" t="str">
         <f>IF(M19="", "", CONCATENATE(M19, "    ",N19, "    # ", _xlfn.XLOOKUP(VALUE(M19),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>8    0.969462    # oxygen</v>
+        <v>8    0.888098    # oxygen</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <f>IF(ISBLANK($A20), "", B20*E20)</f>
         <v/>
       </c>
-      <c r="G20" s="80"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3296,7 +3296,7 @@
         <f>IF(ISBLANK($B20), "", F20/F$33)</f>
         <v/>
       </c>
-      <c r="J20" s="83"/>
+      <c r="J20" s="108"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8" t="str">
@@ -3331,7 +3331,7 @@
         <f>IF(ISBLANK($A21), "", B21*E21)</f>
         <v/>
       </c>
-      <c r="G21" s="80"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3340,7 +3340,7 @@
         <f>IF(ISBLANK($B21), "", F21/F$33)</f>
         <v/>
       </c>
-      <c r="J21" s="83"/>
+      <c r="J21" s="108"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="8" t="str">
@@ -3375,7 +3375,7 @@
         <f t="shared" ref="F22:F29" si="3">IF(ISBLANK($A22), "", B22*E22)</f>
         <v/>
       </c>
-      <c r="G22" s="80"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3384,7 +3384,7 @@
         <f t="shared" ref="I22:I29" si="4">IF(ISBLANK($B22), "", F22/F$33)</f>
         <v/>
       </c>
-      <c r="J22" s="83"/>
+      <c r="J22" s="108"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8" t="str">
@@ -3419,7 +3419,7 @@
         <f t="shared" ref="F23:F24" si="5">IF(ISBLANK($A23), "", B23*E23)</f>
         <v/>
       </c>
-      <c r="G23" s="80"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="6" t="str">
         <f t="shared" ref="H23:H24" si="6">D23</f>
         <v/>
@@ -3428,7 +3428,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J23" s="83"/>
+      <c r="J23" s="108"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8" t="str">
@@ -3463,7 +3463,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G24" s="80"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3472,7 +3472,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J24" s="83"/>
+      <c r="J24" s="108"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8" t="str">
@@ -3507,7 +3507,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3516,7 +3516,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J25" s="83"/>
+      <c r="J25" s="108"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8" t="str">
@@ -3551,7 +3551,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="80"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3560,7 +3560,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J26" s="83"/>
+      <c r="J26" s="108"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="8" t="str">
@@ -3595,7 +3595,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G27" s="80"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3604,7 +3604,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J27" s="83"/>
+      <c r="J27" s="108"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="8" t="str">
@@ -3639,7 +3639,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G28" s="80"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3648,7 +3648,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J28" s="83"/>
+      <c r="J28" s="108"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="8" t="str">
@@ -3683,7 +3683,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G29" s="81"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3692,7 +3692,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J29" s="84"/>
+      <c r="J29" s="109"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="9" t="str">
@@ -3709,18 +3709,18 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="67" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F31" s="93"/>
+      <c r="F31" s="68"/>
       <c r="O31" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F32" s="93"/>
+      <c r="F32" s="68"/>
       <c r="O32" s="24" t="str">
         <f>CONCATENATE("# number of iodine atoms per water molecule = ", B$20)</f>
         <v xml:space="preserve"># number of iodine atoms per water molecule = </v>
@@ -3729,7 +3729,7 @@
     <row r="33" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F33" s="41">
         <f>SUM(F18:F29)</f>
-        <v>33.006774999999998</v>
+        <v>18.015349999999998</v>
       </c>
       <c r="O33" s="24" t="e">
         <f>CONCATENATE("# iodine mass concentration = ", O$15, " g/mL * ", N$20, " = ", 1000*VALUE(O$15)*VALUE(N$20), " mg/mL.")</f>
@@ -3747,7 +3747,7 @@
     <row r="36" spans="6:15" x14ac:dyDescent="0.25">
       <c r="O36" s="24" t="str">
         <f>CONCATENATE("# Formula: H(", B$18, ")O(", B$19, ")Na(", B$20, ")Cl(", B$21, ")")</f>
-        <v># Formula: H(1)O(2)Na()Cl()</v>
+        <v># Formula: H(2)O(1)Na()Cl()</v>
       </c>
     </row>
     <row r="37" spans="6:15" x14ac:dyDescent="0.25">
@@ -3759,6 +3759,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="32">
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="G12:G29"/>
+    <mergeCell ref="J12:J29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="A2:N2"/>
@@ -3775,22 +3791,6 @@
     <mergeCell ref="F12:F17"/>
     <mergeCell ref="I12:I17"/>
     <mergeCell ref="H12:H17"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="G12:G29"/>
-    <mergeCell ref="J12:J29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="C12:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3823,122 +3823,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
       <c r="Q1" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
       <c r="Q2" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="115" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
       <c r="Q4" s="23" t="str">
         <f>IF(Q12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="103" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="78"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="55">
         <v>1</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="129" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
       <c r="Q5" s="23" t="str">
         <f>IF(AND($Q$12="1",ISBLANK($K$5),ISBLANK($D$6)),CONCATENATE("# Density from ", Data!$S$1, "."), IF(ISBLANK($D$6),"# Density source not specified.",_xlfn.CONCAT("# Density source: ",$D$6)))</f>
         <v># Density source: https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</v>
@@ -3950,21 +3950,21 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="23" t="str">
         <f>IF(ISBLANK($F$8),IF($Q$12=1,"","# Material composition source not specified."),CONCATENATE("# Material composition source: ",$F$8))</f>
         <v># Material composition source: "Enter a formula" tab in this workbook</v>
@@ -3979,18 +3979,18 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
       <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4001,19 +4001,19 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
       <c r="Q8" s="23" t="str">
         <f>IF($Q$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -4029,160 +4029,160 @@
       <c r="E9" s="49">
         <v>6</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="118" t="s">
         <v>401</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
       <c r="Q9" s="23" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$F$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="115" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
       <c r="Q11" s="24" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="72" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="125" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="117" t="s">
         <v>399</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="H12" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="87" t="s">
         <v>400</v>
       </c>
-      <c r="K12" s="109" t="s">
+      <c r="K12" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="120" t="s">
+      <c r="L12" s="107"/>
+      <c r="M12" s="125" t="s">
         <v>408</v>
       </c>
-      <c r="N12" s="121"/>
-      <c r="O12" s="102" t="s">
+      <c r="N12" s="126"/>
+      <c r="O12" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="98"/>
+      <c r="P12" s="76"/>
       <c r="Q12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Atomic number and Mass fraction.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="100"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="78"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="117" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="71" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="O14" s="75" t="s">
+      <c r="O14" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="P14" s="71" t="s">
+      <c r="P14" s="97" t="s">
         <v>391</v>
       </c>
       <c r="Q14" s="24" t="str">
@@ -4191,63 +4191,63 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="71"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="97"/>
       <c r="Q15" s="24" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($K$5),FIXED(_xlfn.XLOOKUP($C18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$E$9),FIXED($K$5,$E$9)),IF(ISBLANK($K$5),"Error! Density value not specified!",FIXED($K$5,$E$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="71"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="72"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="98"/>
       <c r="Q17" s="24" t="s">
         <v>388</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="33">
-        <v>3.0538427338023789E-2</v>
+        <v>0.11190179485827366</v>
       </c>
       <c r="C18" s="35" t="str">
         <f>IF($G18="", "", _xlfn.XLOOKUP($G18,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="D18" s="45">
         <f t="shared" ref="D18:D29" si="0">IF(E18= "","",E18/$E$33)</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" ref="E18:E29" si="1">IF(C18="", "", K18/$K$34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="6" t="str">
         <f>IF($G18="", "", _xlfn.XLOOKUP($G18,Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A))</f>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:H29" si="3">IF($C18="", "", B18/$B$33)</f>
-        <v>3.0538427338023789E-2</v>
+        <v>0.11190179485827366</v>
       </c>
       <c r="I18" s="6">
         <f>IF($C18="", "", _xlfn.XLOOKUP($C18,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
@@ -4289,19 +4289,19 @@
       </c>
       <c r="J18" s="39">
         <f>IF(ISBLANK($B18), "",H18*I18)</f>
-        <v>3.0781971296044531E-2</v>
+        <v>0.1127942116722684</v>
       </c>
       <c r="K18" s="39">
         <f>IF(ISBLANK($B18), "",H18/ I18)</f>
-        <v>3.0296810276072113E-2</v>
-      </c>
-      <c r="L18" s="83"/>
+        <v>0.11101643875916928</v>
+      </c>
+      <c r="L18" s="108"/>
       <c r="M18" s="14" cm="1">
         <f t="array" ref="M18:N19">_xlfn._xlws.SORT(G18:INDEX(G18:H29,Q12,2),1,1,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N18" s="14">
-        <v>3.0538427338023789E-2</v>
+        <v>0.11190179485827366</v>
       </c>
       <c r="O18" s="8" t="str">
         <f>_xlfn.VALUETOTEXT(M18)</f>
@@ -4309,11 +4309,11 @@
       </c>
       <c r="P18" s="14" t="str">
         <f>IF(O18="", "", FIXED(N18,$E$9))</f>
-        <v>0.030538</v>
+        <v>0.111902</v>
       </c>
       <c r="Q18" s="24" t="str">
         <f>IF(O18="", "", CONCATENATE(O18, "    ",P18, "    # ", _xlfn.XLOOKUP(VALUE(O18),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>1    0.030538    # hydrogen</v>
+        <v>1    0.111902    # hydrogen</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="33">
-        <v>0.9694615726619763</v>
+        <v>0.88809820514172644</v>
       </c>
       <c r="C19" s="35" t="str">
         <f>IF($G19="", "", _xlfn.XLOOKUP($G19,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
@@ -4329,11 +4329,11 @@
       </c>
       <c r="D19" s="45">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6" t="str">
         <f>IF($G19="", "", _xlfn.XLOOKUP($G19,Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A))</f>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="3"/>
-        <v>0.9694615726619763</v>
+        <v>0.88809820514172644</v>
       </c>
       <c r="I19" s="6">
         <f>IF($C19="", "", _xlfn.XLOOKUP($C19,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
@@ -4353,18 +4353,18 @@
       </c>
       <c r="J19" s="39">
         <f t="shared" ref="J19:J29" si="4">IF(ISBLANK($B19), "",H19*I19)</f>
-        <v>15.510803485648024</v>
+        <v>14.209038423344538</v>
       </c>
       <c r="K19" s="39">
         <f t="shared" ref="K19:K29" si="5">IF(ISBLANK($B19), "",H19/ I19)</f>
-        <v>6.0593620552144227E-2</v>
-      </c>
-      <c r="L19" s="83"/>
+        <v>5.5508219379584639E-2</v>
+      </c>
+      <c r="L19" s="108"/>
       <c r="M19" s="14">
         <v>8</v>
       </c>
       <c r="N19" s="14">
-        <v>0.9694615726619763</v>
+        <v>0.88809820514172644</v>
       </c>
       <c r="O19" s="8" t="str">
         <f t="shared" ref="O19:O29" si="6">_xlfn.VALUETOTEXT(M19)</f>
@@ -4372,11 +4372,11 @@
       </c>
       <c r="P19" s="14" t="str">
         <f t="shared" ref="P19:P29" si="7">IF(O19="", "", FIXED(N19,$E$9))</f>
-        <v>0.969462</v>
+        <v>0.888098</v>
       </c>
       <c r="Q19" s="24" t="str">
         <f>IF(O19="", "", CONCATENATE(O19, "    ",P19, "    # ", _xlfn.XLOOKUP(VALUE(O19),Data!$C$6:$C$123,Data!$A$6:$A$123,#N/A)))</f>
-        <v>8    0.969462    # oxygen</v>
+        <v>8    0.888098    # oxygen</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,7 +4418,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="83"/>
+      <c r="L20" s="108"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="8" t="str">
@@ -4473,7 +4473,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L21" s="83"/>
+      <c r="L21" s="108"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="8" t="str">
@@ -4528,7 +4528,7 @@
         <f t="shared" ref="K22:K23" si="9">IF(ISBLANK($B22), "",H22/ I22)</f>
         <v/>
       </c>
-      <c r="L22" s="83"/>
+      <c r="L22" s="108"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="8" t="str">
@@ -4583,7 +4583,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="83"/>
+      <c r="L23" s="108"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="8" t="str">
@@ -4638,7 +4638,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L24" s="83"/>
+      <c r="L24" s="108"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="8" t="str">
@@ -4693,7 +4693,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="108"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="8" t="str">
@@ -4748,7 +4748,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L26" s="83"/>
+      <c r="L26" s="108"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="8" t="str">
@@ -4803,7 +4803,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L27" s="83"/>
+      <c r="L27" s="108"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="8" t="str">
@@ -4858,7 +4858,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L28" s="83"/>
+      <c r="L28" s="108"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="8" t="str">
@@ -4913,7 +4913,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L29" s="84"/>
+      <c r="L29" s="109"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="9" t="str">
@@ -4930,35 +4930,35 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="E30" s="92" t="s">
+      <c r="E30" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="J30" s="92" t="s">
+      <c r="J30" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="K30" s="92" t="s">
+      <c r="K30" s="67" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="93"/>
-      <c r="E31" s="93"/>
+      <c r="B31" s="68"/>
+      <c r="E31" s="68"/>
       <c r="G31" s="53"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="93"/>
-      <c r="E32" s="93"/>
+      <c r="B32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="J32" s="41">
         <f>SUM(J18:J29)</f>
-        <v>15.541585456944068</v>
-      </c>
-      <c r="K32" s="93"/>
+        <v>14.321832635016806</v>
+      </c>
+      <c r="K32" s="68"/>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4970,7 +4970,7 @@
         <f>SUM(E18:E29)</f>
         <v>3</v>
       </c>
-      <c r="K33" s="93"/>
+      <c r="K33" s="68"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -4978,7 +4978,7 @@
     <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K34" s="42">
         <f>MIN(K18:K29)</f>
-        <v>3.0296810276072113E-2</v>
+        <v>5.5508219379584639E-2</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -5000,15 +5000,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="L12:L29"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="K12:K17"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:P1"/>
@@ -5025,16 +5026,15 @@
     <mergeCell ref="M14:M17"/>
     <mergeCell ref="N14:N17"/>
     <mergeCell ref="O14:O17"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="L12:L29"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="F9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5058,102 +5058,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="I1" s="129" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="I1" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="P1" s="128" t="s">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="P1" s="131" t="s">
         <v>374</v>
       </c>
-      <c r="Q1" s="128"/>
-      <c r="S1" s="129" t="s">
+      <c r="Q1" s="131"/>
+      <c r="S1" s="132" t="s">
         <v>378</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
     </row>
     <row r="5" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">

--- a/tools/CatSim material calculator.xlsx
+++ b/tools/CatSim material calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Documents\GitHub\documentation\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0332E76-D6CE-4192-860A-487DEA704DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F4D8D1-E1CF-4F2C-9EA7-013E6DB2F117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{B8F9F76C-33C1-418E-8852-058650A875FE}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="427">
   <si>
     <t>element</t>
   </si>
@@ -1478,6 +1478,9 @@
   </si>
   <si>
     <t>"Enter a formula" tab in this workbook</t>
+  </si>
+  <si>
+    <t>Sum true m.f.</t>
   </si>
 </sst>
 </file>
@@ -2110,6 +2113,90 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2121,15 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2190,94 +2268,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2295,6 +2289,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2307,10 +2304,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2757,7 +2760,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,106 +2776,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
       <c r="O1" s="28" t="s">
         <v>257</v>
       </c>
       <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
       <c r="O2" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="65" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="90"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="90"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
       <c r="O4" s="23" t="str">
         <f>IF(O12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="67" t="s">
         <v>414</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="81"/>
       <c r="L5" s="56">
         <v>1</v>
       </c>
@@ -2886,69 +2889,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="91" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
       <c r="O6" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($F$8), "", #N/A), IF(ISBLANK($F$8), "# Material composition source not specified.", CONCATENATE("# Material composition source: ",$F$8)))</f>
         <v># Material composition source: same as density</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="82" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="84" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="86"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="111"/>
       <c r="O8" s="23" t="str">
         <f>IF($O$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -2963,143 +2966,143 @@
       <c r="D9" s="49">
         <v>6</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="71"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$A$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
       <c r="O11" s="24" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="97" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="112" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="112" t="s">
         <v>394</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="112" t="s">
         <v>395</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="87" t="s">
+      <c r="G12" s="82"/>
+      <c r="H12" s="112" t="s">
         <v>396</v>
       </c>
-      <c r="I12" s="87" t="s">
+      <c r="I12" s="112" t="s">
         <v>391</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="76" t="s">
+      <c r="J12" s="85"/>
+      <c r="K12" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="80" t="s">
+      <c r="L12" s="102"/>
+      <c r="M12" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="N12" s="76"/>
+      <c r="N12" s="101"/>
       <c r="O12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Symbol and Number of atoms per molecule.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="78"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="103"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="93" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="97" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="L14" s="99" t="s">
+      <c r="L14" s="76" t="s">
         <v>391</v>
       </c>
-      <c r="M14" s="101" t="s">
+      <c r="M14" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="74" t="s">
         <v>391</v>
       </c>
       <c r="O14" s="24" t="str">
@@ -3108,57 +3111,57 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="97"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="24" t="str">
         <f>IF($O$12="1", IF(ISBLANK($L$5),FIXED(_xlfn.XLOOKUP($A18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$D$9),FIXED($L$5,$D$9)),IF(ISBLANK($L$5),"Error! Density value not specified!",FIXED($L$5,$D$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="97"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="98"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="24" t="s">
         <v>388</v>
       </c>
@@ -3186,7 +3189,7 @@
         <f>IF(ISBLANK($A18), "", B18*E18)</f>
         <v>2.0159500000000001</v>
       </c>
-      <c r="G18" s="105"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="6">
         <f>D18</f>
         <v>1</v>
@@ -3195,7 +3198,7 @@
         <f>IF(ISBLANK($B18), "", F18/F$33)</f>
         <v>0.11190179485827366</v>
       </c>
-      <c r="J18" s="108"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="14" cm="1">
         <f t="array" ref="K18:L19">_xlfn._xlws.SORT(H18:INDEX(H18:I29,O12,2),1,1,FALSE)</f>
         <v>1</v>
@@ -3239,7 +3242,7 @@
         <f>IF(ISBLANK($A19), "", B19*E19)</f>
         <v>15.9994</v>
       </c>
-      <c r="G19" s="105"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H29" si="0">D19</f>
         <v>8</v>
@@ -3248,7 +3251,7 @@
         <f>IF(ISBLANK($B19), "", F19/F$33)</f>
         <v>0.88809820514172644</v>
       </c>
-      <c r="J19" s="108"/>
+      <c r="J19" s="86"/>
       <c r="K19" s="14">
         <v>8</v>
       </c>
@@ -3287,7 +3290,7 @@
         <f>IF(ISBLANK($A20), "", B20*E20)</f>
         <v/>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3296,7 +3299,7 @@
         <f>IF(ISBLANK($B20), "", F20/F$33)</f>
         <v/>
       </c>
-      <c r="J20" s="108"/>
+      <c r="J20" s="86"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8" t="str">
@@ -3331,7 +3334,7 @@
         <f>IF(ISBLANK($A21), "", B21*E21)</f>
         <v/>
       </c>
-      <c r="G21" s="105"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3340,7 +3343,7 @@
         <f>IF(ISBLANK($B21), "", F21/F$33)</f>
         <v/>
       </c>
-      <c r="J21" s="108"/>
+      <c r="J21" s="86"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="8" t="str">
@@ -3375,7 +3378,7 @@
         <f t="shared" ref="F22:F29" si="3">IF(ISBLANK($A22), "", B22*E22)</f>
         <v/>
       </c>
-      <c r="G22" s="105"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3384,7 +3387,7 @@
         <f t="shared" ref="I22:I29" si="4">IF(ISBLANK($B22), "", F22/F$33)</f>
         <v/>
       </c>
-      <c r="J22" s="108"/>
+      <c r="J22" s="86"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8" t="str">
@@ -3419,7 +3422,7 @@
         <f t="shared" ref="F23:F24" si="5">IF(ISBLANK($A23), "", B23*E23)</f>
         <v/>
       </c>
-      <c r="G23" s="105"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="6" t="str">
         <f t="shared" ref="H23:H24" si="6">D23</f>
         <v/>
@@ -3428,7 +3431,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J23" s="108"/>
+      <c r="J23" s="86"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8" t="str">
@@ -3463,7 +3466,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G24" s="105"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3472,7 +3475,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J24" s="108"/>
+      <c r="J24" s="86"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8" t="str">
@@ -3507,7 +3510,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="105"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3516,7 +3519,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J25" s="108"/>
+      <c r="J25" s="86"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8" t="str">
@@ -3551,7 +3554,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="105"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3560,7 +3563,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J26" s="108"/>
+      <c r="J26" s="86"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="8" t="str">
@@ -3595,7 +3598,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G27" s="105"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3604,7 +3607,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J27" s="108"/>
+      <c r="J27" s="86"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="8" t="str">
@@ -3639,7 +3642,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G28" s="105"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3648,7 +3651,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J28" s="108"/>
+      <c r="J28" s="86"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="8" t="str">
@@ -3683,7 +3686,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G29" s="106"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3692,7 +3695,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J29" s="109"/>
+      <c r="J29" s="87"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="9" t="str">
@@ -3709,18 +3712,18 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="95" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F31" s="68"/>
+      <c r="F31" s="96"/>
       <c r="O31" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F32" s="68"/>
+      <c r="F32" s="96"/>
       <c r="O32" s="24" t="str">
         <f>CONCATENATE("# number of iodine atoms per water molecule = ", B$20)</f>
         <v xml:space="preserve"># number of iodine atoms per water molecule = </v>
@@ -3759,6 +3762,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="32">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="H12:H17"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:N6"/>
@@ -3775,22 +3794,6 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="H12:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3802,7 +3805,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,122 +3826,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="117" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
       <c r="Q1" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="127" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
       <c r="Q2" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="127" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.0.</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="23" t="str">
         <f>IF(Q12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="55">
         <v>1</v>
       </c>
-      <c r="L5" s="129" t="s">
+      <c r="L5" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
       <c r="Q5" s="23" t="str">
         <f>IF(AND($Q$12="1",ISBLANK($K$5),ISBLANK($D$6)),CONCATENATE("# Density from ", Data!$S$1, "."), IF(ISBLANK($D$6),"# Density source not specified.",_xlfn.CONCAT("# Density source: ",$D$6)))</f>
         <v># Density source: https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</v>
@@ -3950,21 +3953,21 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="109" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
       <c r="Q6" s="23" t="str">
         <f>IF(ISBLANK($F$8),IF($Q$12=1,"","# Material composition source not specified."),CONCATENATE("# Material composition source: ",$F$8))</f>
         <v># Material composition source: "Enter a formula" tab in this workbook</v>
@@ -3979,18 +3982,18 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="109" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
       <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4001,19 +4004,19 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="109" t="s">
         <v>425</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="23" t="str">
         <f>IF($Q$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -4029,160 +4032,160 @@
       <c r="E9" s="49">
         <v>6</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="129" t="s">
         <v>401</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
       <c r="Q9" s="23" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$F$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="127" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
       <c r="Q11" s="24" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="97" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="116" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="I12" s="87" t="s">
+      <c r="I12" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="112" t="s">
         <v>400</v>
       </c>
-      <c r="K12" s="87" t="s">
+      <c r="K12" s="112" t="s">
         <v>393</v>
       </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="125" t="s">
+      <c r="L12" s="85"/>
+      <c r="M12" s="123" t="s">
         <v>408</v>
       </c>
-      <c r="N12" s="126"/>
-      <c r="O12" s="80" t="s">
+      <c r="N12" s="124"/>
+      <c r="O12" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="76"/>
+      <c r="P12" s="101"/>
       <c r="Q12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Atomic number and Mass fraction.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="78"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="103"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="122" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="97" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="99" t="s">
+      <c r="N14" s="76" t="s">
         <v>391</v>
       </c>
-      <c r="O14" s="101" t="s">
+      <c r="O14" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="P14" s="97" t="s">
+      <c r="P14" s="74" t="s">
         <v>391</v>
       </c>
       <c r="Q14" s="24" t="str">
@@ -4191,63 +4194,63 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="97"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="74"/>
       <c r="Q15" s="24" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($K$5),FIXED(_xlfn.XLOOKUP($C18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$E$9),FIXED($K$5,$E$9)),IF(ISBLANK($K$5),"Error! Density value not specified!",FIXED($K$5,$E$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="97"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="74"/>
       <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="98"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="75"/>
       <c r="Q17" s="24" t="s">
         <v>388</v>
       </c>
@@ -4295,7 +4298,7 @@
         <f>IF(ISBLANK($B18), "",H18/ I18)</f>
         <v>0.11101643875916928</v>
       </c>
-      <c r="L18" s="108"/>
+      <c r="L18" s="86"/>
       <c r="M18" s="14" cm="1">
         <f t="array" ref="M18:N19">_xlfn._xlws.SORT(G18:INDEX(G18:H29,Q12,2),1,1,FALSE)</f>
         <v>1</v>
@@ -4359,7 +4362,7 @@
         <f t="shared" ref="K19:K29" si="5">IF(ISBLANK($B19), "",H19/ I19)</f>
         <v>5.5508219379584639E-2</v>
       </c>
-      <c r="L19" s="108"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="14">
         <v>8</v>
       </c>
@@ -4418,7 +4421,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="108"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="8" t="str">
@@ -4473,7 +4476,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L21" s="108"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="8" t="str">
@@ -4528,7 +4531,7 @@
         <f t="shared" ref="K22:K23" si="9">IF(ISBLANK($B22), "",H22/ I22)</f>
         <v/>
       </c>
-      <c r="L22" s="108"/>
+      <c r="L22" s="86"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="8" t="str">
@@ -4583,7 +4586,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="108"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="8" t="str">
@@ -4638,7 +4641,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L24" s="108"/>
+      <c r="L24" s="86"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="8" t="str">
@@ -4693,7 +4696,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L25" s="108"/>
+      <c r="L25" s="86"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="8" t="str">
@@ -4748,7 +4751,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L26" s="108"/>
+      <c r="L26" s="86"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="8" t="str">
@@ -4803,7 +4806,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L27" s="108"/>
+      <c r="L27" s="86"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="8" t="str">
@@ -4858,7 +4861,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L28" s="108"/>
+      <c r="L28" s="86"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="8" t="str">
@@ -4913,7 +4916,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L29" s="109"/>
+      <c r="L29" s="87"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="9" t="str">
@@ -4930,35 +4933,40 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="95" t="s">
         <v>397</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="95" t="s">
         <v>405</v>
       </c>
+      <c r="N30" s="95" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="B31" s="96"/>
+      <c r="E31" s="96"/>
       <c r="G31" s="53"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="N31" s="96"/>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="B32" s="96"/>
+      <c r="E32" s="96"/>
       <c r="J32" s="41">
         <f>SUM(J18:J29)</f>
         <v>14.321832635016806</v>
       </c>
-      <c r="K32" s="68"/>
+      <c r="K32" s="96"/>
+      <c r="N32" s="96"/>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4970,8 +4978,11 @@
         <f>SUM(E18:E29)</f>
         <v>3</v>
       </c>
-      <c r="K33" s="68"/>
-      <c r="N33" s="3"/>
+      <c r="K33" s="96"/>
+      <c r="N33" s="52">
+        <f>SUM(N18:N29)</f>
+        <v>1</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
@@ -4999,17 +5010,16 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="35">
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="L12:L29"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="K12:K17"/>
+  <mergeCells count="36">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="F9:P9"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:P1"/>
@@ -5026,15 +5036,17 @@
     <mergeCell ref="M14:M17"/>
     <mergeCell ref="N14:N17"/>
     <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="L12:L29"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="N30:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tools/CatSim material calculator.xlsx
+++ b/tools/CatSim material calculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Documents\GitHub\documentation\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F4D8D1-E1CF-4F2C-9EA7-013E6DB2F117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D65AE8-C0BA-4026-8EBA-94F622BF552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{B8F9F76C-33C1-418E-8852-058650A875FE}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="471">
   <si>
     <t>element</t>
   </si>
@@ -900,9 +900,6 @@
     <t>CatSim material calculator, version</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1225,6 +1222,215 @@
   </si>
   <si>
     <t>https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses</t>
+  </si>
+  <si>
+    <t>Density (g/cc)</t>
+  </si>
+  <si>
+    <t>https://physics.nist.gov/PhysRefData/XrayMassCoef/tab1.html</t>
+  </si>
+  <si>
+    <t>3. If a compound or mixture, enter the material name(s):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      and your source for the material composition:</t>
+  </si>
+  <si>
+    <t>5. Copy the output from the shaded cells to the right, and save in a new text file using the compound name as the filename (no extension).</t>
+  </si>
+  <si>
+    <t>same as density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   and your source for density:</t>
+  </si>
+  <si>
+    <t>1. In the shaded cells below, enter the elemental symbols and the corresponding numbers of atoms of each element in the compound or mixture.</t>
+  </si>
+  <si>
+    <t>sulfur</t>
+  </si>
+  <si>
+    <t>cesium</t>
+  </si>
+  <si>
+    <t># Number of elements:</t>
+  </si>
+  <si>
+    <t># Atomic number(s) and corresponding mass fraction(s):</t>
+  </si>
+  <si>
+    <t>This tool creates text that can be copied into a text file to be used for input as material data for CatSim.
+A "material" can be an element, a compound, or a mixture.
+CatSim needs the density (g/cc) of the material, and the mass fractions (decimal form) of each element in the material.</t>
+  </si>
+  <si>
+    <t>For elements, the mass fraction is always 1, but the density is required.
+Elemental density data are included in this tool, and can be used to create the material definition text.
+However, a different density may be specified. For example, this tool specifies the density of carbon as 1.7 (from NIST data). However, that density would need to be over-ridden to create a material file for diamond, graphite, or amorphous carbon.</t>
+  </si>
+  <si>
+    <t>Mass fraction</t>
+  </si>
+  <si>
+    <t>Mass fraction / atomic weight</t>
+  </si>
+  <si>
+    <t>Atomic weight</t>
+  </si>
+  <si>
+    <t>Atomic weight * number of atoms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Atomic number </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repeated for sort</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of atoms per Unit</t>
+  </si>
+  <si>
+    <t>fraction of atoms</t>
+  </si>
+  <si>
+    <t>relative number of atoms</t>
+  </si>
+  <si>
+    <t>decimal places.</t>
+  </si>
+  <si>
+    <t>4. The results will be rounded to</t>
+  </si>
+  <si>
+    <t>Enter composition</t>
+  </si>
+  <si>
+    <t>1. In the shaded cells below (Input composition), enter the atomic numbers and the corresponding mass fractions of each element in the compound or mixture.</t>
+  </si>
+  <si>
+    <t>Min. Mass fraction / atomic weight</t>
+  </si>
+  <si>
+    <t>Mass fraction, normalized</t>
+  </si>
+  <si>
+    <t>Sum spec'd m.f.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort by atomic number </t>
+  </si>
+  <si>
+    <t>Input &amp; calculations</t>
+  </si>
+  <si>
+    <t>Number of atoms per molecule</t>
+  </si>
+  <si>
+    <t>Molecu-lar weight</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>An example or previous entries might be shown; delete and overwrite those entries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For elements, delete entries in steps 2 and 3, and defaults will apply. Or, you may specify a different density, source, &amp; material name.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     If a compound or mixture, or an element and you want to specify the density, enter the material's density:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If a compound or mixture, or an element and you want to specify the density, enter the material's density:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and your source for density:</t>
+  </si>
+  <si>
+    <t>For compounds, the chemical formula is usually known, but this needs to be converted to mass fractions.
+That conversion requires the atomic weights of the constituant elements. Atomic weight data are included in this tool, and the conversion is performed using those data.
+However, the user must know and enter the material's density and the source of that datum.</t>
+  </si>
+  <si>
+    <t>For mixtures (including alloys and doped crystals), the chemical formula is usually not known - there really isn't a "formula", but sometimes a reference might give a formula for a doped crystal. However, more often the elemental mass fractions are given. In these cases, you already have what CatSim needs. However, this tool is useful to convert the mass fractions back to relative numbers of atoms, for insight. Furthermore, this tool can help by reminding the user to enter source information, and the tool produces a uniform file format.</t>
+  </si>
+  <si>
+    <r>
+      <t>So, you can either:
+1. Enter a chemical formula (e.g. H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O) or
+2. Enter mass fractions
+on the corresponding tabs.</t>
+    </r>
+  </si>
+  <si>
+    <t># Copyright 2022, General Electric Company. All rights reserved. See https://github.com/xcist/code/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</t>
+  </si>
+  <si>
+    <t>Sum true m.f.</t>
+  </si>
+  <si>
+    <t>modified NCAT blood from NCAT software distribution</t>
   </si>
   <si>
     <r>
@@ -1258,240 +1464,172 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>If you revise this tool, change the revision here.</t>
+      <t>If you revise this tool, change the revision here, and add to the revision log below.</t>
     </r>
   </si>
   <si>
-    <t>Density (g/cc)</t>
-  </si>
-  <si>
-    <t>https://physics.nist.gov/PhysRefData/XrayMassCoef/tab1.html</t>
-  </si>
-  <si>
-    <t>3. If a compound or mixture, enter the material name(s):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      and your source for the material composition:</t>
-  </si>
-  <si>
-    <t>5. Copy the output from the shaded cells to the right, and save in a new text file using the compound name as the filename (no extension).</t>
-  </si>
-  <si>
-    <t>same as density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   and your source for density:</t>
-  </si>
-  <si>
-    <t>1. In the shaded cells below, enter the elemental symbols and the corresponding numbers of atoms of each element in the compound or mixture.</t>
-  </si>
-  <si>
-    <t>sulfur</t>
-  </si>
-  <si>
-    <t>cesium</t>
-  </si>
-  <si>
-    <t># Number of elements:</t>
-  </si>
-  <si>
-    <t># Atomic number(s) and corresponding mass fraction(s):</t>
-  </si>
-  <si>
-    <t>This tool creates text that can be copied into a text file to be used for input as material data for CatSim.
-A "material" can be an element, a compound, or a mixture.
-CatSim needs the density (g/cc) of the material, and the mass fractions (decimal form) of each element in the material.</t>
-  </si>
-  <si>
-    <t>For elements, the mass fraction is always 1, but the density is required.
-Elemental density data are included in this tool, and can be used to create the material definition text.
-However, a different density may be specified. For example, this tool specifies the density of carbon as 1.7 (from NIST data). However, that density would need to be over-ridden to create a material file for diamond, graphite, or amorphous carbon.</t>
-  </si>
-  <si>
-    <t>Mass fraction</t>
-  </si>
-  <si>
-    <t>Unit atomic weight</t>
-  </si>
-  <si>
-    <t>Mass fraction / atomic weight</t>
-  </si>
-  <si>
-    <t>Atomic weight</t>
-  </si>
-  <si>
-    <t>Atomic weight * number of atoms</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Atomic number </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>repeated for sort</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of atoms per Unit</t>
-  </si>
-  <si>
-    <t>fraction of atoms</t>
-  </si>
-  <si>
-    <t>relative number of atoms</t>
-  </si>
-  <si>
-    <t>Mass fraction * atomic weight</t>
-  </si>
-  <si>
-    <t>decimal places.</t>
-  </si>
-  <si>
-    <t>4. The results will be rounded to</t>
-  </si>
-  <si>
-    <t>Enter composition</t>
-  </si>
-  <si>
-    <t>1. In the shaded cells below (Input composition), enter the atomic numbers and the corresponding mass fractions of each element in the compound or mixture.</t>
-  </si>
-  <si>
-    <t>Min. Mass fraction / atomic weight</t>
-  </si>
-  <si>
-    <t>Mass fraction, normalized</t>
-  </si>
-  <si>
-    <t>Sum spec'd m.f.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort by atomic number </t>
-  </si>
-  <si>
-    <t>Input &amp; calculations</t>
-  </si>
-  <si>
-    <t>Number of atoms per molecule</t>
-  </si>
-  <si>
-    <t>Molecu-lar weight</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>An example or previous entries might be shown; delete and overwrite those entries.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>For elements, delete entries in steps 2 and 3, and defaults will apply. Or, you may specify a different density, source, &amp; material name.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     If a compound or mixture, or an element and you want to specify the density, enter the material's density:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    If a compound or mixture, or an element and you want to specify the density, enter the material's density:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    and your source for density:</t>
-  </si>
-  <si>
-    <t>For compounds, the chemical formula is usually known, but this needs to be converted to mass fractions.
-That conversion requires the atomic weights of the constituant elements. Atomic weight data are included in this tool, and the conversion is performed using those data.
-However, the user must know and enter the material's density and the source of that datum.</t>
-  </si>
-  <si>
-    <t>For mixtures (including alloys and doped crystals), the chemical formula is usually not known - there really isn't a "formula", but sometimes a reference might give a formula for a doped crystal. However, more often the elemental mass fractions are given. In these cases, you already have what CatSim needs. However, this tool is useful to convert the mass fractions back to relative numbers of atoms, for insight. Furthermore, this tool can help by reminding the user to enter source information, and the tool produces a uniform file format.</t>
-  </si>
-  <si>
-    <r>
-      <t>So, you can either:
-1. Enter a chemical formula (e.g. H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O) or
-2. Enter mass fractions
-on the corresponding tabs.</t>
-    </r>
-  </si>
-  <si>
-    <t>For NaCl concentration in water, copy these to O23 and O24.</t>
-  </si>
-  <si>
-    <t>For iodine concentration in water, copy these to O22 and O23.</t>
-  </si>
-  <si>
-    <t># Copyright 2022, General Electric Company. All rights reserved. See https://github.com/xcist/code/blob/master/LICENSE</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</t>
-  </si>
-  <si>
-    <t>"Enter a formula" tab in this workbook</t>
-  </si>
-  <si>
-    <t>Sum true m.f.</t>
+    <t>Revision log</t>
+  </si>
+  <si>
+    <t>Paul FitzGerald, GE-GRC</t>
+  </si>
+  <si>
+    <t>density of blood</t>
+  </si>
+  <si>
+    <t>estimate from CatSim material calculator</t>
+  </si>
+  <si>
+    <t>paste this formula in G7:</t>
+  </si>
+  <si>
+    <t>Number of atoms
+* atomic weight</t>
+  </si>
+  <si>
+    <t>"molecular" weight</t>
+  </si>
+  <si>
+    <t>For iodine in NCAT blood:</t>
+  </si>
+  <si>
+    <t>paste this formula in K5:</t>
+  </si>
+  <si>
+    <t>paste this text in D6:</t>
+  </si>
+  <si>
+    <t>paste this text in F8:</t>
+  </si>
+  <si>
+    <t>% iodine</t>
+  </si>
+  <si>
+    <t>m.f. iodine</t>
+  </si>
+  <si>
+    <t>Enter in B28</t>
+  </si>
+  <si>
+    <t>For iodine in water:</t>
+  </si>
+  <si>
+    <t>Select (from the left) the desired temperature.</t>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/water-density-specific-weight-d_595.html?vA=37&amp;units=C#</t>
+  </si>
+  <si>
+    <t>density of water</t>
+  </si>
+  <si>
+    <t>mg iodine/mL water-iodine solution</t>
+  </si>
+  <si>
+    <t>mg iodine/mL blood-iodine solution</t>
+  </si>
+  <si>
+    <t>density of water-iodine solution</t>
+  </si>
+  <si>
+    <t>density of blood-iodine solution</t>
+  </si>
+  <si>
+    <t>paste this formula in L5:</t>
+  </si>
+  <si>
+    <t>molecular weight of water</t>
+  </si>
+  <si>
+    <t>iodine mg/mL</t>
+  </si>
+  <si>
+    <t>Enter in B20</t>
+  </si>
+  <si>
+    <t>iodine atoms</t>
+  </si>
+  <si>
+    <t>"molecular" weight of water-iodine solution</t>
+  </si>
+  <si>
+    <t>"molecular" weight of blood-iodine solution</t>
+  </si>
+  <si>
+    <t>"molecular" weight of blood</t>
+  </si>
+  <si>
+    <t>scale factor: blood density -&gt; blood-iodine solution density</t>
+  </si>
+  <si>
+    <t>scale factor: water density -&gt; water-iodine solution density</t>
+  </si>
+  <si>
+    <t>tweak B20 until N43 is the target mg/mL (to 6 digits). Or copy values to the right and paste to B20.</t>
+  </si>
+  <si>
+    <t>tweak B28 until P28 is the target percentage (to 6 digits) or until P41 is the target mg/mL. Or copy values to the right and paste to B28.</t>
+  </si>
+  <si>
+    <t>For NaCl in water:</t>
+  </si>
+  <si>
+    <t>"molecular" weight of water-NaCl solution</t>
+  </si>
+  <si>
+    <t>scale factor: water density -&gt; water-NaCl solution density</t>
+  </si>
+  <si>
+    <t>density of water-NaCl solution</t>
+  </si>
+  <si>
+    <t>% NaCl in water-NaCl solution</t>
+  </si>
+  <si>
+    <t>Enter I in A20.</t>
+  </si>
+  <si>
+    <t>Enter Na in A20 , Cl in A21, and "= B20" in B21.</t>
+  </si>
+  <si>
+    <t>tweak B20 until N59 is the target % NaCl (to 6 digits). Or copy values to the right and paste to B20.</t>
+  </si>
+  <si>
+    <t>NaCl %</t>
+  </si>
+  <si>
+    <t>Na atoms</t>
+  </si>
+  <si>
+    <t>Scroll down to see shaded cells for water-iodine and water-NaCl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll down to see shaded cells for NCAT blood-iodine. </t>
+  </si>
+  <si>
+    <t>L18-L19 on "Enter a formula" sheet</t>
+  </si>
+  <si>
+    <t>Enter the formula H2O in A18-B19 to get the mass fractions of water.</t>
+  </si>
+  <si>
+    <t>Added estimator of iodine-in-blood density and concentration to "Enter mass fractions" sheet
+Added estimator of iodine-in-water density and concentration to "Enter a formula" sheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1639,13 +1777,24 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,6 +1816,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDF2FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,7 +2125,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2027,7 +2194,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2037,9 +2203,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2063,7 +2226,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2083,14 +2245,11 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2121,15 +2280,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2239,14 +2389,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2267,18 +2409,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2334,6 +2464,163 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2344,11 +2631,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFDDF2FF"/>
+      <color rgb="FFFFF3FF"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFF8F8F8"/>
-      <color rgb="FFCCFFFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFCC3300"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
@@ -2660,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CB8E5-6694-4F1B-B671-195116FAC06A}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,11 +2967,11 @@
       <c r="A1" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>267</v>
+      <c r="B1" s="16">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -2694,54 +2984,74 @@
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-    </row>
-    <row r="4" spans="1:12" s="54" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A3" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:12" s="51" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="131" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="130">
+        <v>44672</v>
+      </c>
+      <c r="C11" s="207" t="s">
+        <v>470</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A2:C2"/>
@@ -2757,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE334929-57FE-4A9D-B51A-4CE49032E816}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,110 +3083,114 @@
     <col min="10" max="10" width="4.7109375" style="5" customWidth="1"/>
     <col min="11" max="14" width="10.7109375" style="5" customWidth="1"/>
     <col min="15" max="15" width="110.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
+      <c r="A1" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="203" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="205"/>
       <c r="O1" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="P1" s="48"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
+      <c r="A2" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="A3" s="62" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
-        <v># Made with CatSim material calculator, version 1.0.</v>
+        <v># Made with CatSim material calculator, version 1.1.</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
+      <c r="A4" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="23" t="str">
         <f>IF(O12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="56">
+      <c r="A5" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="52">
         <v>1</v>
       </c>
       <c r="M5" s="10" t="s">
@@ -2889,69 +3203,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68" t="s">
-        <v>424</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
+      <c r="A6" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="206" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="181"/>
       <c r="O6" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($F$8), "", #N/A), IF(ISBLANK($F$8), "# Material composition source not specified.", CONCATENATE("# Material composition source: ",$F$8)))</f>
         <v># Material composition source: same as density</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="107" t="s">
-        <v>423</v>
-      </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
+      <c r="A7" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="176" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="178"/>
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="101" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="109" t="s">
-        <v>382</v>
-      </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="111"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="103"/>
       <c r="O8" s="23" t="str">
         <f>IF($O$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -2959,151 +3273,151 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <v>6</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="81"/>
+      <c r="E9" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="75"/>
       <c r="O9" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$A$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="A10" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="90" t="s">
+      <c r="A12" s="91" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="112" t="s">
-        <v>394</v>
-      </c>
-      <c r="F12" s="112" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="112" t="s">
-        <v>396</v>
-      </c>
-      <c r="I12" s="112" t="s">
+      <c r="E12" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="101" t="s">
+      <c r="F12" s="104" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="76"/>
+      <c r="H12" s="104" t="s">
+        <v>393</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="K12" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="105" t="s">
+      <c r="L12" s="96"/>
+      <c r="M12" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="N12" s="101"/>
+      <c r="N12" s="95"/>
       <c r="O12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Symbol and Number of atoms per molecule.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="103"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="97"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="93" t="s">
-        <v>410</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="74" t="s">
+      <c r="B14" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="L14" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="M14" s="78" t="s">
+      <c r="L14" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="M14" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="74" t="s">
-        <v>391</v>
+      <c r="N14" s="68" t="s">
+        <v>389</v>
       </c>
       <c r="O14" s="24" t="str">
         <f>CONCATENATE("# Density:")</f>
@@ -3111,66 +3425,66 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="74"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="24" t="str">
         <f>IF($O$12="1", IF(ISBLANK($L$5),FIXED(_xlfn.XLOOKUP($A18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$D$9),FIXED($L$5,$D$9)),IF(ISBLANK($L$5),"Error! Density value not specified!",FIXED($L$5,$D$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="74"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="75"/>
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="24" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>2</v>
       </c>
       <c r="C18" s="6" t="str">
@@ -3185,20 +3499,20 @@
         <f>IF(ISBLANK($A18), "", _xlfn.XLOOKUP($A18,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v>1.0079750000000001</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="37">
         <f>IF(ISBLANK($A18), "", B18*E18)</f>
         <v>2.0159500000000001</v>
       </c>
-      <c r="G18" s="83"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="6">
         <f>D18</f>
         <v>1</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="37">
         <f>IF(ISBLANK($B18), "", F18/F$33)</f>
         <v>0.11190179485827366</v>
       </c>
-      <c r="J18" s="86"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="14" cm="1">
         <f t="array" ref="K18:L19">_xlfn._xlws.SORT(H18:INDEX(H18:I29,O12,2),1,1,FALSE)</f>
         <v>1</v>
@@ -3219,11 +3533,11 @@
         <v>1    0.111902    # hydrogen</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>1</v>
       </c>
       <c r="C19" s="6" t="str">
@@ -3238,20 +3552,20 @@
         <f>IF(ISBLANK($A19), "", _xlfn.XLOOKUP($A19,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v>15.9994</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="37">
         <f>IF(ISBLANK($A19), "", B19*E19)</f>
         <v>15.9994</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H29" si="0">D19</f>
         <v>8</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="37">
         <f>IF(ISBLANK($B19), "", F19/F$33)</f>
         <v>0.88809820514172644</v>
       </c>
-      <c r="J19" s="86"/>
+      <c r="J19" s="80"/>
       <c r="K19" s="14">
         <v>8</v>
       </c>
@@ -3271,9 +3585,9 @@
         <v>8    0.888098    # oxygen</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="33"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="6" t="str">
         <f>IF(ISBLANK($A20), "", _xlfn.XLOOKUP($A20,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3286,20 +3600,20 @@
         <f>IF(ISBLANK($A20), "", _xlfn.XLOOKUP($A20,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F20" s="39" t="str">
+      <c r="F20" s="37" t="str">
         <f>IF(ISBLANK($A20), "", B20*E20)</f>
         <v/>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="39" t="str">
+      <c r="I20" s="37" t="str">
         <f>IF(ISBLANK($B20), "", F20/F$33)</f>
         <v/>
       </c>
-      <c r="J20" s="86"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8" t="str">
@@ -3315,9 +3629,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="33"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="6" t="str">
         <f>IF(ISBLANK($A21), "", _xlfn.XLOOKUP($A21,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3330,20 +3644,20 @@
         <f>IF(ISBLANK($A21), "", _xlfn.XLOOKUP($A21,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F21" s="39" t="str">
+      <c r="F21" s="37" t="str">
         <f>IF(ISBLANK($A21), "", B21*E21)</f>
         <v/>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="39" t="str">
+      <c r="I21" s="37" t="str">
         <f>IF(ISBLANK($B21), "", F21/F$33)</f>
         <v/>
       </c>
-      <c r="J21" s="86"/>
+      <c r="J21" s="80"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="8" t="str">
@@ -3359,9 +3673,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="33"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="6" t="str">
         <f>IF(ISBLANK($A22), "", _xlfn.XLOOKUP($A22,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3374,20 +3688,20 @@
         <f>IF(ISBLANK($A22), "", _xlfn.XLOOKUP($A22,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F22" s="39" t="str">
+      <c r="F22" s="37" t="str">
         <f t="shared" ref="F22:F29" si="3">IF(ISBLANK($A22), "", B22*E22)</f>
         <v/>
       </c>
-      <c r="G22" s="83"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="39" t="str">
+      <c r="I22" s="37" t="str">
         <f t="shared" ref="I22:I29" si="4">IF(ISBLANK($B22), "", F22/F$33)</f>
         <v/>
       </c>
-      <c r="J22" s="86"/>
+      <c r="J22" s="80"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8" t="str">
@@ -3403,9 +3717,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="33"/>
+    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="6" t="str">
         <f>IF(ISBLANK($A23), "", _xlfn.XLOOKUP($A23,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3418,20 +3732,20 @@
         <f>IF(ISBLANK($A23), "", _xlfn.XLOOKUP($A23,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F23" s="39" t="str">
+      <c r="F23" s="37" t="str">
         <f t="shared" ref="F23:F24" si="5">IF(ISBLANK($A23), "", B23*E23)</f>
         <v/>
       </c>
-      <c r="G23" s="83"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="6" t="str">
         <f t="shared" ref="H23:H24" si="6">D23</f>
         <v/>
       </c>
-      <c r="I23" s="39" t="str">
+      <c r="I23" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J23" s="86"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8" t="str">
@@ -3447,9 +3761,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="33"/>
+    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="str">
         <f>IF(ISBLANK($A24), "", _xlfn.XLOOKUP($A24,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3462,20 +3776,20 @@
         <f>IF(ISBLANK($A24), "", _xlfn.XLOOKUP($A24,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F24" s="39" t="str">
+      <c r="F24" s="37" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G24" s="83"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I24" s="39" t="str">
+      <c r="I24" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J24" s="86"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8" t="str">
@@ -3491,9 +3805,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="33"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="6" t="str">
         <f>IF(ISBLANK($A25), "", _xlfn.XLOOKUP($A25,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3506,20 +3820,20 @@
         <f>IF(ISBLANK($A25), "", _xlfn.XLOOKUP($A25,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F25" s="39" t="str">
+      <c r="F25" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="39" t="str">
+      <c r="I25" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J25" s="86"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8" t="str">
@@ -3535,9 +3849,9 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="33"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="6" t="str">
         <f>IF(ISBLANK($A26), "", _xlfn.XLOOKUP($A26,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3550,20 +3864,20 @@
         <f>IF(ISBLANK($A26), "", _xlfn.XLOOKUP($A26,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F26" s="39" t="str">
+      <c r="F26" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="83"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="39" t="str">
+      <c r="I26" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J26" s="86"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="8" t="str">
@@ -3579,9 +3893,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="33"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="6" t="str">
         <f>IF(ISBLANK($A27), "", _xlfn.XLOOKUP($A27,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3594,20 +3908,20 @@
         <f>IF(ISBLANK($A27), "", _xlfn.XLOOKUP($A27,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F27" s="39" t="str">
+      <c r="F27" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G27" s="83"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="39" t="str">
+      <c r="I27" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J27" s="86"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="8" t="str">
@@ -3623,9 +3937,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="33"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="6" t="str">
         <f>IF(ISBLANK($A28), "", _xlfn.XLOOKUP($A28,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3638,20 +3952,20 @@
         <f>IF(ISBLANK($A28), "", _xlfn.XLOOKUP($A28,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F28" s="39" t="str">
+      <c r="F28" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G28" s="83"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="39" t="str">
+      <c r="I28" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J28" s="86"/>
+      <c r="J28" s="80"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="8" t="str">
@@ -3667,9 +3981,9 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="34"/>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="7" t="str">
         <f>IF(ISBLANK($A29), "", _xlfn.XLOOKUP($A29,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3682,20 +3996,20 @@
         <f>IF(ISBLANK($A29), "", _xlfn.XLOOKUP($A29,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="F29" s="40" t="str">
+      <c r="F29" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G29" s="84"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="40" t="str">
+      <c r="I29" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J29" s="87"/>
+      <c r="J29" s="81"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="9" t="str">
@@ -3711,57 +4025,436 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="95" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F31" s="96"/>
-      <c r="O31" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F32" s="96"/>
-      <c r="O32" s="24" t="str">
-        <f>CONCATENATE("# number of iodine atoms per water molecule = ", B$20)</f>
-        <v xml:space="preserve"># number of iodine atoms per water molecule = </v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="41">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="M30" s="155" t="s">
+        <v>436</v>
+      </c>
+      <c r="N30" s="172"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="90"/>
+      <c r="M31" s="166" t="s">
+        <v>469</v>
+      </c>
+      <c r="N31" s="157"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="90"/>
+      <c r="M32" s="173">
+        <v>20</v>
+      </c>
+      <c r="N32" s="157" t="s">
+        <v>437</v>
+      </c>
+      <c r="O32" s="158"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+    </row>
+    <row r="33" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="39">
         <f>SUM(F18:F29)</f>
         <v>18.015349999999998</v>
       </c>
-      <c r="O33" s="24" t="e">
-        <f>CONCATENATE("# iodine mass concentration = ", O$15, " g/mL * ", N$20, " = ", 1000*VALUE(O$15)*VALUE(N$20), " mg/mL.")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="166" t="s">
+        <v>444</v>
+      </c>
+      <c r="N33" s="157"/>
+      <c r="O33" s="158">
+        <f>$N$43</f>
+        <v>0.9981899999999998</v>
+      </c>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O35" s="32" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O36" s="24" t="str">
-        <f>CONCATENATE("# Formula: H(", B$18, ")O(", B$19, ")Na(", B$20, ")Cl(", B$21, ")")</f>
-        <v># Formula: H(2)O(1)Na()Cl()</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O37" s="24" t="e">
-        <f>CONCATENATE("# NaCl mass concentration = (", N$20, " + ", N$21, ") * ", O$15, " g/mL = ", 1000*(VALUE(N$20)+VALUE(N$21))*VALUE(O$15), " g/L.")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="M34" s="166" t="s">
+        <v>431</v>
+      </c>
+      <c r="N34" s="157"/>
+      <c r="O34" s="158" t="s">
+        <v>438</v>
+      </c>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M35" s="166" t="s">
+        <v>426</v>
+      </c>
+      <c r="N35" s="157"/>
+      <c r="O35" s="159" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("water at ", $M$32, " deg C, with ", ROUND(100*$L$20, 6), "% iodine (", ROUND($N$44, 6), " ", $O$44, ")")</f>
+        <v>water at 20 deg C, with 0% iodine (0 mg iodine/mL water-iodine solution)</v>
+      </c>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+    </row>
+    <row r="36" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="166" t="s">
+        <v>432</v>
+      </c>
+      <c r="N36" s="157"/>
+      <c r="O36" s="159" t="str">
+        <f>CONCATENATE("modified water_",$M$32,"C")</f>
+        <v>modified water_20C</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="166" t="s">
+        <v>461</v>
+      </c>
+      <c r="N37" s="157"/>
+      <c r="O37" s="159"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="168"/>
+      <c r="R37" s="169" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="167" t="s">
+        <v>454</v>
+      </c>
+      <c r="N38" s="160"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="163" t="s">
+        <v>446</v>
+      </c>
+      <c r="R38" s="159" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M39" s="53"/>
+      <c r="N39" s="162">
+        <f>F33</f>
+        <v>18.015349999999998</v>
+      </c>
+      <c r="O39" s="159" t="s">
+        <v>449</v>
+      </c>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="170">
+        <v>1</v>
+      </c>
+      <c r="R39" s="183">
+        <v>1.4221740000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M40" s="53"/>
+      <c r="N40" s="162">
+        <v>18.015350000000002</v>
+      </c>
+      <c r="O40" s="159" t="s">
+        <v>445</v>
+      </c>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="170">
+        <v>2</v>
+      </c>
+      <c r="R40" s="183">
+        <v>2.8443469999999999E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M41" s="53"/>
+      <c r="N41" s="162">
+        <f>N39/N40</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="O41" s="159" t="s">
+        <v>453</v>
+      </c>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="170">
+        <v>5</v>
+      </c>
+      <c r="R41" s="183">
+        <v>7.1108680000000004E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M42" s="53"/>
+      <c r="N42" s="162">
+        <f>IF($M$32 = 0, 0.99989, IF($M$32 = 20, 0.99819, IF($M$32 = 37, 0.99336)))</f>
+        <v>0.99819000000000002</v>
+      </c>
+      <c r="O42" s="159" t="s">
+        <v>439</v>
+      </c>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="170">
+        <v>10</v>
+      </c>
+      <c r="R42" s="183">
+        <v>1.4221735000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M43" s="53"/>
+      <c r="N43" s="162">
+        <f>N41*N42</f>
+        <v>0.9981899999999998</v>
+      </c>
+      <c r="O43" s="159" t="s">
+        <v>442</v>
+      </c>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="170">
+        <v>15</v>
+      </c>
+      <c r="R43" s="183">
+        <v>2.1332602000000002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="182">
+        <f>1000*(N43-N42)</f>
+        <v>-2.2204460492503131E-13</v>
+      </c>
+      <c r="O44" s="165" t="s">
+        <v>440</v>
+      </c>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="170">
+        <v>20</v>
+      </c>
+      <c r="R44" s="183">
+        <v>2.8443469000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M45" s="185" t="s">
+        <v>456</v>
+      </c>
+      <c r="N45" s="186"/>
+      <c r="O45" s="187"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="170">
+        <v>30</v>
+      </c>
+      <c r="R45" s="183">
+        <v>4.2665204000000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M46" s="188" t="s">
+        <v>469</v>
+      </c>
+      <c r="N46" s="189"/>
+      <c r="O46" s="190"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="170">
+        <v>40</v>
+      </c>
+      <c r="R46" s="183">
+        <v>5.6886938000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="173">
+        <v>37</v>
+      </c>
+      <c r="N47" s="189" t="s">
+        <v>437</v>
+      </c>
+      <c r="O47" s="190"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="170">
+        <v>50</v>
+      </c>
+      <c r="R47" s="183">
+        <v>7.1108673000000004E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="188" t="s">
+        <v>444</v>
+      </c>
+      <c r="N48" s="189"/>
+      <c r="O48" s="190">
+        <f>$N$58</f>
+        <v>0.9933599999999998</v>
+      </c>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="164">
+        <v>100</v>
+      </c>
+      <c r="R48" s="184">
+        <v>1.4221734600000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M49" s="188" t="s">
+        <v>431</v>
+      </c>
+      <c r="N49" s="189"/>
+      <c r="O49" s="190" t="s">
+        <v>438</v>
+      </c>
+      <c r="P49" s="53"/>
+    </row>
+    <row r="50" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M50" s="188" t="s">
+        <v>426</v>
+      </c>
+      <c r="N50" s="189"/>
+      <c r="O50" s="191" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("water at ", $M$32, " deg C, with ", ROUND($N$59, 6), $O$59, " (", ROUND(100*(N56-N57), 6), "  mg/mL NaCl)")</f>
+        <v>water at 20 deg C, with 0% NaCl in water-NaCl solution (0.664  mg/mL NaCl)</v>
+      </c>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+    </row>
+    <row r="51" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M51" s="188" t="s">
+        <v>432</v>
+      </c>
+      <c r="N51" s="189"/>
+      <c r="O51" s="191" t="str">
+        <f>CONCATENATE("modified water_",$M$32,"C")</f>
+        <v>modified water_20C</v>
+      </c>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+    </row>
+    <row r="52" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M52" s="188" t="s">
+        <v>462</v>
+      </c>
+      <c r="N52" s="189"/>
+      <c r="O52" s="191"/>
+      <c r="P52" s="53"/>
+    </row>
+    <row r="53" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M53" s="192" t="s">
+        <v>463</v>
+      </c>
+      <c r="N53" s="193"/>
+      <c r="O53" s="194"/>
+      <c r="P53" s="194"/>
+      <c r="Q53" s="198"/>
+      <c r="R53" s="199" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M54" s="53"/>
+      <c r="N54" s="195">
+        <f>F33</f>
+        <v>18.015349999999998</v>
+      </c>
+      <c r="O54" s="191" t="s">
+        <v>457</v>
+      </c>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="200" t="s">
+        <v>464</v>
+      </c>
+      <c r="R54" s="191" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M55" s="53"/>
+      <c r="N55" s="195">
+        <v>18.015350000000002</v>
+      </c>
+      <c r="O55" s="191" t="s">
+        <v>445</v>
+      </c>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="201">
+        <v>0.9</v>
+      </c>
+      <c r="R55" s="202">
+        <v>2.7995749999999999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M56" s="53"/>
+      <c r="N56" s="195">
+        <f>N54/N55</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="O56" s="191" t="s">
+        <v>458</v>
+      </c>
+      <c r="P56" s="53"/>
+    </row>
+    <row r="57" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M57" s="53"/>
+      <c r="N57" s="195">
+        <f>IF($M$47 = 0, 0.99989, IF($M$47 = 20, 0.99819, IF($M$47 = 37, 0.99336)))</f>
+        <v>0.99336000000000002</v>
+      </c>
+      <c r="O57" s="191" t="s">
+        <v>439</v>
+      </c>
+      <c r="P57" s="53"/>
+    </row>
+    <row r="58" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M58" s="53"/>
+      <c r="N58" s="195">
+        <f>N56*N57</f>
+        <v>0.9933599999999998</v>
+      </c>
+      <c r="O58" s="191" t="s">
+        <v>459</v>
+      </c>
+      <c r="P58" s="53"/>
+    </row>
+    <row r="59" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N59" s="196">
+        <f>100*(L20+L21)</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="197" t="s">
+        <v>460</v>
+      </c>
+      <c r="P59" s="53"/>
+    </row>
+    <row r="60" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+    </row>
+    <row r="61" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+    </row>
+    <row r="62" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+    </row>
+    <row r="63" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+    </row>
+    <row r="64" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="A2:N2"/>
@@ -3781,7 +4474,6 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:N6"/>
-    <mergeCell ref="A1:N1"/>
     <mergeCell ref="K14:K17"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="M14:M17"/>
@@ -3795,17 +4487,25 @@
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C12:C17"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M32 M47" xr:uid="{36745EB9-6DFC-4A18-A2B7-FAB74AA8976B}">
+      <formula1>"0, 20, 37"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{518487AD-EE45-406A-877C-02B0625CF942}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F03341-331A-402E-8CE0-642A86E9D3BD}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3826,367 +4526,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="117" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="A1" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="203" t="s">
+        <v>467</v>
+      </c>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="205"/>
       <c r="Q1" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="A2" s="115" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
       <c r="Q2" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
-        <v>412</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="A3" s="115" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
-        <v># Made with CatSim material calculator, version 1.0.</v>
+        <v># Made with CatSim material calculator, version 1.1.</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="A4" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
       <c r="Q4" s="23" t="str">
         <f>IF(Q12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="55">
+      <c r="A5" s="74" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="52">
         <v>1</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="174" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
       <c r="Q5" s="23" t="str">
         <f>IF(AND($Q$12="1",ISBLANK($K$5),ISBLANK($D$6)),CONCATENATE("# Density from ", Data!$S$1, "."), IF(ISBLANK($D$6),"# Density source not specified.",_xlfn.CONCAT("# Density source: ",$D$6)))</f>
         <v># Density source: https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>416</v>
+      <c r="A6" s="44" t="s">
+        <v>412</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="109" t="s">
-        <v>424</v>
-      </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
+      <c r="D6" s="179" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="181"/>
       <c r="Q6" s="23" t="str">
         <f>IF(ISBLANK($F$8),IF($Q$12=1,"","# Material composition source not specified."),CONCATENATE("# Material composition source: ",$F$8))</f>
-        <v># Material composition source: "Enter a formula" tab in this workbook</v>
+        <v># Material composition source: L18-L19 on "Enter a formula" sheet</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>379</v>
+      <c r="A7" s="44" t="s">
+        <v>377</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="109" t="s">
-        <v>423</v>
-      </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
+      <c r="G7" s="176" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
       <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>380</v>
+      <c r="A8" s="44" t="s">
+        <v>378</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="109" t="s">
-        <v>425</v>
-      </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
+      <c r="F8" s="101" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="23" t="str">
         <f>IF($Q$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
-        <v>402</v>
+      <c r="A9" s="44" t="s">
+        <v>398</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <v>6</v>
       </c>
-      <c r="F9" s="129" t="s">
-        <v>401</v>
-      </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
+      <c r="F9" s="117" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
       <c r="Q9" s="23" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$F$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
+      <c r="A10" s="115" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
       <c r="Q11" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="128" t="s">
+      <c r="A12" s="91" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="112" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="F12" s="90" t="s">
+      <c r="D12" s="104" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="112" t="s">
-        <v>406</v>
-      </c>
-      <c r="I12" s="112" t="s">
+      <c r="H12" s="104" t="s">
+        <v>402</v>
+      </c>
+      <c r="I12" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="112" t="s">
-        <v>400</v>
-      </c>
-      <c r="K12" s="112" t="s">
-        <v>393</v>
-      </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="123" t="s">
-        <v>408</v>
-      </c>
-      <c r="N12" s="124"/>
-      <c r="O12" s="105" t="s">
+      <c r="J12" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="K12" s="104" t="s">
+        <v>390</v>
+      </c>
+      <c r="L12" s="79"/>
+      <c r="M12" s="111" t="s">
+        <v>404</v>
+      </c>
+      <c r="N12" s="112"/>
+      <c r="O12" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="101"/>
+      <c r="P12" s="95"/>
       <c r="Q12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Atomic number and Mass fraction.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="103"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="97"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="122" t="s">
-        <v>391</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="74" t="s">
+      <c r="B14" s="110" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="O14" s="78" t="s">
+      <c r="N14" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="O14" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="P14" s="74" t="s">
-        <v>391</v>
+      <c r="P14" s="68" t="s">
+        <v>389</v>
       </c>
       <c r="Q14" s="24" t="str">
         <f>CONCATENATE("# Density:")</f>
@@ -4194,84 +4896,84 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="74"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="24" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($K$5),FIXED(_xlfn.XLOOKUP($C18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$E$9),FIXED($K$5,$E$9)),IF(ISBLANK($K$5),"Error! Density value not specified!",FIXED($K$5,$E$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="74"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="68"/>
       <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="75"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="69"/>
       <c r="Q17" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="47">
         <v>1</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="147">
         <v>0.11190179485827366</v>
       </c>
-      <c r="C18" s="35" t="str">
+      <c r="C18" s="34" t="str">
         <f>IF($G18="", "", _xlfn.XLOOKUP($G18,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v>H</v>
       </c>
-      <c r="D18" s="45">
-        <f t="shared" ref="D18:D29" si="0">IF(E18= "","",E18/$E$33)</f>
+      <c r="D18" s="43">
+        <f>IF(E18= "","",E18/$E$33)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E18" s="36">
-        <f t="shared" ref="E18:E29" si="1">IF(C18="", "", K18/$K$34)</f>
+      <c r="E18" s="141">
+        <f>IF(C18="", "", K18/$K$34)</f>
         <v>2</v>
       </c>
       <c r="F18" s="6" t="str">
@@ -4279,26 +4981,26 @@
         <v>hydrogen</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:G29" si="2">IF(ISBLANK(A18), "", A18)</f>
+        <f t="shared" ref="G18:G29" si="0">IF(ISBLANK(A18), "", A18)</f>
         <v>1</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:H29" si="3">IF($C18="", "", B18/$B$33)</f>
+        <f>IF($C18="", "", B18/$B$33)</f>
         <v>0.11190179485827366</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="140">
         <f>IF($C18="", "", _xlfn.XLOOKUP($C18,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v>1.0079750000000001</v>
       </c>
-      <c r="J18" s="39">
-        <f>IF(ISBLANK($B18), "",H18*I18)</f>
-        <v>0.1127942116722684</v>
-      </c>
-      <c r="K18" s="39">
+      <c r="J18" s="139">
+        <f>IF(ISBLANK($B18), "",E18*I18)</f>
+        <v>2.0159500000000001</v>
+      </c>
+      <c r="K18" s="37">
         <f>IF(ISBLANK($B18), "",H18/ I18)</f>
         <v>0.11101643875916928</v>
       </c>
-      <c r="L18" s="86"/>
+      <c r="L18" s="80"/>
       <c r="M18" s="14" cm="1">
         <f t="array" ref="M18:N19">_xlfn._xlws.SORT(G18:INDEX(G18:H29,Q12,2),1,1,FALSE)</f>
         <v>1</v>
@@ -4320,22 +5022,22 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+      <c r="A19" s="47">
         <v>8</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="147">
         <v>0.88809820514172644</v>
       </c>
-      <c r="C19" s="35" t="str">
+      <c r="C19" s="34" t="str">
         <f>IF($G19="", "", _xlfn.XLOOKUP($G19,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v>O</v>
       </c>
-      <c r="D19" s="45">
-        <f t="shared" si="0"/>
+      <c r="D19" s="43">
+        <f>IF(E19= "","",E19/$E$33)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E19" s="36">
-        <f t="shared" si="1"/>
+      <c r="E19" s="141">
+        <f>IF(C19="", "", K19/$K$34)</f>
         <v>1</v>
       </c>
       <c r="F19" s="6" t="str">
@@ -4343,26 +5045,26 @@
         <v>oxygen</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($C19="", "", B19/$B$33)</f>
         <v>0.88809820514172644</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="140">
         <f>IF($C19="", "", _xlfn.XLOOKUP($C19,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v>15.9994</v>
       </c>
-      <c r="J19" s="39">
-        <f t="shared" ref="J19:J29" si="4">IF(ISBLANK($B19), "",H19*I19)</f>
-        <v>14.209038423344538</v>
-      </c>
-      <c r="K19" s="39">
-        <f t="shared" ref="K19:K29" si="5">IF(ISBLANK($B19), "",H19/ I19)</f>
+      <c r="J19" s="139">
+        <f t="shared" ref="J19:J28" si="1">IF(ISBLANK($B19), "",E19*I19)</f>
+        <v>15.9994</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" ref="K19:K29" si="2">IF(ISBLANK($B19), "",H19/ I19)</f>
         <v>5.5508219379584639E-2</v>
       </c>
-      <c r="L19" s="86"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="14">
         <v>8</v>
       </c>
@@ -4370,11 +5072,11 @@
         <v>0.88809820514172644</v>
       </c>
       <c r="O19" s="8" t="str">
-        <f t="shared" ref="O19:O29" si="6">_xlfn.VALUETOTEXT(M19)</f>
+        <f t="shared" ref="O19:O29" si="3">_xlfn.VALUETOTEXT(M19)</f>
         <v>8</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" ref="P19:P29" si="7">IF(O19="", "", FIXED(N19,$E$9))</f>
+        <f t="shared" ref="P19:P29" si="4">IF(O19="", "", FIXED(N19,$E$9))</f>
         <v>0.888098</v>
       </c>
       <c r="Q19" s="24" t="str">
@@ -4383,18 +5085,18 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35" t="str">
+      <c r="A20" s="47"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="34" t="str">
         <f>IF($G20="", "", _xlfn.XLOOKUP($G20,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D20" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D20" s="43" t="str">
+        <f>IF(E20= "","",E20/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E20" s="141" t="str">
+        <f>IF(C20="", "", K20/$K$34)</f>
         <v/>
       </c>
       <c r="F20" s="6" t="str">
@@ -4402,34 +5104,34 @@
         <v/>
       </c>
       <c r="G20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>IF($C20="", "", B20/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I20" s="140" t="str">
+        <f>IF($C20="", "", _xlfn.XLOOKUP($C20,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
+        <v/>
+      </c>
+      <c r="J20" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K20" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H20" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I20" s="6" t="str">
-        <f>IF($C20="", "", _xlfn.XLOOKUP($C20,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J20" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K20" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L20" s="86"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q20" s="24" t="str">
@@ -4438,18 +5140,18 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35" t="str">
+      <c r="A21" s="47"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="34" t="str">
         <f>IF($G21="", "", _xlfn.XLOOKUP($G21,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D21" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D21" s="43" t="str">
+        <f>IF(E21= "","",E21/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E21" s="141" t="str">
+        <f>IF(C21="", "", K21/$K$34)</f>
         <v/>
       </c>
       <c r="F21" s="6" t="str">
@@ -4457,34 +5159,34 @@
         <v/>
       </c>
       <c r="G21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>IF($C21="", "", B21/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I21" s="140" t="str">
+        <f>IF($C21="", "", _xlfn.XLOOKUP($C21,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
+        <v/>
+      </c>
+      <c r="J21" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I21" s="6" t="str">
-        <f>IF($C21="", "", _xlfn.XLOOKUP($C21,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J21" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K21" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L21" s="86"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P21" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q21" s="24" t="str">
@@ -4493,18 +5195,18 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35" t="str">
+      <c r="A22" s="47"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="34" t="str">
         <f>IF($G22="", "", _xlfn.XLOOKUP($G22,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D22" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D22" s="41" t="str">
+        <f>IF(E22= "","",E22/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E22" s="141" t="str">
+        <f>IF(C22="", "", K22/$K$34)</f>
         <v/>
       </c>
       <c r="F22" s="6" t="str">
@@ -4512,34 +5214,34 @@
         <v/>
       </c>
       <c r="G22" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H22" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I22" s="6" t="str">
+        <f>IF($C22="", "", B22/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I22" s="140" t="str">
         <f>IF($C22="", "", _xlfn.XLOOKUP($C22,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J22" s="39" t="str">
-        <f t="shared" ref="J22:J23" si="8">IF(ISBLANK($B22), "",H22*I22)</f>
-        <v/>
-      </c>
-      <c r="K22" s="39" t="str">
-        <f t="shared" ref="K22:K23" si="9">IF(ISBLANK($B22), "",H22/ I22)</f>
-        <v/>
-      </c>
-      <c r="L22" s="86"/>
+      <c r="J22" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K22" s="37" t="str">
+        <f t="shared" ref="K22:K23" si="5">IF(ISBLANK($B22), "",H22/ I22)</f>
+        <v/>
+      </c>
+      <c r="L22" s="80"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="8" t="str">
-        <f t="shared" ref="O22:O23" si="10">_xlfn.VALUETOTEXT(M22)</f>
+        <f t="shared" ref="O22:O23" si="6">_xlfn.VALUETOTEXT(M22)</f>
         <v/>
       </c>
       <c r="P22" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q22" s="24" t="str">
@@ -4548,18 +5250,18 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="35" t="str">
+      <c r="A23" s="47"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="34" t="str">
         <f>IF($G23="", "", _xlfn.XLOOKUP($G23,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D23" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D23" s="41" t="str">
+        <f>IF(E23= "","",E23/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E23" s="141" t="str">
+        <f>IF(C23="", "", K23/$K$34)</f>
         <v/>
       </c>
       <c r="F23" s="6" t="str">
@@ -4567,34 +5269,34 @@
         <v/>
       </c>
       <c r="G23" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I23" s="6" t="str">
+        <f>IF($C23="", "", B23/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I23" s="140" t="str">
         <f>IF($C23="", "", _xlfn.XLOOKUP($C23,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J23" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K23" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L23" s="86"/>
+      <c r="J23" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L23" s="80"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P23" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q23" s="24" t="str">
@@ -4603,18 +5305,18 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="35" t="str">
+      <c r="A24" s="47"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="34" t="str">
         <f>IF($G24="", "", _xlfn.XLOOKUP($G24,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D24" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D24" s="41" t="str">
+        <f>IF(E24= "","",E24/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E24" s="141" t="str">
+        <f>IF(C24="", "", K24/$K$34)</f>
         <v/>
       </c>
       <c r="F24" s="6" t="str">
@@ -4622,34 +5324,34 @@
         <v/>
       </c>
       <c r="G24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f>IF($C24="", "", B24/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I24" s="140" t="str">
+        <f>IF($C24="", "", _xlfn.XLOOKUP($C24,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
+        <v/>
+      </c>
+      <c r="J24" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K24" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I24" s="6" t="str">
-        <f>IF($C24="", "", _xlfn.XLOOKUP($C24,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J24" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K24" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L24" s="86"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P24" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q24" s="24" t="str">
@@ -4658,18 +5360,18 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="35" t="str">
+      <c r="A25" s="47"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="34" t="str">
         <f>IF($G25="", "", _xlfn.XLOOKUP($G25,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D25" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D25" s="41" t="str">
+        <f>IF(E25= "","",E25/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E25" s="141" t="str">
+        <f>IF(C25="", "", K25/$K$34)</f>
         <v/>
       </c>
       <c r="F25" s="6" t="str">
@@ -4677,34 +5379,34 @@
         <v/>
       </c>
       <c r="G25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f>IF($C25="", "", B25/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I25" s="140" t="str">
+        <f>IF($C25="", "", _xlfn.XLOOKUP($C25,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
+        <v/>
+      </c>
+      <c r="J25" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K25" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H25" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I25" s="6" t="str">
-        <f>IF($C25="", "", _xlfn.XLOOKUP($C25,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J25" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K25" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L25" s="86"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P25" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q25" s="24" t="str">
@@ -4713,18 +5415,18 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="35" t="str">
+      <c r="A26" s="47"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="34" t="str">
         <f>IF($G26="", "", _xlfn.XLOOKUP($G26,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D26" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D26" s="41" t="str">
+        <f>IF(E26= "","",E26/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E26" s="141" t="str">
+        <f>IF(C26="", "", K26/$K$34)</f>
         <v/>
       </c>
       <c r="F26" s="6" t="str">
@@ -4732,34 +5434,34 @@
         <v/>
       </c>
       <c r="G26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>IF($C26="", "", B26/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I26" s="140" t="str">
+        <f>IF($C26="", "", _xlfn.XLOOKUP($C26,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
+        <v/>
+      </c>
+      <c r="J26" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K26" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" s="6" t="str">
-        <f>IF($C26="", "", _xlfn.XLOOKUP($C26,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J26" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K26" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L26" s="86"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q26" s="24" t="str">
@@ -4768,18 +5470,18 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35" t="str">
+      <c r="A27" s="47"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="34" t="str">
         <f>IF($G27="", "", _xlfn.XLOOKUP($G27,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D27" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E27" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D27" s="41" t="str">
+        <f>IF(E27= "","",E27/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E27" s="141" t="str">
+        <f>IF(C27="", "", K27/$K$34)</f>
         <v/>
       </c>
       <c r="F27" s="6" t="str">
@@ -4787,34 +5489,34 @@
         <v/>
       </c>
       <c r="G27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f>IF($C27="", "", B27/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I27" s="140" t="str">
+        <f>IF($C27="", "", _xlfn.XLOOKUP($C27,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
+        <v/>
+      </c>
+      <c r="J27" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K27" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="6" t="str">
-        <f>IF($C27="", "", _xlfn.XLOOKUP($C27,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J27" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K27" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L27" s="86"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q27" s="24" t="str">
@@ -4823,18 +5525,18 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35" t="str">
+      <c r="A28" s="47"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="34" t="str">
         <f>IF($G28="", "", _xlfn.XLOOKUP($G28,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D28" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" s="36" t="str">
-        <f t="shared" si="1"/>
+      <c r="D28" s="41" t="str">
+        <f>IF(E28= "","",E28/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E28" s="141" t="str">
+        <f>IF(C28="", "", K28/$K$34)</f>
         <v/>
       </c>
       <c r="F28" s="6" t="str">
@@ -4842,34 +5544,34 @@
         <v/>
       </c>
       <c r="G28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H28" s="6" t="str">
+        <f>IF($C28="", "", B28/$B$33)</f>
+        <v/>
+      </c>
+      <c r="I28" s="140" t="str">
+        <f>IF($C28="", "", _xlfn.XLOOKUP($C28,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
+        <v/>
+      </c>
+      <c r="J28" s="139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K28" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H28" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I28" s="6" t="str">
-        <f>IF($C28="", "", _xlfn.XLOOKUP($C28,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
-        <v/>
-      </c>
-      <c r="J28" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K28" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L28" s="86"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q28" s="24" t="str">
@@ -4878,18 +5580,18 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="37" t="str">
+      <c r="A29" s="48"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="35" t="str">
         <f>IF($G29="", "", _xlfn.XLOOKUP($G29,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
-      <c r="D29" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="38" t="str">
-        <f t="shared" si="1"/>
+      <c r="D29" s="42" t="str">
+        <f>IF(E29= "","",E29/$E$33)</f>
+        <v/>
+      </c>
+      <c r="E29" s="36" t="str">
+        <f>IF(C29="", "", K29/$K$34)</f>
         <v/>
       </c>
       <c r="F29" s="7" t="str">
@@ -4897,34 +5599,34 @@
         <v/>
       </c>
       <c r="G29" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H29" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C29="", "", B29/$B$33)</f>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
         <f>IF($C29="", "", _xlfn.XLOOKUP($C29,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J29" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L29" s="87"/>
+      <c r="J29" s="38" t="str">
+        <f t="shared" ref="J19:J29" si="7">IF(ISBLANK($B29), "",H29*I29)</f>
+        <v/>
+      </c>
+      <c r="K29" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" s="81"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P29" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q29" s="25" t="str">
@@ -4933,84 +5635,294 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="J30" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="K30" s="95" t="s">
-        <v>405</v>
-      </c>
-      <c r="N30" s="95" t="s">
-        <v>426</v>
-      </c>
+      <c r="B30" s="89" t="s">
+        <v>403</v>
+      </c>
+      <c r="E30" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="J30" s="89" t="s">
+        <v>428</v>
+      </c>
+      <c r="K30" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="N30" s="89" t="s">
+        <v>419</v>
+      </c>
+      <c r="O30" s="135" t="s">
+        <v>429</v>
+      </c>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="125"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="G31" s="53"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="P31" s="3"/>
+      <c r="B31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="G31" s="50"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="136" t="s">
+        <v>430</v>
+      </c>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="146">
+        <f>$P$40</f>
+        <v>3.4195131166621888E-4</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="J32" s="41">
+      <c r="B32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="J32" s="142">
         <f>SUM(J18:J29)</f>
-        <v>14.321832635016806</v>
-      </c>
-      <c r="K32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="52">
+        <v>18.015349999999998</v>
+      </c>
+      <c r="K32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="136" t="s">
+        <v>431</v>
+      </c>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="127" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="49">
         <f>SUM(B18:B29)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="143">
         <f>SUM(E18:E29)</f>
         <v>3</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="N33" s="52">
+      <c r="K33" s="90"/>
+      <c r="N33" s="49">
         <f>SUM(N18:N29)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="42">
+      <c r="O33" s="136" t="s">
+        <v>426</v>
+      </c>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="127" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("NCAT blood with ", ROUND(100*$N$28, 1), "% iodine (", ROUND($P$41, 1), " ", $Q$41, ")")</f>
+        <v>NCAT blood with 0% iodine (-1059.7 mg iodine/mL blood-iodine solution)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="40">
         <f>MIN(K18:K29)</f>
         <v>5.5508219379584639E-2</v>
       </c>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="136" t="s">
+        <v>432</v>
+      </c>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="127" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="N36" s="3"/>
+      <c r="O35" s="138" t="s">
+        <v>455</v>
+      </c>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="149"/>
+      <c r="R35" s="149"/>
+      <c r="S35" s="150"/>
+      <c r="T35" s="151" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="145">
+        <f>J32</f>
+        <v>18.015349999999998</v>
+      </c>
+      <c r="Q36" s="127" t="s">
+        <v>450</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="126" t="s">
+        <v>433</v>
+      </c>
+      <c r="T36" s="127" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="145">
+        <v>55845.000000000015</v>
+      </c>
+      <c r="Q37" s="127" t="s">
+        <v>451</v>
+      </c>
+      <c r="S37" s="144">
+        <v>0.7</v>
+      </c>
+      <c r="T37" s="152">
+        <v>7.0489999999999997E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="128">
+        <f>P36/P37</f>
+        <v>3.2259557704360269E-4</v>
+      </c>
+      <c r="Q38" s="127" t="s">
+        <v>452</v>
+      </c>
+      <c r="S38" s="144">
+        <v>0.8</v>
+      </c>
+      <c r="T38" s="152">
+        <v>8.0649999999999993E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O39" s="53"/>
+      <c r="P39" s="126">
+        <v>1.06</v>
+      </c>
+      <c r="Q39" s="127" t="s">
+        <v>424</v>
+      </c>
+      <c r="S39" s="144">
+        <v>0.9</v>
+      </c>
+      <c r="T39" s="152">
+        <v>9.0819999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O40" s="3"/>
+      <c r="P40" s="128">
+        <f>P38*P39</f>
+        <v>3.4195131166621888E-4</v>
+      </c>
+      <c r="Q40" s="127" t="s">
+        <v>443</v>
+      </c>
+      <c r="S40" s="144">
+        <v>1</v>
+      </c>
+      <c r="T40" s="152">
+        <v>1.0101000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P41" s="134">
+        <f>1000*(P40-P39)</f>
+        <v>-1059.6580486883338</v>
+      </c>
+      <c r="Q41" s="129" t="s">
+        <v>441</v>
+      </c>
+      <c r="S41" s="144">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T41" s="152">
+        <v>1.1122E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S42" s="144">
+        <v>2</v>
+      </c>
+      <c r="T42" s="152">
+        <v>2.0407999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="134">
+        <v>3</v>
+      </c>
+      <c r="T43" s="153">
+        <v>3.0928000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:20" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="Q57" s="53"/>
+    </row>
+    <row r="58" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="Q58" s="53"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="C12:C17"/>
@@ -5022,7 +5934,6 @@
     <mergeCell ref="F9:P9"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="K30:K33"/>
     <mergeCell ref="H12:H17"/>
@@ -5058,7 +5969,7 @@
   <dimension ref="A1:Z123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:V4"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,102 +5981,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="I1" s="132" t="s">
-        <v>375</v>
-      </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="P1" s="131" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="I1" s="120" t="s">
         <v>374</v>
       </c>
-      <c r="Q1" s="131"/>
-      <c r="S1" s="132" t="s">
-        <v>378</v>
-      </c>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="P1" s="119" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q1" s="119"/>
+      <c r="S1" s="120" t="s">
+        <v>376</v>
+      </c>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
     </row>
     <row r="5" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5217,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5252,7 +6163,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ref="L6" si="0">IF(LEFT($K6,1)="[",VALUE(MID($K6,2,FIND(",",$K6)-2)), $K6)</f>
@@ -5267,7 +6178,7 @@
         <v>1.0074999999999998</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P6">
         <f>G6-N6</f>
@@ -5284,7 +6195,7 @@
         <v>7</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V6" s="27">
         <v>8.3750000000000003E-5</v>
@@ -5353,7 +6264,7 @@
         <v>10</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="V7" s="27">
         <v>1.663E-4</v>
@@ -5426,7 +6337,7 @@
         <v>12</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V8" s="27">
         <v>0.53400000000000003</v>
@@ -5499,7 +6410,7 @@
         <v>15</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V9" s="27">
         <v>1.8480000000000001</v>
@@ -5572,7 +6483,7 @@
         <v>17</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V10" s="27">
         <v>2.37</v>
@@ -5645,7 +6556,7 @@
         <v>20</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V11" s="27">
         <v>1.7</v>
@@ -5687,7 +6598,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="7"/>
@@ -5718,7 +6629,7 @@
         <v>23</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V12" s="27">
         <v>1.165E-3</v>
@@ -5760,7 +6671,7 @@
         <v>26</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="7"/>
@@ -5791,7 +6702,7 @@
         <v>26</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V13" s="27">
         <v>1.3320000000000001E-3</v>
@@ -5864,7 +6775,7 @@
         <v>29</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V14" s="27">
         <v>1.58E-3</v>
@@ -5937,7 +6848,7 @@
         <v>31</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V15" s="27">
         <v>8.3850000000000005E-4</v>
@@ -6010,7 +6921,7 @@
         <v>33</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V16" s="27">
         <v>0.97099999999999997</v>
@@ -6083,7 +6994,7 @@
         <v>35</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V17" s="27">
         <v>1.74</v>
@@ -6156,7 +7067,7 @@
         <v>37</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V18" s="27">
         <v>2.6989999999999998</v>
@@ -6229,7 +7140,7 @@
         <v>39</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V19" s="27">
         <v>2.33</v>
@@ -6302,7 +7213,7 @@
         <v>42</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V20" s="27">
         <v>2.2000000000000002</v>
@@ -6314,7 +7225,7 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>43</v>
@@ -6375,7 +7286,7 @@
         <v>43</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V21" s="27">
         <v>2</v>
@@ -6448,7 +7359,7 @@
         <v>46</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V22" s="27">
         <v>2.9949999999999998E-3</v>
@@ -6521,7 +7432,7 @@
         <v>49</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V23" s="27">
         <v>1.6620000000000001E-3</v>
@@ -6594,7 +7505,7 @@
         <v>51</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V24" s="27">
         <v>0.86199999999999999</v>
@@ -6667,7 +7578,7 @@
         <v>53</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V25" s="27">
         <v>1.55</v>
@@ -6740,7 +7651,7 @@
         <v>55</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V26" s="27">
         <v>2.9889999999999999</v>
@@ -6813,7 +7724,7 @@
         <v>57</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V27" s="27">
         <v>4.54</v>
@@ -6886,7 +7797,7 @@
         <v>59</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V28" s="27">
         <v>6.11</v>
@@ -6959,7 +7870,7 @@
         <v>61</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V29" s="27">
         <v>7.18</v>
@@ -7032,7 +7943,7 @@
         <v>63</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V30" s="27">
         <v>7.44</v>
@@ -7105,7 +8016,7 @@
         <v>65</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V31" s="27">
         <v>7.8739999999999997</v>
@@ -7178,7 +8089,7 @@
         <v>67</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V32" s="27">
         <v>8.9</v>
@@ -7251,7 +8162,7 @@
         <v>69</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V33" s="27">
         <v>8.9019999999999992</v>
@@ -7324,7 +8235,7 @@
         <v>71</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V34" s="27">
         <v>8.9600000000000009</v>
@@ -7397,7 +8308,7 @@
         <v>73</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V35" s="27">
         <v>7.133</v>
@@ -7470,7 +8381,7 @@
         <v>75</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V36" s="27">
         <v>5.9039999999999999</v>
@@ -7543,7 +8454,7 @@
         <v>77</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V37" s="27">
         <v>5.3230000000000004</v>
@@ -7616,7 +8527,7 @@
         <v>79</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V38" s="27">
         <v>5.73</v>
@@ -7689,7 +8600,7 @@
         <v>81</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V39" s="27">
         <v>4.5</v>
@@ -7762,7 +8673,7 @@
         <v>83</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V40" s="27">
         <v>7.0720000000000002E-3</v>
@@ -7835,7 +8746,7 @@
         <v>86</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V41" s="27">
         <v>3.4780000000000002E-3</v>
@@ -7908,7 +8819,7 @@
         <v>88</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V42" s="27">
         <v>1.532</v>
@@ -7981,7 +8892,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V43" s="27">
         <v>2.54</v>
@@ -8054,7 +8965,7 @@
         <v>92</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V44" s="27">
         <v>4.4690000000000003</v>
@@ -8127,7 +9038,7 @@
         <v>94</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V45" s="27">
         <v>6.5060000000000002</v>
@@ -8200,7 +9111,7 @@
         <v>96</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V46" s="27">
         <v>8.57</v>
@@ -8273,7 +9184,7 @@
         <v>98</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V47" s="27">
         <v>10.220000000000001</v>
@@ -8315,7 +9226,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L48" s="3" t="e">
         <f t="shared" si="7"/>
@@ -8346,7 +9257,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V48" s="27">
         <v>11.5</v>
@@ -8419,7 +9330,7 @@
         <v>102</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V49" s="27">
         <v>12.41</v>
@@ -8492,7 +9403,7 @@
         <v>104</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V50" s="27">
         <v>12.41</v>
@@ -8565,7 +9476,7 @@
         <v>106</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V51" s="27">
         <v>12.02</v>
@@ -8638,7 +9549,7 @@
         <v>108</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V52" s="27">
         <v>10.5</v>
@@ -8711,7 +9622,7 @@
         <v>110</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V53" s="27">
         <v>8.65</v>
@@ -8784,7 +9695,7 @@
         <v>112</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V54" s="27">
         <v>7.31</v>
@@ -8857,7 +9768,7 @@
         <v>114</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V55" s="27">
         <v>7.31</v>
@@ -8930,7 +9841,7 @@
         <v>116</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V56" s="27">
         <v>6.6909999999999998</v>
@@ -9003,7 +9914,7 @@
         <v>118</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V57" s="27">
         <v>6.24</v>
@@ -9076,7 +9987,7 @@
         <v>120</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V58" s="27">
         <v>4.93</v>
@@ -9149,7 +10060,7 @@
         <v>122</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V59" s="27">
         <v>5.4850000000000003E-3</v>
@@ -9161,7 +10072,7 @@
     </row>
     <row r="60" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>123</v>
@@ -9222,7 +10133,7 @@
         <v>123</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V60" s="27">
         <v>1.873</v>
@@ -9295,7 +10206,7 @@
         <v>125</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V61" s="27">
         <v>3.5</v>
@@ -9368,7 +10279,7 @@
         <v>127</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V62" s="27">
         <v>6.1539999999999999</v>
@@ -9441,7 +10352,7 @@
         <v>129</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V63" s="27">
         <v>6.657</v>
@@ -9514,7 +10425,7 @@
         <v>131</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V64" s="27">
         <v>6.71</v>
@@ -9587,7 +10498,7 @@
         <v>133</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V65" s="27">
         <v>6.9</v>
@@ -9629,7 +10540,7 @@
         <v>135</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L66" s="3" t="e">
         <f t="shared" si="7"/>
@@ -9660,7 +10571,7 @@
         <v>135</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V66" s="27">
         <v>7.22</v>
@@ -9733,7 +10644,7 @@
         <v>137</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V67" s="27">
         <v>7.46</v>
@@ -9806,7 +10717,7 @@
         <v>139</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V68" s="27">
         <v>5.2430000000000003</v>
@@ -9879,7 +10790,7 @@
         <v>141</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V69" s="27">
         <v>7.9</v>
@@ -9952,7 +10863,7 @@
         <v>143</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V70" s="27">
         <v>8.2289999999999992</v>
@@ -10025,7 +10936,7 @@
         <v>145</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V71" s="27">
         <v>8.5500000000000007</v>
@@ -10098,7 +11009,7 @@
         <v>147</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V72" s="27">
         <v>8.7949999999999999</v>
@@ -10171,7 +11082,7 @@
         <v>149</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V73" s="27">
         <v>9.0660000000000007</v>
@@ -10244,7 +11155,7 @@
         <v>151</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V74" s="27">
         <v>9.3209999999999997</v>
@@ -10317,7 +11228,7 @@
         <v>153</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V75" s="27">
         <v>6.73</v>
@@ -10390,7 +11301,7 @@
         <v>155</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V76" s="27">
         <v>9.84</v>
@@ -10463,7 +11374,7 @@
         <v>157</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V77" s="27">
         <v>13.31</v>
@@ -10536,7 +11447,7 @@
         <v>159</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V78" s="27">
         <v>16.649999999999999</v>
@@ -10609,7 +11520,7 @@
         <v>160</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V79" s="27">
         <v>19.3</v>
@@ -10682,7 +11593,7 @@
         <v>162</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V80" s="27">
         <v>21.02</v>
@@ -10755,7 +11666,7 @@
         <v>164</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V81" s="27">
         <v>22.57</v>
@@ -10828,7 +11739,7 @@
         <v>166</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V82" s="27">
         <v>22.42</v>
@@ -10901,7 +11812,7 @@
         <v>168</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="V83" s="27">
         <v>21.45</v>
@@ -10974,7 +11885,7 @@
         <v>170</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V84" s="27">
         <v>19.32</v>
@@ -11047,7 +11958,7 @@
         <v>172</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V85" s="27">
         <v>13.55</v>
@@ -11120,7 +12031,7 @@
         <v>174</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V86" s="27">
         <v>11.72</v>
@@ -11193,7 +12104,7 @@
         <v>177</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V87" s="27">
         <v>11.35</v>
@@ -11266,7 +12177,7 @@
         <v>179</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="V88" s="27">
         <v>9.7469999999999999</v>
@@ -11308,7 +12219,7 @@
         <v>181</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L89" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11339,7 +12250,7 @@
         <v>181</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V89" s="27">
         <v>9.32</v>
@@ -11381,7 +12292,7 @@
         <v>183</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L90" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11412,7 +12323,7 @@
         <v>183</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V90" s="27">
         <v>10</v>
@@ -11454,7 +12365,7 @@
         <v>185</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L91" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11485,7 +12396,7 @@
         <v>185</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V91" s="27">
         <v>9.0659999999999994E-3</v>
@@ -11527,7 +12438,7 @@
         <v>187</v>
       </c>
       <c r="K92" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L92" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11558,7 +12469,7 @@
         <v>187</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V92" s="27">
         <v>10</v>
@@ -11600,7 +12511,7 @@
         <v>189</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L93" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11631,7 +12542,7 @@
         <v>189</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V93" s="27">
         <v>5</v>
@@ -11673,7 +12584,7 @@
         <v>191</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L94" s="3" t="e">
         <f t="shared" si="15"/>
@@ -11704,7 +12615,7 @@
         <v>191</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V94" s="27">
         <v>10.07</v>
@@ -11775,7 +12686,7 @@
         <v>193</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V95" s="27">
         <v>11.72</v>
@@ -11848,7 +12759,7 @@
         <v>195</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V96" s="27">
         <v>15.37</v>
@@ -11919,7 +12830,7 @@
         <v>197</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V97" s="27">
         <v>18.95</v>
@@ -11961,7 +12872,7 @@
         <v>199</v>
       </c>
       <c r="K98" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L98" s="3" t="e">
         <f t="shared" si="15"/>
@@ -12016,7 +12927,7 @@
         <v>201</v>
       </c>
       <c r="K99" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L99" s="3" t="e">
         <f t="shared" si="15"/>

--- a/tools/CatSim material calculator.xlsx
+++ b/tools/CatSim material calculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200003237\Documents\GitHub\documentation\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D65AE8-C0BA-4026-8EBA-94F622BF552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E98E7F-E3B5-4FD3-912B-A729234F646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{B8F9F76C-33C1-418E-8852-058650A875FE}"/>
   </bookViews>
@@ -1625,9 +1625,9 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2125,7 +2125,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2250,236 +2250,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2491,13 +2269,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2535,7 +2313,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2547,37 +2325,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2606,8 +2363,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2617,9 +2408,219 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2984,68 +2985,68 @@
       <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
     </row>
     <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="129" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
     </row>
     <row r="4" spans="1:12" s="51" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="133" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="126" t="s">
         <v>388</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="126" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="126" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
     </row>
     <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="131" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>423</v>
       </c>
-      <c r="B11" s="130">
+      <c r="B11" s="60">
         <v>44672</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="122" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3067,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE334929-57FE-4A9D-B51A-4CE49032E816}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,108 +3089,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="137" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="203" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="134" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
       <c r="O1" s="28" t="s">
         <v>257</v>
       </c>
       <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="144" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
       <c r="O2" s="11" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="144" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.1.</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="144" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="166"/>
       <c r="O4" s="23" t="str">
         <f>IF(O12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="145" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="75"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="146"/>
       <c r="L5" s="52">
         <v>1</v>
       </c>
@@ -3203,69 +3204,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="206" t="s">
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="167" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="181"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
       <c r="O6" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($F$8), "", #N/A), IF(ISBLANK($F$8), "# Material composition source not specified.", CONCATENATE("# Material composition source: ",$F$8)))</f>
         <v># Material composition source: same as density</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="145" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="176" t="s">
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="157" t="s">
         <v>417</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="178"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="145" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="101" t="s">
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="160" t="s">
         <v>380</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="103"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="162"/>
       <c r="O8" s="23" t="str">
         <f>IF($O$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -3280,143 +3281,143 @@
       <c r="D9" s="46">
         <v>6</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="176" t="s">
         <v>397</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="75"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="146"/>
       <c r="O9" s="23" t="str">
         <f>IF($O$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$A$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="144" t="s">
         <v>379</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
       <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="145" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
       <c r="O11" s="24" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="147" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="148"/>
+      <c r="C12" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="163" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="163" t="s">
         <v>391</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="163" t="s">
         <v>392</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="104" t="s">
+      <c r="G12" s="177"/>
+      <c r="H12" s="163" t="s">
         <v>393</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="163" t="s">
         <v>389</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="95" t="s">
+      <c r="J12" s="180"/>
+      <c r="K12" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="L12" s="96"/>
-      <c r="M12" s="99" t="s">
+      <c r="L12" s="152"/>
+      <c r="M12" s="155" t="s">
         <v>261</v>
       </c>
-      <c r="N12" s="95"/>
+      <c r="N12" s="151"/>
       <c r="O12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Symbol and Number of atoms per molecule.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="97"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="153"/>
       <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="183" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="140" t="s">
         <v>406</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="68" t="s">
+      <c r="C14" s="186"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="172" t="s">
         <v>389</v>
       </c>
-      <c r="M14" s="72" t="s">
+      <c r="M14" s="174" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="170" t="s">
         <v>389</v>
       </c>
       <c r="O14" s="24" t="str">
@@ -3425,57 +3426,57 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="68"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="170"/>
       <c r="O15" s="24" t="str">
         <f>IF($O$12="1", IF(ISBLANK($L$5),FIXED(_xlfn.XLOOKUP($A18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$D$9),FIXED($L$5,$D$9)),IF(ISBLANK($L$5),"Error! Density value not specified!",FIXED($L$5,$D$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="68"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="170"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="69"/>
+      <c r="A17" s="184"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="171"/>
       <c r="O17" s="24" t="s">
         <v>386</v>
       </c>
@@ -3503,7 +3504,7 @@
         <f>IF(ISBLANK($A18), "", B18*E18)</f>
         <v>2.0159500000000001</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="178"/>
       <c r="H18" s="6">
         <f>D18</f>
         <v>1</v>
@@ -3512,7 +3513,7 @@
         <f>IF(ISBLANK($B18), "", F18/F$33)</f>
         <v>0.11190179485827366</v>
       </c>
-      <c r="J18" s="80"/>
+      <c r="J18" s="181"/>
       <c r="K18" s="14" cm="1">
         <f t="array" ref="K18:L19">_xlfn._xlws.SORT(H18:INDEX(H18:I29,O12,2),1,1,FALSE)</f>
         <v>1</v>
@@ -3556,7 +3557,7 @@
         <f>IF(ISBLANK($A19), "", B19*E19)</f>
         <v>15.9994</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="178"/>
       <c r="H19" s="6">
         <f t="shared" ref="H19:H29" si="0">D19</f>
         <v>8</v>
@@ -3565,7 +3566,7 @@
         <f>IF(ISBLANK($B19), "", F19/F$33)</f>
         <v>0.88809820514172644</v>
       </c>
-      <c r="J19" s="80"/>
+      <c r="J19" s="181"/>
       <c r="K19" s="14">
         <v>8</v>
       </c>
@@ -3587,7 +3588,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
-      <c r="B20" s="154"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="6" t="str">
         <f>IF(ISBLANK($A20), "", _xlfn.XLOOKUP($A20,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3604,7 +3605,7 @@
         <f>IF(ISBLANK($A20), "", B20*E20)</f>
         <v/>
       </c>
-      <c r="G20" s="77"/>
+      <c r="G20" s="178"/>
       <c r="H20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3613,7 +3614,7 @@
         <f>IF(ISBLANK($B20), "", F20/F$33)</f>
         <v/>
       </c>
-      <c r="J20" s="80"/>
+      <c r="J20" s="181"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8" t="str">
@@ -3631,7 +3632,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="154"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="6" t="str">
         <f>IF(ISBLANK($A21), "", _xlfn.XLOOKUP($A21,Data!$B$6:$B$123,Data!$A$6:$A$123,#N/A))</f>
         <v/>
@@ -3648,7 +3649,7 @@
         <f>IF(ISBLANK($A21), "", B21*E21)</f>
         <v/>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="178"/>
       <c r="H21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3657,7 +3658,7 @@
         <f>IF(ISBLANK($B21), "", F21/F$33)</f>
         <v/>
       </c>
-      <c r="J21" s="80"/>
+      <c r="J21" s="181"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="8" t="str">
@@ -3692,7 +3693,7 @@
         <f t="shared" ref="F22:F29" si="3">IF(ISBLANK($A22), "", B22*E22)</f>
         <v/>
       </c>
-      <c r="G22" s="77"/>
+      <c r="G22" s="178"/>
       <c r="H22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3701,7 +3702,7 @@
         <f t="shared" ref="I22:I29" si="4">IF(ISBLANK($B22), "", F22/F$33)</f>
         <v/>
       </c>
-      <c r="J22" s="80"/>
+      <c r="J22" s="181"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8" t="str">
@@ -3736,7 +3737,7 @@
         <f t="shared" ref="F23:F24" si="5">IF(ISBLANK($A23), "", B23*E23)</f>
         <v/>
       </c>
-      <c r="G23" s="77"/>
+      <c r="G23" s="178"/>
       <c r="H23" s="6" t="str">
         <f t="shared" ref="H23:H24" si="6">D23</f>
         <v/>
@@ -3745,7 +3746,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J23" s="80"/>
+      <c r="J23" s="181"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8" t="str">
@@ -3780,7 +3781,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G24" s="77"/>
+      <c r="G24" s="178"/>
       <c r="H24" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3789,7 +3790,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J24" s="80"/>
+      <c r="J24" s="181"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8" t="str">
@@ -3824,7 +3825,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G25" s="77"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3833,7 +3834,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J25" s="80"/>
+      <c r="J25" s="181"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8" t="str">
@@ -3868,7 +3869,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G26" s="77"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3877,7 +3878,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J26" s="80"/>
+      <c r="J26" s="181"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="8" t="str">
@@ -3912,7 +3913,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3921,7 +3922,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J27" s="80"/>
+      <c r="J27" s="181"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="8" t="str">
@@ -3956,7 +3957,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G28" s="77"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3965,7 +3966,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J28" s="80"/>
+      <c r="J28" s="181"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="8" t="str">
@@ -4000,7 +4001,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G29" s="78"/>
+      <c r="G29" s="179"/>
       <c r="H29" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4009,7 +4010,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J29" s="81"/>
+      <c r="J29" s="182"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="9" t="str">
@@ -4026,34 +4027,34 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="142" t="s">
         <v>407</v>
       </c>
-      <c r="M30" s="155" t="s">
+      <c r="M30" s="82" t="s">
         <v>436</v>
       </c>
-      <c r="N30" s="172"/>
-      <c r="O30" s="156"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="83"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="90"/>
-      <c r="M31" s="166" t="s">
+      <c r="F31" s="143"/>
+      <c r="M31" s="93" t="s">
         <v>469</v>
       </c>
-      <c r="N31" s="157"/>
-      <c r="O31" s="158"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="85"/>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="90"/>
-      <c r="M32" s="173">
+      <c r="F32" s="143"/>
+      <c r="M32" s="100">
         <v>20</v>
       </c>
-      <c r="N32" s="157" t="s">
+      <c r="N32" s="84" t="s">
         <v>437</v>
       </c>
-      <c r="O32" s="158"/>
+      <c r="O32" s="85"/>
       <c r="P32" s="53"/>
       <c r="Q32" s="53"/>
       <c r="R32" s="53"/>
@@ -4063,11 +4064,11 @@
         <f>SUM(F18:F29)</f>
         <v>18.015349999999998</v>
       </c>
-      <c r="M33" s="166" t="s">
+      <c r="M33" s="93" t="s">
         <v>444</v>
       </c>
-      <c r="N33" s="157"/>
-      <c r="O33" s="158">
+      <c r="N33" s="84"/>
+      <c r="O33" s="85">
         <f>$N$43</f>
         <v>0.9981899999999998</v>
       </c>
@@ -4077,11 +4078,11 @@
     </row>
     <row r="34" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
-      <c r="M34" s="166" t="s">
+      <c r="M34" s="93" t="s">
         <v>431</v>
       </c>
-      <c r="N34" s="157"/>
-      <c r="O34" s="158" t="s">
+      <c r="N34" s="84"/>
+      <c r="O34" s="85" t="s">
         <v>438</v>
       </c>
       <c r="P34" s="53"/>
@@ -4089,11 +4090,11 @@
       <c r="R34" s="53"/>
     </row>
     <row r="35" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="M35" s="166" t="s">
+      <c r="M35" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="N35" s="157"/>
-      <c r="O35" s="159" t="str">
+      <c r="N35" s="84"/>
+      <c r="O35" s="86" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("water at ", $M$32, " deg C, with ", ROUND(100*$L$20, 6), "% iodine (", ROUND($N$44, 6), " ", $O$44, ")")</f>
         <v>water at 20 deg C, with 0% iodine (0 mg iodine/mL water-iodine solution)</v>
       </c>
@@ -4101,232 +4102,232 @@
       <c r="Q35" s="53"/>
       <c r="R35" s="53"/>
     </row>
-    <row r="36" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M36" s="166" t="s">
+    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M36" s="93" t="s">
         <v>432</v>
       </c>
-      <c r="N36" s="157"/>
-      <c r="O36" s="159" t="str">
+      <c r="N36" s="84"/>
+      <c r="O36" s="86" t="str">
         <f>CONCATENATE("modified water_",$M$32,"C")</f>
         <v>modified water_20C</v>
       </c>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
     </row>
     <row r="37" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M37" s="166" t="s">
+      <c r="M37" s="93" t="s">
         <v>461</v>
       </c>
-      <c r="N37" s="157"/>
-      <c r="O37" s="159"/>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="169" t="s">
+      <c r="N37" s="84"/>
+      <c r="O37" s="86"/>
+    </row>
+    <row r="38" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="94" t="s">
+        <v>454</v>
+      </c>
+      <c r="N38" s="87"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="96" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M38" s="167" t="s">
-        <v>454</v>
-      </c>
-      <c r="N38" s="160"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="163" t="s">
-        <v>446</v>
-      </c>
-      <c r="R38" s="159" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="M39" s="53"/>
-      <c r="N39" s="162">
+      <c r="N39" s="89">
         <f>F33</f>
         <v>18.015349999999998</v>
       </c>
-      <c r="O39" s="159" t="s">
+      <c r="O39" s="86" t="s">
         <v>449</v>
       </c>
       <c r="P39" s="53"/>
-      <c r="Q39" s="170">
-        <v>1</v>
-      </c>
-      <c r="R39" s="183">
-        <v>1.4221740000000001E-4</v>
+      <c r="Q39" s="90" t="s">
+        <v>446</v>
+      </c>
+      <c r="R39" s="86" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="M40" s="53"/>
-      <c r="N40" s="162">
+      <c r="N40" s="89">
         <v>18.015350000000002</v>
       </c>
-      <c r="O40" s="159" t="s">
+      <c r="O40" s="86" t="s">
         <v>445</v>
       </c>
       <c r="P40" s="53"/>
-      <c r="Q40" s="170">
-        <v>2</v>
-      </c>
-      <c r="R40" s="183">
-        <v>2.8443469999999999E-4</v>
+      <c r="Q40" s="97">
+        <v>1</v>
+      </c>
+      <c r="R40" s="102">
+        <v>1.4221740000000001E-4</v>
       </c>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="M41" s="53"/>
-      <c r="N41" s="162">
+      <c r="N41" s="89">
         <f>N39/N40</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="O41" s="159" t="s">
+      <c r="O41" s="86" t="s">
         <v>453</v>
       </c>
       <c r="P41" s="53"/>
-      <c r="Q41" s="170">
-        <v>5</v>
-      </c>
-      <c r="R41" s="183">
-        <v>7.1108680000000004E-4</v>
+      <c r="Q41" s="97">
+        <v>2</v>
+      </c>
+      <c r="R41" s="102">
+        <v>2.8443469999999999E-4</v>
       </c>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.25">
       <c r="M42" s="53"/>
-      <c r="N42" s="162">
+      <c r="N42" s="89">
         <f>IF($M$32 = 0, 0.99989, IF($M$32 = 20, 0.99819, IF($M$32 = 37, 0.99336)))</f>
         <v>0.99819000000000002</v>
       </c>
-      <c r="O42" s="159" t="s">
+      <c r="O42" s="86" t="s">
         <v>439</v>
       </c>
       <c r="P42" s="53"/>
-      <c r="Q42" s="170">
-        <v>10</v>
-      </c>
-      <c r="R42" s="183">
-        <v>1.4221735000000001E-3</v>
+      <c r="Q42" s="97">
+        <v>5</v>
+      </c>
+      <c r="R42" s="102">
+        <v>7.1108680000000004E-4</v>
       </c>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.25">
       <c r="M43" s="53"/>
-      <c r="N43" s="162">
+      <c r="N43" s="89">
         <f>N41*N42</f>
         <v>0.9981899999999998</v>
       </c>
-      <c r="O43" s="159" t="s">
+      <c r="O43" s="86" t="s">
         <v>442</v>
       </c>
       <c r="P43" s="53"/>
-      <c r="Q43" s="170">
-        <v>15</v>
-      </c>
-      <c r="R43" s="183">
-        <v>2.1332602000000002E-3</v>
+      <c r="Q43" s="97">
+        <v>10</v>
+      </c>
+      <c r="R43" s="102">
+        <v>1.4221735000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N44" s="182">
+      <c r="N44" s="101">
         <f>1000*(N43-N42)</f>
         <v>-2.2204460492503131E-13</v>
       </c>
-      <c r="O44" s="165" t="s">
+      <c r="O44" s="92" t="s">
         <v>440</v>
       </c>
       <c r="P44" s="53"/>
-      <c r="Q44" s="170">
+      <c r="Q44" s="97">
+        <v>15</v>
+      </c>
+      <c r="R44" s="102">
+        <v>2.1332602000000002E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M45" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="N45" s="105"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="97">
         <v>20</v>
       </c>
-      <c r="R44" s="183">
+      <c r="R45" s="102">
         <v>2.8443469000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="M45" s="185" t="s">
-        <v>456</v>
-      </c>
-      <c r="N45" s="186"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="170">
+    <row r="46" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M46" s="107" t="s">
+        <v>469</v>
+      </c>
+      <c r="N46" s="108"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="97">
         <v>30</v>
       </c>
-      <c r="R45" s="183">
+      <c r="R46" s="102">
         <v>4.2665204000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M46" s="188" t="s">
-        <v>469</v>
-      </c>
-      <c r="N46" s="189"/>
-      <c r="O46" s="190"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="170">
+    <row r="47" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="100">
+        <v>37</v>
+      </c>
+      <c r="N47" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="O47" s="109"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="97">
         <v>40</v>
       </c>
-      <c r="R46" s="183">
+      <c r="R47" s="102">
         <v>5.6886938000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M47" s="173">
-        <v>37</v>
-      </c>
-      <c r="N47" s="189" t="s">
-        <v>437</v>
-      </c>
-      <c r="O47" s="190"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="170">
-        <v>50</v>
-      </c>
-      <c r="R47" s="183">
-        <v>7.1108673000000004E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="188" t="s">
+    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="M48" s="107" t="s">
         <v>444</v>
       </c>
-      <c r="N48" s="189"/>
-      <c r="O48" s="190">
+      <c r="N48" s="108"/>
+      <c r="O48" s="109">
         <f>$N$58</f>
         <v>0.9933599999999998</v>
       </c>
       <c r="P48" s="53"/>
-      <c r="Q48" s="164">
+      <c r="Q48" s="97">
+        <v>50</v>
+      </c>
+      <c r="R48" s="102">
+        <v>7.1108673000000004E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M49" s="107" t="s">
+        <v>431</v>
+      </c>
+      <c r="N49" s="108"/>
+      <c r="O49" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="91">
         <v>100</v>
       </c>
-      <c r="R48" s="184">
+      <c r="R49" s="103">
         <v>1.4221734600000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="13:18" x14ac:dyDescent="0.25">
-      <c r="M49" s="188" t="s">
-        <v>431</v>
-      </c>
-      <c r="N49" s="189"/>
-      <c r="O49" s="190" t="s">
-        <v>438</v>
-      </c>
-      <c r="P49" s="53"/>
-    </row>
     <row r="50" spans="13:18" x14ac:dyDescent="0.25">
-      <c r="M50" s="188" t="s">
+      <c r="M50" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="N50" s="189"/>
-      <c r="O50" s="191" t="str">
+      <c r="N50" s="108"/>
+      <c r="O50" s="110" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("water at ", $M$32, " deg C, with ", ROUND($N$59, 6), $O$59, " (", ROUND(100*(N56-N57), 6), "  mg/mL NaCl)")</f>
         <v>water at 20 deg C, with 0% NaCl in water-NaCl solution (0.664  mg/mL NaCl)</v>
       </c>
       <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
     </row>
     <row r="51" spans="13:18" x14ac:dyDescent="0.25">
-      <c r="M51" s="188" t="s">
+      <c r="M51" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="N51" s="189"/>
-      <c r="O51" s="191" t="str">
+      <c r="N51" s="108"/>
+      <c r="O51" s="110" t="str">
         <f>CONCATENATE("modified water_",$M$32,"C")</f>
         <v>modified water_20C</v>
       </c>
@@ -4335,97 +4336,99 @@
       <c r="R51" s="53"/>
     </row>
     <row r="52" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M52" s="188" t="s">
+      <c r="M52" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="N52" s="189"/>
-      <c r="O52" s="191"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="110"/>
       <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
     </row>
     <row r="53" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M53" s="192" t="s">
+      <c r="M53" s="111" t="s">
         <v>463</v>
       </c>
-      <c r="N53" s="193"/>
-      <c r="O53" s="194"/>
-      <c r="P53" s="194"/>
-      <c r="Q53" s="198"/>
-      <c r="R53" s="199" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="54" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="N53" s="112"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="53"/>
+    </row>
+    <row r="54" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M54" s="53"/>
-      <c r="N54" s="195">
+      <c r="N54" s="114">
         <f>F33</f>
         <v>18.015349999999998</v>
       </c>
-      <c r="O54" s="191" t="s">
+      <c r="O54" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="200" t="s">
+      <c r="P54" s="113"/>
+      <c r="Q54" s="117"/>
+      <c r="R54" s="118" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M55" s="53"/>
+      <c r="N55" s="114">
+        <v>18.015350000000002</v>
+      </c>
+      <c r="O55" s="110" t="s">
+        <v>445</v>
+      </c>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="119" t="s">
         <v>464</v>
       </c>
-      <c r="R54" s="191" t="s">
+      <c r="R55" s="110" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M55" s="53"/>
-      <c r="N55" s="195">
-        <v>18.015350000000002</v>
-      </c>
-      <c r="O55" s="191" t="s">
-        <v>445</v>
-      </c>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="201">
-        <v>0.9</v>
-      </c>
-      <c r="R55" s="202">
-        <v>2.7995749999999999E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M56" s="53"/>
-      <c r="N56" s="195">
+      <c r="N56" s="114">
         <f>N54/N55</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="O56" s="191" t="s">
+      <c r="O56" s="110" t="s">
         <v>458</v>
       </c>
       <c r="P56" s="53"/>
+      <c r="Q56" s="120">
+        <v>0.9</v>
+      </c>
+      <c r="R56" s="121">
+        <v>2.7995749999999999E-3</v>
+      </c>
     </row>
     <row r="57" spans="13:18" x14ac:dyDescent="0.25">
       <c r="M57" s="53"/>
-      <c r="N57" s="195">
+      <c r="N57" s="114">
         <f>IF($M$47 = 0, 0.99989, IF($M$47 = 20, 0.99819, IF($M$47 = 37, 0.99336)))</f>
         <v>0.99336000000000002</v>
       </c>
-      <c r="O57" s="191" t="s">
+      <c r="O57" s="110" t="s">
         <v>439</v>
       </c>
       <c r="P57" s="53"/>
     </row>
     <row r="58" spans="13:18" x14ac:dyDescent="0.25">
       <c r="M58" s="53"/>
-      <c r="N58" s="195">
+      <c r="N58" s="114">
         <f>N56*N57</f>
         <v>0.9933599999999998</v>
       </c>
-      <c r="O58" s="191" t="s">
+      <c r="O58" s="110" t="s">
         <v>459</v>
       </c>
       <c r="P58" s="53"/>
     </row>
     <row r="59" spans="13:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N59" s="196">
+      <c r="N59" s="115">
         <f>100*(L20+L21)</f>
         <v>0</v>
       </c>
-      <c r="O59" s="197" t="s">
+      <c r="O59" s="116" t="s">
         <v>460</v>
       </c>
       <c r="P59" s="53"/>
@@ -4450,9 +4453,29 @@
       <c r="O64" s="53"/>
       <c r="P64" s="53"/>
     </row>
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P65" s="53"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="33">
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="G12:G29"/>
+    <mergeCell ref="J12:J29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:N10"/>
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B14:B17"/>
@@ -4469,23 +4492,6 @@
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="G12:G29"/>
-    <mergeCell ref="J12:J29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="C12:C17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M32 M47" xr:uid="{36745EB9-6DFC-4A18-A2B7-FAB74AA8976B}">
@@ -4526,124 +4532,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="137" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="203" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="205"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="136"/>
       <c r="Q1" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="188" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
       <c r="Q2" s="11" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="188" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("# Made with ",Instructions!A$1, " ",Instructions!B$1, ".")</f>
         <v># Made with CatSim material calculator, version 1.1.</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="145" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
       <c r="Q4" s="23" t="str">
         <f>IF(Q12&lt;&gt;"1", CONCATENATE("# Molecular weights from ", Data!$I$1, "."), "")</f>
         <v># Molecular weights from https://www.nist.gov/pml/atomic-weights-and-isotopic-compositions-relative-atomic-masses.</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="176" t="s">
         <v>411</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="75"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
       <c r="K5" s="52">
         <v>1</v>
       </c>
-      <c r="L5" s="174" t="s">
+      <c r="L5" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
       <c r="Q5" s="23" t="str">
         <f>IF(AND($Q$12="1",ISBLANK($K$5),ISBLANK($D$6)),CONCATENATE("# Density from ", Data!$S$1, "."), IF(ISBLANK($D$6),"# Density source not specified.",_xlfn.CONCAT("# Density source: ",$D$6)))</f>
         <v># Density source: https://physics.nist.gov/PhysRefData/XrayMassCoef/tab2.html</v>
@@ -4655,21 +4661,21 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="179" t="s">
+      <c r="D6" s="202" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="181"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="169"/>
       <c r="Q6" s="23" t="str">
         <f>IF(ISBLANK($F$8),IF($Q$12=1,"","# Material composition source not specified."),CONCATENATE("# Material composition source: ",$F$8))</f>
         <v># Material composition source: L18-L19 on "Enter a formula" sheet</v>
@@ -4684,18 +4690,18 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="176" t="s">
+      <c r="G7" s="157" t="s">
         <v>417</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
       <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4706,19 +4712,19 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="160" t="s">
         <v>468</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
       <c r="Q8" s="23" t="str">
         <f>IF($Q$12="1","# Elemental material: ", "# Material name:")</f>
         <v># Material name:</v>
@@ -4734,160 +4740,160 @@
       <c r="E9" s="46">
         <v>6</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="191" t="s">
         <v>397</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
       <c r="Q9" s="23" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($G$7),_xlfn.CONCAT("# ",$F$18, " (", $C$18,")"), _xlfn.CONCAT("# ", $G$7)), IF(ISBLANK($G$7),"# not specified", _xlfn.CONCAT("# ", $G$7)))</f>
         <v># water</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="188" t="s">
         <v>379</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
       <c r="Q11" s="24" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="147" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="116" t="s">
+      <c r="B12" s="148"/>
+      <c r="C12" s="189" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="163" t="s">
         <v>395</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="190" t="s">
         <v>396</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="163" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="163" t="s">
         <v>402</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="163" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="163" t="s">
         <v>427</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="K12" s="163" t="s">
         <v>390</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="111" t="s">
+      <c r="L12" s="180"/>
+      <c r="M12" s="196" t="s">
         <v>404</v>
       </c>
-      <c r="N12" s="112"/>
-      <c r="O12" s="99" t="s">
+      <c r="N12" s="197"/>
+      <c r="O12" s="155" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="95"/>
+      <c r="P12" s="151"/>
       <c r="Q12" s="23" t="str">
         <f>IF(COUNTA(A18:A29)&lt;&gt;COUNTA(B18:B29),"Error! Different number of entries for Atomic number and Mass fraction.", _xlfn.VALUETOTEXT(COUNTA(B18:B29)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="97"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="153"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="193" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="68" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="70" t="s">
+      <c r="N14" s="172" t="s">
         <v>389</v>
       </c>
-      <c r="O14" s="72" t="s">
+      <c r="O14" s="174" t="s">
         <v>259</v>
       </c>
-      <c r="P14" s="68" t="s">
+      <c r="P14" s="170" t="s">
         <v>389</v>
       </c>
       <c r="Q14" s="24" t="str">
@@ -4896,63 +4902,63 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="68"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="170"/>
       <c r="Q15" s="24" t="str">
         <f>IF($Q$12="1", IF(ISBLANK($K$5),FIXED(_xlfn.XLOOKUP($C18,Data!$T$6:$T$123,Data!$V$6:$V$123,#N/A),$E$9),FIXED($K$5,$E$9)),IF(ISBLANK($K$5),"Error! Density value not specified!",FIXED($K$5,$E$9)))</f>
         <v>1.000000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="68"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="170"/>
       <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="69"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="171"/>
       <c r="Q17" s="24" t="s">
         <v>386</v>
       </c>
@@ -4961,7 +4967,7 @@
       <c r="A18" s="47">
         <v>1</v>
       </c>
-      <c r="B18" s="147">
+      <c r="B18" s="74">
         <v>0.11190179485827366</v>
       </c>
       <c r="C18" s="34" t="str">
@@ -4969,11 +4975,11 @@
         <v>H</v>
       </c>
       <c r="D18" s="43">
-        <f>IF(E18= "","",E18/$E$33)</f>
+        <f t="shared" ref="D18:D29" si="0">IF(E18= "","",E18/$E$33)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E18" s="141">
-        <f>IF(C18="", "", K18/$K$34)</f>
+      <c r="E18" s="68">
+        <f t="shared" ref="E18:E29" si="1">IF(C18="", "", K18/$K$34)</f>
         <v>2</v>
       </c>
       <c r="F18" s="6" t="str">
@@ -4981,18 +4987,18 @@
         <v>hydrogen</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:G29" si="0">IF(ISBLANK(A18), "", A18)</f>
+        <f t="shared" ref="G18:G29" si="2">IF(ISBLANK(A18), "", A18)</f>
         <v>1</v>
       </c>
       <c r="H18" s="6">
-        <f>IF($C18="", "", B18/$B$33)</f>
+        <f t="shared" ref="H18:H29" si="3">IF($C18="", "", B18/$B$33)</f>
         <v>0.11190179485827366</v>
       </c>
-      <c r="I18" s="140">
+      <c r="I18" s="67">
         <f>IF($C18="", "", _xlfn.XLOOKUP($C18,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v>1.0079750000000001</v>
       </c>
-      <c r="J18" s="139">
+      <c r="J18" s="66">
         <f>IF(ISBLANK($B18), "",E18*I18)</f>
         <v>2.0159500000000001</v>
       </c>
@@ -5000,7 +5006,7 @@
         <f>IF(ISBLANK($B18), "",H18/ I18)</f>
         <v>0.11101643875916928</v>
       </c>
-      <c r="L18" s="80"/>
+      <c r="L18" s="181"/>
       <c r="M18" s="14" cm="1">
         <f t="array" ref="M18:N19">_xlfn._xlws.SORT(G18:INDEX(G18:H29,Q12,2),1,1,FALSE)</f>
         <v>1</v>
@@ -5025,7 +5031,7 @@
       <c r="A19" s="47">
         <v>8</v>
       </c>
-      <c r="B19" s="147">
+      <c r="B19" s="74">
         <v>0.88809820514172644</v>
       </c>
       <c r="C19" s="34" t="str">
@@ -5033,11 +5039,11 @@
         <v>O</v>
       </c>
       <c r="D19" s="43">
-        <f>IF(E19= "","",E19/$E$33)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E19" s="141">
-        <f>IF(C19="", "", K19/$K$34)</f>
+      <c r="E19" s="68">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F19" s="6" t="str">
@@ -5045,26 +5051,26 @@
         <v>oxygen</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H19" s="6">
-        <f>IF($C19="", "", B19/$B$33)</f>
+        <f t="shared" si="3"/>
         <v>0.88809820514172644</v>
       </c>
-      <c r="I19" s="140">
+      <c r="I19" s="67">
         <f>IF($C19="", "", _xlfn.XLOOKUP($C19,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v>15.9994</v>
       </c>
-      <c r="J19" s="139">
-        <f t="shared" ref="J19:J28" si="1">IF(ISBLANK($B19), "",E19*I19)</f>
+      <c r="J19" s="66">
+        <f t="shared" ref="J19:J28" si="4">IF(ISBLANK($B19), "",E19*I19)</f>
         <v>15.9994</v>
       </c>
       <c r="K19" s="37">
-        <f t="shared" ref="K19:K29" si="2">IF(ISBLANK($B19), "",H19/ I19)</f>
+        <f t="shared" ref="K19:K29" si="5">IF(ISBLANK($B19), "",H19/ I19)</f>
         <v>5.5508219379584639E-2</v>
       </c>
-      <c r="L19" s="80"/>
+      <c r="L19" s="181"/>
       <c r="M19" s="14">
         <v>8</v>
       </c>
@@ -5072,11 +5078,11 @@
         <v>0.88809820514172644</v>
       </c>
       <c r="O19" s="8" t="str">
-        <f t="shared" ref="O19:O29" si="3">_xlfn.VALUETOTEXT(M19)</f>
+        <f t="shared" ref="O19:O29" si="6">_xlfn.VALUETOTEXT(M19)</f>
         <v>8</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" ref="P19:P29" si="4">IF(O19="", "", FIXED(N19,$E$9))</f>
+        <f t="shared" ref="P19:P29" si="7">IF(O19="", "", FIXED(N19,$E$9))</f>
         <v>0.888098</v>
       </c>
       <c r="Q19" s="24" t="str">
@@ -5086,17 +5092,17 @@
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
-      <c r="B20" s="147"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="34" t="str">
         <f>IF($G20="", "", _xlfn.XLOOKUP($G20,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D20" s="43" t="str">
-        <f>IF(E20= "","",E20/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E20" s="141" t="str">
-        <f>IF(C20="", "", K20/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F20" s="6" t="str">
@@ -5104,34 +5110,34 @@
         <v/>
       </c>
       <c r="G20" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H20" s="6" t="str">
-        <f>IF($C20="", "", B20/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I20" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I20" s="67" t="str">
         <f>IF($C20="", "", _xlfn.XLOOKUP($C20,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J20" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J20" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K20" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L20" s="80"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L20" s="181"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P20" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q20" s="24" t="str">
@@ -5141,17 +5147,17 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="147"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="34" t="str">
         <f>IF($G21="", "", _xlfn.XLOOKUP($G21,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D21" s="43" t="str">
-        <f>IF(E21= "","",E21/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E21" s="141" t="str">
-        <f>IF(C21="", "", K21/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="6" t="str">
@@ -5159,34 +5165,34 @@
         <v/>
       </c>
       <c r="G21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H21" s="6" t="str">
-        <f>IF($C21="", "", B21/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I21" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I21" s="67" t="str">
         <f>IF($C21="", "", _xlfn.XLOOKUP($C21,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J21" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J21" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K21" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L21" s="80"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L21" s="181"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P21" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q21" s="24" t="str">
@@ -5196,17 +5202,17 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="147"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="34" t="str">
         <f>IF($G22="", "", _xlfn.XLOOKUP($G22,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D22" s="41" t="str">
-        <f>IF(E22= "","",E22/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E22" s="141" t="str">
-        <f>IF(C22="", "", K22/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F22" s="6" t="str">
@@ -5214,34 +5220,34 @@
         <v/>
       </c>
       <c r="G22" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H22" s="6" t="str">
-        <f>IF($C22="", "", B22/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I22" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I22" s="67" t="str">
         <f>IF($C22="", "", _xlfn.XLOOKUP($C22,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J22" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J22" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K22" s="37" t="str">
-        <f t="shared" ref="K22:K23" si="5">IF(ISBLANK($B22), "",H22/ I22)</f>
-        <v/>
-      </c>
-      <c r="L22" s="80"/>
+        <f t="shared" ref="K22:K23" si="8">IF(ISBLANK($B22), "",H22/ I22)</f>
+        <v/>
+      </c>
+      <c r="L22" s="181"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="8" t="str">
-        <f t="shared" ref="O22:O23" si="6">_xlfn.VALUETOTEXT(M22)</f>
+        <f t="shared" ref="O22:O23" si="9">_xlfn.VALUETOTEXT(M22)</f>
         <v/>
       </c>
       <c r="P22" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q22" s="24" t="str">
@@ -5251,17 +5257,17 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="147"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="34" t="str">
         <f>IF($G23="", "", _xlfn.XLOOKUP($G23,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D23" s="41" t="str">
-        <f>IF(E23= "","",E23/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E23" s="141" t="str">
-        <f>IF(C23="", "", K23/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F23" s="6" t="str">
@@ -5269,34 +5275,34 @@
         <v/>
       </c>
       <c r="G23" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H23" s="6" t="str">
-        <f>IF($C23="", "", B23/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I23" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I23" s="67" t="str">
         <f>IF($C23="", "", _xlfn.XLOOKUP($C23,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J23" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J23" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K23" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L23" s="80"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L23" s="181"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P23" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q23" s="24" t="str">
@@ -5306,17 +5312,17 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
-      <c r="B24" s="147"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="34" t="str">
         <f>IF($G24="", "", _xlfn.XLOOKUP($G24,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D24" s="41" t="str">
-        <f>IF(E24= "","",E24/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E24" s="141" t="str">
-        <f>IF(C24="", "", K24/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F24" s="6" t="str">
@@ -5324,34 +5330,34 @@
         <v/>
       </c>
       <c r="G24" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H24" s="6" t="str">
-        <f>IF($C24="", "", B24/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I24" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I24" s="67" t="str">
         <f>IF($C24="", "", _xlfn.XLOOKUP($C24,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J24" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J24" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K24" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L24" s="80"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L24" s="181"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P24" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q24" s="24" t="str">
@@ -5361,17 +5367,17 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
-      <c r="B25" s="147"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="34" t="str">
         <f>IF($G25="", "", _xlfn.XLOOKUP($G25,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D25" s="41" t="str">
-        <f>IF(E25= "","",E25/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E25" s="141" t="str">
-        <f>IF(C25="", "", K25/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F25" s="6" t="str">
@@ -5379,34 +5385,34 @@
         <v/>
       </c>
       <c r="G25" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H25" s="6" t="str">
-        <f>IF($C25="", "", B25/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I25" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I25" s="67" t="str">
         <f>IF($C25="", "", _xlfn.XLOOKUP($C25,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J25" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J25" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K25" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L25" s="80"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L25" s="181"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P25" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q25" s="24" t="str">
@@ -5416,17 +5422,17 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
-      <c r="B26" s="147"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="34" t="str">
         <f>IF($G26="", "", _xlfn.XLOOKUP($G26,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D26" s="41" t="str">
-        <f>IF(E26= "","",E26/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E26" s="141" t="str">
-        <f>IF(C26="", "", K26/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="6" t="str">
@@ -5434,34 +5440,34 @@
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H26" s="6" t="str">
-        <f>IF($C26="", "", B26/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I26" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I26" s="67" t="str">
         <f>IF($C26="", "", _xlfn.XLOOKUP($C26,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J26" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J26" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K26" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L26" s="80"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L26" s="181"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q26" s="24" t="str">
@@ -5471,17 +5477,17 @@
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
-      <c r="B27" s="147"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="34" t="str">
         <f>IF($G27="", "", _xlfn.XLOOKUP($G27,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D27" s="41" t="str">
-        <f>IF(E27= "","",E27/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E27" s="141" t="str">
-        <f>IF(C27="", "", K27/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E27" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F27" s="6" t="str">
@@ -5489,34 +5495,34 @@
         <v/>
       </c>
       <c r="G27" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H27" s="6" t="str">
-        <f>IF($C27="", "", B27/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I27" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I27" s="67" t="str">
         <f>IF($C27="", "", _xlfn.XLOOKUP($C27,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J27" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J27" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K27" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L27" s="80"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L27" s="181"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q27" s="24" t="str">
@@ -5526,17 +5532,17 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="147"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="34" t="str">
         <f>IF($G28="", "", _xlfn.XLOOKUP($G28,Data!$C$6:$C$123,Data!$B$6:$B$123,#N/A))</f>
         <v/>
       </c>
       <c r="D28" s="41" t="str">
-        <f>IF(E28= "","",E28/$E$33)</f>
-        <v/>
-      </c>
-      <c r="E28" s="141" t="str">
-        <f>IF(C28="", "", K28/$K$34)</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F28" s="6" t="str">
@@ -5544,34 +5550,34 @@
         <v/>
       </c>
       <c r="G28" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H28" s="6" t="str">
-        <f>IF($C28="", "", B28/$B$33)</f>
-        <v/>
-      </c>
-      <c r="I28" s="140" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I28" s="67" t="str">
         <f>IF($C28="", "", _xlfn.XLOOKUP($C28,Data!$B$6:$B$123,Data!$G$6:$G$123,#N/A))</f>
         <v/>
       </c>
-      <c r="J28" s="139" t="str">
-        <f t="shared" si="1"/>
+      <c r="J28" s="66" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K28" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L28" s="80"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L28" s="181"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q28" s="24" t="str">
@@ -5587,11 +5593,11 @@
         <v/>
       </c>
       <c r="D29" s="42" t="str">
-        <f>IF(E29= "","",E29/$E$33)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29" s="36" t="str">
-        <f>IF(C29="", "", K29/$K$34)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F29" s="7" t="str">
@@ -5599,11 +5605,11 @@
         <v/>
       </c>
       <c r="G29" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF($C29="", "", B29/$B$33)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
@@ -5611,22 +5617,22 @@
         <v/>
       </c>
       <c r="J29" s="38" t="str">
-        <f t="shared" ref="J19:J29" si="7">IF(ISBLANK($B29), "",H29*I29)</f>
+        <f t="shared" ref="J29" si="10">IF(ISBLANK($B29), "",H29*I29)</f>
         <v/>
       </c>
       <c r="K29" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L29" s="81"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L29" s="182"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P29" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q29" s="25" t="str">
@@ -5635,57 +5641,57 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="142" t="s">
         <v>403</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" s="142" t="s">
         <v>394</v>
       </c>
-      <c r="J30" s="89" t="s">
+      <c r="J30" s="142" t="s">
         <v>428</v>
       </c>
-      <c r="K30" s="89" t="s">
+      <c r="K30" s="142" t="s">
         <v>401</v>
       </c>
-      <c r="N30" s="89" t="s">
+      <c r="N30" s="142" t="s">
         <v>419</v>
       </c>
-      <c r="O30" s="135" t="s">
+      <c r="O30" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="125"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="B31" s="143"/>
+      <c r="E31" s="143"/>
       <c r="G31" s="50"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="136" t="s">
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="146">
+      <c r="P31" s="64"/>
+      <c r="Q31" s="73">
         <f>$P$40</f>
         <v>3.4195131166621888E-4</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="J32" s="142">
+      <c r="B32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="J32" s="69">
         <f>SUM(J18:J29)</f>
         <v>18.015349999999998</v>
       </c>
-      <c r="K32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="136" t="s">
+      <c r="K32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="127" t="s">
+      <c r="P32" s="64"/>
+      <c r="Q32" s="57" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5694,20 +5700,20 @@
         <f>SUM(B18:B29)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="143">
+      <c r="E33" s="70">
         <f>SUM(E18:E29)</f>
         <v>3</v>
       </c>
-      <c r="K33" s="90"/>
+      <c r="K33" s="143"/>
       <c r="N33" s="49">
         <f>SUM(N18:N29)</f>
         <v>1</v>
       </c>
-      <c r="O33" s="136" t="s">
+      <c r="O33" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="127" t="str">
+      <c r="P33" s="64"/>
+      <c r="Q33" s="57" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("NCAT blood with ", ROUND(100*$N$28, 1), "% iodine (", ROUND($P$41, 1), " ", $Q$41, ")")</f>
         <v>NCAT blood with 0% iodine (-1059.7 mg iodine/mL blood-iodine solution)</v>
       </c>
@@ -5718,24 +5724,24 @@
         <v>5.5508219379584639E-2</v>
       </c>
       <c r="N34" s="3"/>
-      <c r="O34" s="136" t="s">
+      <c r="O34" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="P34" s="137"/>
-      <c r="Q34" s="127" t="s">
+      <c r="P34" s="64"/>
+      <c r="Q34" s="57" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N35" s="3"/>
-      <c r="O35" s="138" t="s">
+      <c r="O35" s="65" t="s">
         <v>455</v>
       </c>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="149"/>
-      <c r="R35" s="149"/>
-      <c r="S35" s="150"/>
-      <c r="T35" s="151" t="s">
+      <c r="P35" s="75"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="78" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5746,113 +5752,113 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="145">
+      <c r="P36" s="72">
         <f>J32</f>
         <v>18.015349999999998</v>
       </c>
-      <c r="Q36" s="127" t="s">
+      <c r="Q36" s="57" t="s">
         <v>450</v>
       </c>
       <c r="R36" s="3"/>
-      <c r="S36" s="126" t="s">
+      <c r="S36" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="T36" s="127" t="s">
+      <c r="T36" s="57" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="145">
+      <c r="P37" s="72">
         <v>55845.000000000015</v>
       </c>
-      <c r="Q37" s="127" t="s">
+      <c r="Q37" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="S37" s="144">
+      <c r="S37" s="71">
         <v>0.7</v>
       </c>
-      <c r="T37" s="152">
+      <c r="T37" s="79">
         <v>7.0489999999999997E-3</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="128">
+      <c r="P38" s="58">
         <f>P36/P37</f>
         <v>3.2259557704360269E-4</v>
       </c>
-      <c r="Q38" s="127" t="s">
+      <c r="Q38" s="57" t="s">
         <v>452</v>
       </c>
-      <c r="S38" s="144">
+      <c r="S38" s="71">
         <v>0.8</v>
       </c>
-      <c r="T38" s="152">
+      <c r="T38" s="79">
         <v>8.0649999999999993E-3</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O39" s="53"/>
-      <c r="P39" s="126">
+      <c r="P39" s="56">
         <v>1.06</v>
       </c>
-      <c r="Q39" s="127" t="s">
+      <c r="Q39" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="S39" s="144">
+      <c r="S39" s="71">
         <v>0.9</v>
       </c>
-      <c r="T39" s="152">
+      <c r="T39" s="79">
         <v>9.0819999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O40" s="3"/>
-      <c r="P40" s="128">
+      <c r="P40" s="58">
         <f>P38*P39</f>
         <v>3.4195131166621888E-4</v>
       </c>
-      <c r="Q40" s="127" t="s">
+      <c r="Q40" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="S40" s="144">
+      <c r="S40" s="71">
         <v>1</v>
       </c>
-      <c r="T40" s="152">
+      <c r="T40" s="79">
         <v>1.0101000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P41" s="134">
+      <c r="P41" s="61">
         <f>1000*(P40-P39)</f>
         <v>-1059.6580486883338</v>
       </c>
-      <c r="Q41" s="129" t="s">
+      <c r="Q41" s="59" t="s">
         <v>441</v>
       </c>
-      <c r="S41" s="144">
+      <c r="S41" s="71">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T41" s="152">
+      <c r="T41" s="79">
         <v>1.1122E-2</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S42" s="144">
+      <c r="S42" s="71">
         <v>2</v>
       </c>
-      <c r="T42" s="152">
+      <c r="T42" s="79">
         <v>2.0407999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S43" s="134">
+      <c r="S43" s="61">
         <v>3</v>
       </c>
-      <c r="T43" s="153">
+      <c r="T43" s="80">
         <v>3.0928000000000001E-2</v>
       </c>
     </row>
@@ -5921,17 +5927,11 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="N30:N32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A4:P4"/>
@@ -5948,16 +5948,22 @@
     <mergeCell ref="N14:N17"/>
     <mergeCell ref="O14:O17"/>
     <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="F9:P9"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="D6:P6"/>
     <mergeCell ref="F8:P8"/>
     <mergeCell ref="L12:L29"/>
     <mergeCell ref="P14:P17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="N30:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5981,102 +5987,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="206" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="I1" s="120" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="I1" s="204" t="s">
         <v>374</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="P1" s="119" t="s">
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="P1" s="203" t="s">
         <v>373</v>
       </c>
-      <c r="Q1" s="119"/>
-      <c r="S1" s="120" t="s">
+      <c r="Q1" s="203"/>
+      <c r="S1" s="204" t="s">
         <v>376</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="208" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
     </row>
     <row r="5" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
